--- a/AAII_Financials/Quarterly/NVEI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NVEI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
   <si>
     <t>NVEI</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,143 +665,155 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>270000</v>
+      </c>
+      <c r="E8" s="3">
         <v>234300</v>
       </c>
-      <c r="E8" s="3">
-        <v>227000</v>
-      </c>
       <c r="F8" s="3">
-        <v>191700</v>
+        <v>227100</v>
       </c>
       <c r="G8" s="3">
-        <v>147600</v>
+        <v>191800</v>
       </c>
       <c r="H8" s="3">
+        <v>147700</v>
+      </c>
+      <c r="I8" s="3">
         <v>119500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>106100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>106000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>313100</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>62600</v>
+      </c>
+      <c r="E9" s="3">
         <v>48800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>42200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>34600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>30000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>21700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>17300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>19300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>51900</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>185400</v>
+        <v>207400</v>
       </c>
       <c r="E10" s="3">
-        <v>184800</v>
+        <v>185500</v>
       </c>
       <c r="F10" s="3">
+        <v>184900</v>
+      </c>
+      <c r="G10" s="3">
         <v>157100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>117700</v>
       </c>
-      <c r="H10" s="3">
-        <v>97800</v>
-      </c>
       <c r="I10" s="3">
-        <v>88800</v>
+        <v>97900</v>
       </c>
       <c r="J10" s="3">
+        <v>88900</v>
+      </c>
+      <c r="K10" s="3">
         <v>86700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>261200</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -813,8 +825,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -842,8 +855,11 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,66 +887,75 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E14" s="3">
         <v>600</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>2300</v>
       </c>
-      <c r="G14" s="3">
-        <v>34500</v>
-      </c>
       <c r="H14" s="3">
+        <v>34600</v>
+      </c>
+      <c r="I14" s="3">
         <v>800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>33100</v>
+      </c>
+      <c r="E15" s="3">
         <v>29500</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>26400</v>
       </c>
-      <c r="F15" s="3">
-        <v>26700</v>
-      </c>
       <c r="G15" s="3">
+        <v>26800</v>
+      </c>
+      <c r="H15" s="3">
         <v>23500</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>21600</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>21700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>22100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>65100</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -939,66 +964,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>183900</v>
+        <v>242200</v>
       </c>
       <c r="E17" s="3">
-        <v>164300</v>
+        <v>184000</v>
       </c>
       <c r="F17" s="3">
+        <v>164400</v>
+      </c>
+      <c r="G17" s="3">
         <v>147300</v>
       </c>
-      <c r="G17" s="3">
-        <v>154400</v>
-      </c>
       <c r="H17" s="3">
+        <v>148400</v>
+      </c>
+      <c r="I17" s="3">
         <v>99100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>82100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>89200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>304900</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>27900</v>
+      </c>
+      <c r="E18" s="3">
         <v>50300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>62700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>44400</v>
       </c>
-      <c r="G18" s="3">
-        <v>-6800</v>
-      </c>
       <c r="H18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I18" s="3">
         <v>20400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>24000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>16800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1010,153 +1042,169 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E20" s="3">
         <v>-200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1600</v>
       </c>
-      <c r="G20" s="3">
-        <v>34600</v>
-      </c>
       <c r="H20" s="3">
-        <v>-61200</v>
+        <v>28500</v>
       </c>
       <c r="I20" s="3">
+        <v>-61300</v>
+      </c>
+      <c r="J20" s="3">
         <v>17700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-71300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-27600</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>64800</v>
+      </c>
+      <c r="E21" s="3">
         <v>79600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>88100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>72800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>51300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-19300</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E22" s="3">
         <v>6500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>4300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>4200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>53900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>23200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>25000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>75000</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>25300</v>
+      </c>
+      <c r="E23" s="3">
         <v>43600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>57400</v>
       </c>
-      <c r="F23" s="3">
-        <v>41800</v>
-      </c>
       <c r="G23" s="3">
+        <v>41900</v>
+      </c>
+      <c r="H23" s="3">
         <v>27600</v>
       </c>
-      <c r="H23" s="3">
-        <v>-94700</v>
-      </c>
       <c r="I23" s="3">
+        <v>-94800</v>
+      </c>
+      <c r="J23" s="3">
         <v>18500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-79500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-94500</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E24" s="3">
         <v>7900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>7800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>6400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-1100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>4500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-6000</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,66 +1232,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>15700</v>
+      </c>
+      <c r="E26" s="3">
         <v>35700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>49600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>35400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>28800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-99200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>17800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-79400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-88500</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E27" s="3">
         <v>34200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>48200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>34200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>27700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-100100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>16800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-79700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-89800</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1271,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1300,8 +1360,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1329,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,66 +1424,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E32" s="3">
         <v>200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1600</v>
       </c>
-      <c r="G32" s="3">
-        <v>-34600</v>
-      </c>
       <c r="H32" s="3">
-        <v>61200</v>
+        <v>-28500</v>
       </c>
       <c r="I32" s="3">
+        <v>61300</v>
+      </c>
+      <c r="J32" s="3">
         <v>-17700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>71300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>27600</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E33" s="3">
         <v>34200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>48200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>34200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>27700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-100100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>16800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-79700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-89800</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1445,71 +1520,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E35" s="3">
         <v>34200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>48200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>34200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>27700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-100100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>16800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-79700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-89800</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1521,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1534,37 +1619,41 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>367800</v>
+        <v>953900</v>
       </c>
       <c r="E41" s="3">
-        <v>679800</v>
+        <v>367900</v>
       </c>
       <c r="F41" s="3">
-        <v>184000</v>
+        <v>680100</v>
       </c>
       <c r="G41" s="3">
-        <v>230200</v>
+        <v>184100</v>
       </c>
       <c r="H41" s="3">
-        <v>126600</v>
+        <v>230300</v>
       </c>
       <c r="I41" s="3">
-        <v>95800</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>8</v>
+        <v>126700</v>
+      </c>
+      <c r="J41" s="3">
+        <v>95900</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1592,211 +1681,235 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>60400</v>
+      </c>
+      <c r="E43" s="3">
         <v>68300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>73900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>75300</v>
       </c>
-      <c r="G43" s="3">
-        <v>62200</v>
-      </c>
       <c r="H43" s="3">
+        <v>62300</v>
+      </c>
+      <c r="I43" s="3">
         <v>52900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>51900</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E44" s="3">
         <v>500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>400</v>
-      </c>
-      <c r="F44" s="3">
-        <v>100</v>
       </c>
       <c r="G44" s="3">
         <v>100</v>
       </c>
       <c r="H44" s="3">
-        <v>700</v>
+        <v>100</v>
       </c>
       <c r="I44" s="3">
         <v>700</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>8</v>
+      <c r="J44" s="3">
+        <v>700</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>763400</v>
+        <v>929400</v>
       </c>
       <c r="E45" s="3">
-        <v>784100</v>
+        <v>763700</v>
       </c>
       <c r="F45" s="3">
-        <v>694500</v>
+        <v>784400</v>
       </c>
       <c r="G45" s="3">
-        <v>570800</v>
+        <v>694800</v>
       </c>
       <c r="H45" s="3">
-        <v>386000</v>
+        <v>571000</v>
       </c>
       <c r="I45" s="3">
-        <v>304200</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>8</v>
+        <v>386100</v>
+      </c>
+      <c r="J45" s="3">
+        <v>304300</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1200000</v>
+        <v>1945400</v>
       </c>
       <c r="E46" s="3">
-        <v>1538200</v>
+        <v>1200500</v>
       </c>
       <c r="F46" s="3">
-        <v>954000</v>
+        <v>1538800</v>
       </c>
       <c r="G46" s="3">
-        <v>863300</v>
+        <v>954300</v>
       </c>
       <c r="H46" s="3">
-        <v>566200</v>
+        <v>863700</v>
       </c>
       <c r="I46" s="3">
-        <v>452600</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>8</v>
+        <v>566400</v>
+      </c>
+      <c r="J46" s="3">
+        <v>452700</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>18800</v>
+      </c>
+      <c r="E47" s="3">
         <v>28200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>37100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>47900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>50700</v>
       </c>
-      <c r="H47" s="3">
-        <v>54400</v>
-      </c>
       <c r="I47" s="3">
+        <v>54500</v>
+      </c>
+      <c r="J47" s="3">
         <v>56400</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>24000</v>
+      </c>
+      <c r="E48" s="3">
         <v>21300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>20800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>20000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>21100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>19400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>17200</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2408100</v>
+        <v>2388500</v>
       </c>
       <c r="E49" s="3">
-        <v>1976700</v>
+        <v>2409000</v>
       </c>
       <c r="F49" s="3">
-        <v>1983400</v>
+        <v>1977400</v>
       </c>
       <c r="G49" s="3">
-        <v>1903100</v>
+        <v>1984100</v>
       </c>
       <c r="H49" s="3">
-        <v>1430600</v>
+        <v>1903900</v>
       </c>
       <c r="I49" s="3">
-        <v>1445200</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>8</v>
+        <v>1431100</v>
+      </c>
+      <c r="J49" s="3">
+        <v>1445700</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1824,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1853,37 +1969,43 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>26600</v>
+      </c>
+      <c r="E52" s="3">
         <v>28100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>21600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>28200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>25000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>19300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>17500</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1911,37 +2033,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3685600</v>
+        <v>4403300</v>
       </c>
       <c r="E54" s="3">
-        <v>3594300</v>
+        <v>3687100</v>
       </c>
       <c r="F54" s="3">
-        <v>3033500</v>
+        <v>3595700</v>
       </c>
       <c r="G54" s="3">
-        <v>2863200</v>
+        <v>3034700</v>
       </c>
       <c r="H54" s="3">
-        <v>2089900</v>
+        <v>2864300</v>
       </c>
       <c r="I54" s="3">
-        <v>1988900</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>8</v>
+        <v>2090700</v>
+      </c>
+      <c r="J54" s="3">
+        <v>1989600</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1953,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1966,124 +2095,137 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>37900</v>
+      </c>
+      <c r="E57" s="3">
         <v>32600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>30800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>31900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>25900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>23000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>20200</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E58" s="3">
         <v>10800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>9200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>6400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>3000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>3600</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>888800</v>
+        <v>1044600</v>
       </c>
       <c r="E59" s="3">
-        <v>895800</v>
+        <v>889100</v>
       </c>
       <c r="F59" s="3">
-        <v>772700</v>
+        <v>896200</v>
       </c>
       <c r="G59" s="3">
-        <v>640200</v>
+        <v>773000</v>
       </c>
       <c r="H59" s="3">
-        <v>439700</v>
+        <v>640400</v>
       </c>
       <c r="I59" s="3">
-        <v>507900</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>8</v>
+        <v>439800</v>
+      </c>
+      <c r="J59" s="3">
+        <v>508100</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>932200</v>
+        <v>1091800</v>
       </c>
       <c r="E60" s="3">
-        <v>935900</v>
+        <v>932500</v>
       </c>
       <c r="F60" s="3">
-        <v>807500</v>
+        <v>936200</v>
       </c>
       <c r="G60" s="3">
-        <v>669200</v>
+        <v>807800</v>
       </c>
       <c r="H60" s="3">
-        <v>465600</v>
+        <v>669500</v>
       </c>
       <c r="I60" s="3">
-        <v>531700</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>8</v>
+        <v>465800</v>
+      </c>
+      <c r="J60" s="3">
+        <v>531900</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2091,57 +2233,63 @@
         <v>638700</v>
       </c>
       <c r="E61" s="3">
-        <v>639400</v>
+        <v>638900</v>
       </c>
       <c r="F61" s="3">
-        <v>270800</v>
+        <v>639700</v>
       </c>
       <c r="G61" s="3">
-        <v>271000</v>
+        <v>270900</v>
       </c>
       <c r="H61" s="3">
+        <v>271100</v>
+      </c>
+      <c r="I61" s="3">
         <v>135100</v>
       </c>
-      <c r="I61" s="3">
-        <v>1037400</v>
-      </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>1037800</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>105800</v>
+        <v>96300</v>
       </c>
       <c r="E62" s="3">
+        <v>105900</v>
+      </c>
+      <c r="F62" s="3">
         <v>68200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>75200</v>
       </c>
-      <c r="G62" s="3">
-        <v>65900</v>
-      </c>
       <c r="H62" s="3">
+        <v>66000</v>
+      </c>
+      <c r="I62" s="3">
         <v>12500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>12800</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2169,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2227,37 +2381,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1690700</v>
+        <v>1842300</v>
       </c>
       <c r="E66" s="3">
-        <v>1656400</v>
+        <v>1691400</v>
       </c>
       <c r="F66" s="3">
-        <v>1165600</v>
+        <v>1657000</v>
       </c>
       <c r="G66" s="3">
-        <v>1017200</v>
+        <v>1166000</v>
       </c>
       <c r="H66" s="3">
-        <v>623600</v>
+        <v>1017600</v>
       </c>
       <c r="I66" s="3">
-        <v>1591700</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>8</v>
+        <v>623900</v>
+      </c>
+      <c r="J66" s="3">
+        <v>1592400</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2269,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2298,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2327,8 +2491,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2356,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2385,37 +2555,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-152300</v>
+        <v>-138600</v>
       </c>
       <c r="E72" s="3">
-        <v>-186500</v>
+        <v>-152400</v>
       </c>
       <c r="F72" s="3">
-        <v>-234700</v>
+        <v>-186600</v>
       </c>
       <c r="G72" s="3">
-        <v>-268800</v>
+        <v>-234800</v>
       </c>
       <c r="H72" s="3">
-        <v>-296500</v>
+        <v>-268900</v>
       </c>
       <c r="I72" s="3">
-        <v>-196400</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>8</v>
+        <v>-296600</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-196500</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2443,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2472,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2501,37 +2683,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1994900</v>
+        <v>2561000</v>
       </c>
       <c r="E76" s="3">
-        <v>1938000</v>
+        <v>1995700</v>
       </c>
       <c r="F76" s="3">
-        <v>1867900</v>
+        <v>1938700</v>
       </c>
       <c r="G76" s="3">
-        <v>1846000</v>
+        <v>1868700</v>
       </c>
       <c r="H76" s="3">
-        <v>1466300</v>
+        <v>1846700</v>
       </c>
       <c r="I76" s="3">
-        <v>397100</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>8</v>
+        <v>1466900</v>
+      </c>
+      <c r="J76" s="3">
+        <v>397300</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2559,71 +2747,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E81" s="3">
         <v>34200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>48200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>34200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>27700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-100100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>16800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-79700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-89800</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2635,37 +2832,41 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>33100</v>
+      </c>
+      <c r="E83" s="3">
         <v>29500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>26400</v>
       </c>
-      <c r="F83" s="3">
-        <v>26700</v>
-      </c>
       <c r="G83" s="3">
+        <v>26800</v>
+      </c>
+      <c r="H83" s="3">
         <v>23500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>21600</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2693,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2722,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2751,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2780,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2809,37 +3022,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>82800</v>
+      </c>
+      <c r="E89" s="3">
         <v>80100</v>
       </c>
-      <c r="E89" s="3">
-        <v>109000</v>
-      </c>
       <c r="F89" s="3">
-        <v>68000</v>
+        <v>109100</v>
       </c>
       <c r="G89" s="3">
+        <v>68100</v>
+      </c>
+      <c r="H89" s="3">
         <v>58600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>19800</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2851,37 +3070,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-500</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2909,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2938,37 +3164,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-386200</v>
+        <v>-9700</v>
       </c>
       <c r="E94" s="3">
+        <v>-386400</v>
+      </c>
+      <c r="F94" s="3">
         <v>7600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-115000</v>
       </c>
-      <c r="G94" s="3">
-        <v>-84600</v>
-      </c>
       <c r="H94" s="3">
+        <v>-84700</v>
+      </c>
+      <c r="I94" s="3">
         <v>-3600</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2980,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3009,8 +3242,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3038,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3067,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3096,91 +3338,103 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>519700</v>
+      </c>
+      <c r="E100" s="3">
         <v>2100</v>
       </c>
-      <c r="E100" s="3">
-        <v>377400</v>
-      </c>
       <c r="F100" s="3">
+        <v>377500</v>
+      </c>
+      <c r="G100" s="3">
         <v>400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>129100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>13800</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="E101" s="3">
         <v>-8000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>700</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J101" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-312000</v>
+        <v>586000</v>
       </c>
       <c r="E102" s="3">
-        <v>495800</v>
+        <v>-312100</v>
       </c>
       <c r="F102" s="3">
+        <v>496000</v>
+      </c>
+      <c r="G102" s="3">
         <v>-46200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>103600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>30800</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NVEI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NVEI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="92">
   <si>
     <t>NVEI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,155 +665,168 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>270000</v>
+        <v>279800</v>
       </c>
       <c r="E8" s="3">
-        <v>234300</v>
+        <v>276400</v>
       </c>
       <c r="F8" s="3">
-        <v>227100</v>
+        <v>239900</v>
       </c>
       <c r="G8" s="3">
-        <v>191800</v>
+        <v>232400</v>
       </c>
       <c r="H8" s="3">
-        <v>147700</v>
+        <v>196300</v>
       </c>
       <c r="I8" s="3">
-        <v>119500</v>
+        <v>151200</v>
       </c>
       <c r="J8" s="3">
+        <v>122400</v>
+      </c>
+      <c r="K8" s="3">
         <v>106100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>106000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>313100</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>62600</v>
+        <v>61200</v>
       </c>
       <c r="E9" s="3">
-        <v>48800</v>
+        <v>64100</v>
       </c>
       <c r="F9" s="3">
-        <v>42200</v>
+        <v>50000</v>
       </c>
       <c r="G9" s="3">
-        <v>34600</v>
+        <v>43200</v>
       </c>
       <c r="H9" s="3">
-        <v>30000</v>
+        <v>35500</v>
       </c>
       <c r="I9" s="3">
-        <v>21700</v>
+        <v>30700</v>
       </c>
       <c r="J9" s="3">
+        <v>22200</v>
+      </c>
+      <c r="K9" s="3">
         <v>17300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>19300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>51900</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>207400</v>
+        <v>218600</v>
       </c>
       <c r="E10" s="3">
-        <v>185500</v>
+        <v>212300</v>
       </c>
       <c r="F10" s="3">
-        <v>184900</v>
+        <v>189900</v>
       </c>
       <c r="G10" s="3">
-        <v>157100</v>
+        <v>189200</v>
       </c>
       <c r="H10" s="3">
-        <v>117700</v>
+        <v>160900</v>
       </c>
       <c r="I10" s="3">
-        <v>97900</v>
+        <v>120500</v>
       </c>
       <c r="J10" s="3">
+        <v>100200</v>
+      </c>
+      <c r="K10" s="3">
         <v>88900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>86700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>261200</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -826,8 +839,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -858,8 +872,11 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,72 +907,81 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E14" s="3">
         <v>1400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>600</v>
       </c>
-      <c r="F14" s="3">
-        <v>-800</v>
-      </c>
       <c r="G14" s="3">
-        <v>2300</v>
+        <v>-900</v>
       </c>
       <c r="H14" s="3">
-        <v>34600</v>
+        <v>2400</v>
       </c>
       <c r="I14" s="3">
+        <v>35400</v>
+      </c>
+      <c r="J14" s="3">
         <v>800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>33100</v>
+        <v>34500</v>
       </c>
       <c r="E15" s="3">
-        <v>29500</v>
+        <v>33800</v>
       </c>
       <c r="F15" s="3">
-        <v>26400</v>
+        <v>30200</v>
       </c>
       <c r="G15" s="3">
-        <v>26800</v>
+        <v>27100</v>
       </c>
       <c r="H15" s="3">
-        <v>23500</v>
+        <v>27400</v>
       </c>
       <c r="I15" s="3">
-        <v>21600</v>
+        <v>24000</v>
       </c>
       <c r="J15" s="3">
+        <v>22100</v>
+      </c>
+      <c r="K15" s="3">
         <v>21700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>22100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>65100</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,72 +991,79 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>242200</v>
+        <v>252700</v>
       </c>
       <c r="E17" s="3">
-        <v>184000</v>
+        <v>247900</v>
       </c>
       <c r="F17" s="3">
-        <v>164400</v>
+        <v>188400</v>
       </c>
       <c r="G17" s="3">
-        <v>147300</v>
+        <v>168300</v>
       </c>
       <c r="H17" s="3">
-        <v>148400</v>
+        <v>150800</v>
       </c>
       <c r="I17" s="3">
-        <v>99100</v>
+        <v>151900</v>
       </c>
       <c r="J17" s="3">
+        <v>101500</v>
+      </c>
+      <c r="K17" s="3">
         <v>82100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>89200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>304900</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>27900</v>
+        <v>27100</v>
       </c>
       <c r="E18" s="3">
-        <v>50300</v>
+        <v>28500</v>
       </c>
       <c r="F18" s="3">
-        <v>62700</v>
+        <v>51500</v>
       </c>
       <c r="G18" s="3">
-        <v>44400</v>
+        <v>64200</v>
       </c>
       <c r="H18" s="3">
+        <v>45500</v>
+      </c>
+      <c r="I18" s="3">
         <v>-700</v>
       </c>
-      <c r="I18" s="3">
-        <v>20400</v>
-      </c>
       <c r="J18" s="3">
+        <v>20900</v>
+      </c>
+      <c r="K18" s="3">
         <v>24000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>16800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,63 +1076,67 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>3800</v>
+        <v>-3500</v>
       </c>
       <c r="E20" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F20" s="3">
         <v>-200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1600</v>
       </c>
-      <c r="H20" s="3">
-        <v>28500</v>
-      </c>
       <c r="I20" s="3">
-        <v>-61300</v>
+        <v>29200</v>
       </c>
       <c r="J20" s="3">
+        <v>-62700</v>
+      </c>
+      <c r="K20" s="3">
         <v>17700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-71300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-27600</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>64800</v>
+        <v>58100</v>
       </c>
       <c r="E21" s="3">
-        <v>79600</v>
+        <v>66300</v>
       </c>
       <c r="F21" s="3">
-        <v>88100</v>
+        <v>81500</v>
       </c>
       <c r="G21" s="3">
-        <v>72800</v>
+        <v>90200</v>
       </c>
       <c r="H21" s="3">
-        <v>51300</v>
+        <v>74500</v>
       </c>
       <c r="I21" s="3">
-        <v>-19300</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>8</v>
+        <v>52500</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-19700</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1107,104 +1144,116 @@
       <c r="L21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>6400</v>
+        <v>6500</v>
       </c>
       <c r="E22" s="3">
         <v>6500</v>
       </c>
       <c r="F22" s="3">
+        <v>6700</v>
+      </c>
+      <c r="G22" s="3">
+        <v>4400</v>
+      </c>
+      <c r="H22" s="3">
         <v>4300</v>
       </c>
-      <c r="G22" s="3">
-        <v>4200</v>
-      </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>200</v>
       </c>
-      <c r="I22" s="3">
-        <v>53900</v>
-      </c>
       <c r="J22" s="3">
+        <v>55200</v>
+      </c>
+      <c r="K22" s="3">
         <v>23200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>25000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>75000</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>25300</v>
+        <v>17100</v>
       </c>
       <c r="E23" s="3">
-        <v>43600</v>
+        <v>25900</v>
       </c>
       <c r="F23" s="3">
-        <v>57400</v>
+        <v>44600</v>
       </c>
       <c r="G23" s="3">
-        <v>41900</v>
+        <v>58700</v>
       </c>
       <c r="H23" s="3">
-        <v>27600</v>
+        <v>42800</v>
       </c>
       <c r="I23" s="3">
-        <v>-94800</v>
+        <v>28300</v>
       </c>
       <c r="J23" s="3">
+        <v>-97000</v>
+      </c>
+      <c r="K23" s="3">
         <v>18500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-79500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-94500</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>9600</v>
+        <v>11200</v>
       </c>
       <c r="E24" s="3">
-        <v>7900</v>
+        <v>9800</v>
       </c>
       <c r="F24" s="3">
-        <v>7800</v>
+        <v>8100</v>
       </c>
       <c r="G24" s="3">
-        <v>6400</v>
+        <v>8000</v>
       </c>
       <c r="H24" s="3">
-        <v>-1100</v>
+        <v>6600</v>
       </c>
       <c r="I24" s="3">
-        <v>4500</v>
+        <v>-1200</v>
       </c>
       <c r="J24" s="3">
+        <v>4600</v>
+      </c>
+      <c r="K24" s="3">
         <v>700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-6000</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,72 +1284,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>15700</v>
+        <v>5900</v>
       </c>
       <c r="E26" s="3">
-        <v>35700</v>
+        <v>16100</v>
       </c>
       <c r="F26" s="3">
-        <v>49600</v>
+        <v>36500</v>
       </c>
       <c r="G26" s="3">
-        <v>35400</v>
+        <v>50800</v>
       </c>
       <c r="H26" s="3">
-        <v>28800</v>
+        <v>36200</v>
       </c>
       <c r="I26" s="3">
-        <v>-99200</v>
+        <v>29400</v>
       </c>
       <c r="J26" s="3">
+        <v>-101600</v>
+      </c>
+      <c r="K26" s="3">
         <v>17800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-79400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-88500</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>13800</v>
+        <v>3900</v>
       </c>
       <c r="E27" s="3">
-        <v>34200</v>
+        <v>14100</v>
       </c>
       <c r="F27" s="3">
-        <v>48200</v>
+        <v>35000</v>
       </c>
       <c r="G27" s="3">
-        <v>34200</v>
+        <v>49300</v>
       </c>
       <c r="H27" s="3">
-        <v>27700</v>
+        <v>35000</v>
       </c>
       <c r="I27" s="3">
-        <v>-100100</v>
+        <v>28300</v>
       </c>
       <c r="J27" s="3">
+        <v>-102500</v>
+      </c>
+      <c r="K27" s="3">
         <v>16800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-79700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-89800</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,8 +1389,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1363,8 +1424,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1459,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,72 +1494,81 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-3800</v>
+        <v>3500</v>
       </c>
       <c r="E32" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="F32" s="3">
         <v>200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1600</v>
       </c>
-      <c r="H32" s="3">
-        <v>-28500</v>
-      </c>
       <c r="I32" s="3">
-        <v>61300</v>
+        <v>-29200</v>
       </c>
       <c r="J32" s="3">
+        <v>62700</v>
+      </c>
+      <c r="K32" s="3">
         <v>-17700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>71300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>27600</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>13800</v>
+        <v>3900</v>
       </c>
       <c r="E33" s="3">
-        <v>34200</v>
+        <v>14100</v>
       </c>
       <c r="F33" s="3">
-        <v>48200</v>
+        <v>35000</v>
       </c>
       <c r="G33" s="3">
-        <v>34200</v>
+        <v>49300</v>
       </c>
       <c r="H33" s="3">
-        <v>27700</v>
+        <v>35000</v>
       </c>
       <c r="I33" s="3">
-        <v>-100100</v>
+        <v>28300</v>
       </c>
       <c r="J33" s="3">
+        <v>-102500</v>
+      </c>
+      <c r="K33" s="3">
         <v>16800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-79700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-89800</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,77 +1599,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>13800</v>
+        <v>3900</v>
       </c>
       <c r="E35" s="3">
-        <v>34200</v>
+        <v>14100</v>
       </c>
       <c r="F35" s="3">
-        <v>48200</v>
+        <v>35000</v>
       </c>
       <c r="G35" s="3">
-        <v>34200</v>
+        <v>49300</v>
       </c>
       <c r="H35" s="3">
-        <v>27700</v>
+        <v>35000</v>
       </c>
       <c r="I35" s="3">
-        <v>-100100</v>
+        <v>28300</v>
       </c>
       <c r="J35" s="3">
+        <v>-102500</v>
+      </c>
+      <c r="K35" s="3">
         <v>16800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-79700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-89800</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1691,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,40 +1706,44 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>953900</v>
+        <v>958800</v>
       </c>
       <c r="E41" s="3">
-        <v>367900</v>
+        <v>976400</v>
       </c>
       <c r="F41" s="3">
-        <v>680100</v>
+        <v>376600</v>
       </c>
       <c r="G41" s="3">
-        <v>184100</v>
+        <v>696100</v>
       </c>
       <c r="H41" s="3">
-        <v>230300</v>
+        <v>188400</v>
       </c>
       <c r="I41" s="3">
-        <v>126700</v>
+        <v>235700</v>
       </c>
       <c r="J41" s="3">
+        <v>129700</v>
+      </c>
+      <c r="K41" s="3">
         <v>95900</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1684,232 +1774,256 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>60400</v>
+        <v>63500</v>
       </c>
       <c r="E43" s="3">
-        <v>68300</v>
+        <v>61900</v>
       </c>
       <c r="F43" s="3">
-        <v>73900</v>
+        <v>69900</v>
       </c>
       <c r="G43" s="3">
-        <v>75300</v>
+        <v>75600</v>
       </c>
       <c r="H43" s="3">
-        <v>62300</v>
+        <v>77100</v>
       </c>
       <c r="I43" s="3">
-        <v>52900</v>
+        <v>63700</v>
       </c>
       <c r="J43" s="3">
+        <v>54200</v>
+      </c>
+      <c r="K43" s="3">
         <v>51900</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="E44" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F44" s="3">
         <v>500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>400</v>
-      </c>
-      <c r="G44" s="3">
-        <v>100</v>
       </c>
       <c r="H44" s="3">
         <v>100</v>
       </c>
       <c r="I44" s="3">
-        <v>700</v>
+        <v>100</v>
       </c>
       <c r="J44" s="3">
         <v>700</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>8</v>
+      <c r="K44" s="3">
+        <v>700</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>929400</v>
+        <v>1004500</v>
       </c>
       <c r="E45" s="3">
-        <v>763700</v>
+        <v>951400</v>
       </c>
       <c r="F45" s="3">
-        <v>784400</v>
+        <v>781700</v>
       </c>
       <c r="G45" s="3">
-        <v>694800</v>
+        <v>802900</v>
       </c>
       <c r="H45" s="3">
-        <v>571000</v>
+        <v>711200</v>
       </c>
       <c r="I45" s="3">
-        <v>386100</v>
+        <v>584500</v>
       </c>
       <c r="J45" s="3">
+        <v>395200</v>
+      </c>
+      <c r="K45" s="3">
         <v>304300</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1945400</v>
+        <v>2028600</v>
       </c>
       <c r="E46" s="3">
-        <v>1200500</v>
+        <v>1991300</v>
       </c>
       <c r="F46" s="3">
-        <v>1538800</v>
+        <v>1228800</v>
       </c>
       <c r="G46" s="3">
-        <v>954300</v>
+        <v>1575100</v>
       </c>
       <c r="H46" s="3">
-        <v>863700</v>
+        <v>976900</v>
       </c>
       <c r="I46" s="3">
-        <v>566400</v>
+        <v>884100</v>
       </c>
       <c r="J46" s="3">
+        <v>579800</v>
+      </c>
+      <c r="K46" s="3">
         <v>452700</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>18800</v>
+        <v>9900</v>
       </c>
       <c r="E47" s="3">
-        <v>28200</v>
+        <v>19300</v>
       </c>
       <c r="F47" s="3">
-        <v>37100</v>
+        <v>28800</v>
       </c>
       <c r="G47" s="3">
-        <v>47900</v>
+        <v>38000</v>
       </c>
       <c r="H47" s="3">
-        <v>50700</v>
+        <v>49100</v>
       </c>
       <c r="I47" s="3">
-        <v>54500</v>
+        <v>51900</v>
       </c>
       <c r="J47" s="3">
+        <v>55700</v>
+      </c>
+      <c r="K47" s="3">
         <v>56400</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>24000</v>
+        <v>31300</v>
       </c>
       <c r="E48" s="3">
+        <v>24600</v>
+      </c>
+      <c r="F48" s="3">
+        <v>21800</v>
+      </c>
+      <c r="G48" s="3">
         <v>21300</v>
       </c>
-      <c r="F48" s="3">
-        <v>20800</v>
-      </c>
-      <c r="G48" s="3">
-        <v>20000</v>
-      </c>
       <c r="H48" s="3">
-        <v>21100</v>
+        <v>20500</v>
       </c>
       <c r="I48" s="3">
-        <v>19400</v>
+        <v>21600</v>
       </c>
       <c r="J48" s="3">
+        <v>19900</v>
+      </c>
+      <c r="K48" s="3">
         <v>17200</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2388500</v>
+        <v>2424400</v>
       </c>
       <c r="E49" s="3">
-        <v>2409000</v>
+        <v>2444900</v>
       </c>
       <c r="F49" s="3">
-        <v>1977400</v>
+        <v>2465900</v>
       </c>
       <c r="G49" s="3">
-        <v>1984100</v>
+        <v>2024200</v>
       </c>
       <c r="H49" s="3">
-        <v>1903900</v>
+        <v>2031000</v>
       </c>
       <c r="I49" s="3">
-        <v>1431100</v>
+        <v>1948800</v>
       </c>
       <c r="J49" s="3">
+        <v>1464900</v>
+      </c>
+      <c r="K49" s="3">
         <v>1445700</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2054,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,40 +2089,46 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>26600</v>
+        <v>28400</v>
       </c>
       <c r="E52" s="3">
-        <v>28100</v>
+        <v>27200</v>
       </c>
       <c r="F52" s="3">
-        <v>21600</v>
+        <v>28800</v>
       </c>
       <c r="G52" s="3">
-        <v>28200</v>
+        <v>22100</v>
       </c>
       <c r="H52" s="3">
-        <v>25000</v>
+        <v>28900</v>
       </c>
       <c r="I52" s="3">
-        <v>19300</v>
+        <v>25600</v>
       </c>
       <c r="J52" s="3">
+        <v>19800</v>
+      </c>
+      <c r="K52" s="3">
         <v>17500</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,40 +2159,46 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4403300</v>
+        <v>4522500</v>
       </c>
       <c r="E54" s="3">
-        <v>3687100</v>
+        <v>4507300</v>
       </c>
       <c r="F54" s="3">
-        <v>3595700</v>
+        <v>3774200</v>
       </c>
       <c r="G54" s="3">
-        <v>3034700</v>
+        <v>3680700</v>
       </c>
       <c r="H54" s="3">
-        <v>2864300</v>
+        <v>3106400</v>
       </c>
       <c r="I54" s="3">
-        <v>2090700</v>
+        <v>2932000</v>
       </c>
       <c r="J54" s="3">
+        <v>2140100</v>
+      </c>
+      <c r="K54" s="3">
         <v>1989600</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2211,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,200 +2226,219 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>37900</v>
+        <v>40500</v>
       </c>
       <c r="E57" s="3">
-        <v>32600</v>
+        <v>38800</v>
       </c>
       <c r="F57" s="3">
-        <v>30800</v>
+        <v>33400</v>
       </c>
       <c r="G57" s="3">
-        <v>31900</v>
+        <v>31600</v>
       </c>
       <c r="H57" s="3">
-        <v>25900</v>
+        <v>32700</v>
       </c>
       <c r="I57" s="3">
-        <v>23000</v>
+        <v>26500</v>
       </c>
       <c r="J57" s="3">
+        <v>23500</v>
+      </c>
+      <c r="K57" s="3">
         <v>20200</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E58" s="3">
+        <v>9600</v>
+      </c>
+      <c r="F58" s="3">
+        <v>11100</v>
+      </c>
+      <c r="G58" s="3">
         <v>9400</v>
       </c>
-      <c r="E58" s="3">
-        <v>10800</v>
-      </c>
-      <c r="F58" s="3">
-        <v>9200</v>
-      </c>
-      <c r="G58" s="3">
-        <v>2900</v>
-      </c>
       <c r="H58" s="3">
-        <v>6400</v>
+        <v>3000</v>
       </c>
       <c r="I58" s="3">
+        <v>6600</v>
+      </c>
+      <c r="J58" s="3">
         <v>3000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3600</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1044600</v>
+        <v>1239400</v>
       </c>
       <c r="E59" s="3">
-        <v>889100</v>
+        <v>1069200</v>
       </c>
       <c r="F59" s="3">
-        <v>896200</v>
+        <v>910100</v>
       </c>
       <c r="G59" s="3">
-        <v>773000</v>
+        <v>917300</v>
       </c>
       <c r="H59" s="3">
-        <v>640400</v>
+        <v>791200</v>
       </c>
       <c r="I59" s="3">
-        <v>439800</v>
+        <v>655500</v>
       </c>
       <c r="J59" s="3">
+        <v>450200</v>
+      </c>
+      <c r="K59" s="3">
         <v>508100</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1091800</v>
+        <v>1290500</v>
       </c>
       <c r="E60" s="3">
-        <v>932500</v>
+        <v>1117600</v>
       </c>
       <c r="F60" s="3">
-        <v>936200</v>
+        <v>954600</v>
       </c>
       <c r="G60" s="3">
-        <v>807800</v>
+        <v>958300</v>
       </c>
       <c r="H60" s="3">
-        <v>669500</v>
+        <v>826900</v>
       </c>
       <c r="I60" s="3">
-        <v>465800</v>
+        <v>685300</v>
       </c>
       <c r="J60" s="3">
+        <v>476800</v>
+      </c>
+      <c r="K60" s="3">
         <v>531900</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>638700</v>
+        <v>658500</v>
       </c>
       <c r="E61" s="3">
-        <v>638900</v>
+        <v>653800</v>
       </c>
       <c r="F61" s="3">
-        <v>639700</v>
+        <v>654000</v>
       </c>
       <c r="G61" s="3">
-        <v>270900</v>
+        <v>654800</v>
       </c>
       <c r="H61" s="3">
-        <v>271100</v>
+        <v>277300</v>
       </c>
       <c r="I61" s="3">
-        <v>135100</v>
+        <v>277500</v>
       </c>
       <c r="J61" s="3">
+        <v>138300</v>
+      </c>
+      <c r="K61" s="3">
         <v>1037800</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>96300</v>
+        <v>90000</v>
       </c>
       <c r="E62" s="3">
-        <v>105900</v>
+        <v>98600</v>
       </c>
       <c r="F62" s="3">
-        <v>68200</v>
+        <v>108400</v>
       </c>
       <c r="G62" s="3">
-        <v>75200</v>
+        <v>69900</v>
       </c>
       <c r="H62" s="3">
-        <v>66000</v>
+        <v>77000</v>
       </c>
       <c r="I62" s="3">
-        <v>12500</v>
+        <v>67500</v>
       </c>
       <c r="J62" s="3">
         <v>12800</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>8</v>
+      <c r="K62" s="3">
+        <v>12800</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2469,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2504,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,40 +2539,46 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1842300</v>
+        <v>2048100</v>
       </c>
       <c r="E66" s="3">
-        <v>1691400</v>
+        <v>1885800</v>
       </c>
       <c r="F66" s="3">
-        <v>1657000</v>
+        <v>1731300</v>
       </c>
       <c r="G66" s="3">
-        <v>1166000</v>
+        <v>1696200</v>
       </c>
       <c r="H66" s="3">
-        <v>1017600</v>
+        <v>1193600</v>
       </c>
       <c r="I66" s="3">
-        <v>623900</v>
+        <v>1041700</v>
       </c>
       <c r="J66" s="3">
+        <v>638600</v>
+      </c>
+      <c r="K66" s="3">
         <v>1592400</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2591,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2624,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2659,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2526,8 +2694,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,40 +2729,46 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-138600</v>
+        <v>-275500</v>
       </c>
       <c r="E72" s="3">
-        <v>-152400</v>
+        <v>-141900</v>
       </c>
       <c r="F72" s="3">
-        <v>-186600</v>
+        <v>-156000</v>
       </c>
       <c r="G72" s="3">
-        <v>-234800</v>
+        <v>-191000</v>
       </c>
       <c r="H72" s="3">
-        <v>-268900</v>
+        <v>-240300</v>
       </c>
       <c r="I72" s="3">
-        <v>-296600</v>
+        <v>-275300</v>
       </c>
       <c r="J72" s="3">
+        <v>-303600</v>
+      </c>
+      <c r="K72" s="3">
         <v>-196500</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2799,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +2834,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,40 +2869,46 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2561000</v>
+        <v>2474400</v>
       </c>
       <c r="E76" s="3">
-        <v>1995700</v>
+        <v>2621500</v>
       </c>
       <c r="F76" s="3">
-        <v>1938700</v>
+        <v>2042800</v>
       </c>
       <c r="G76" s="3">
-        <v>1868700</v>
+        <v>1984500</v>
       </c>
       <c r="H76" s="3">
-        <v>1846700</v>
+        <v>1912800</v>
       </c>
       <c r="I76" s="3">
-        <v>1466900</v>
+        <v>1890300</v>
       </c>
       <c r="J76" s="3">
+        <v>1501500</v>
+      </c>
+      <c r="K76" s="3">
         <v>397300</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,77 +2939,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>13800</v>
+        <v>3900</v>
       </c>
       <c r="E81" s="3">
-        <v>34200</v>
+        <v>14100</v>
       </c>
       <c r="F81" s="3">
-        <v>48200</v>
+        <v>35000</v>
       </c>
       <c r="G81" s="3">
-        <v>34200</v>
+        <v>49300</v>
       </c>
       <c r="H81" s="3">
-        <v>27700</v>
+        <v>35000</v>
       </c>
       <c r="I81" s="3">
-        <v>-100100</v>
+        <v>28300</v>
       </c>
       <c r="J81" s="3">
+        <v>-102500</v>
+      </c>
+      <c r="K81" s="3">
         <v>16800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-79700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-89800</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,31 +3031,32 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>33100</v>
+        <v>34500</v>
       </c>
       <c r="E83" s="3">
-        <v>29500</v>
+        <v>33800</v>
       </c>
       <c r="F83" s="3">
-        <v>26400</v>
+        <v>30200</v>
       </c>
       <c r="G83" s="3">
-        <v>26800</v>
+        <v>27100</v>
       </c>
       <c r="H83" s="3">
-        <v>23500</v>
+        <v>27400</v>
       </c>
       <c r="I83" s="3">
-        <v>21600</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>8</v>
+        <v>24000</v>
+      </c>
+      <c r="J83" s="3">
+        <v>22100</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -2865,8 +3064,11 @@
       <c r="L83" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3099,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3134,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3169,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3204,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,31 +3239,34 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>82800</v>
+        <v>85700</v>
       </c>
       <c r="E89" s="3">
-        <v>80100</v>
+        <v>84700</v>
       </c>
       <c r="F89" s="3">
-        <v>109100</v>
+        <v>82000</v>
       </c>
       <c r="G89" s="3">
-        <v>68100</v>
+        <v>111600</v>
       </c>
       <c r="H89" s="3">
-        <v>58600</v>
+        <v>69700</v>
       </c>
       <c r="I89" s="3">
-        <v>19800</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>8</v>
+        <v>60000</v>
+      </c>
+      <c r="J89" s="3">
+        <v>20300</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>8</v>
@@ -3057,8 +3274,11 @@
       <c r="L89" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,40 +3291,44 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1500</v>
       </c>
-      <c r="F91" s="3">
-        <v>-2300</v>
-      </c>
       <c r="G91" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="H91" s="3">
         <v>-800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-500</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3359,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,40 +3394,46 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-9700</v>
+        <v>-11900</v>
       </c>
       <c r="E94" s="3">
-        <v>-386400</v>
+        <v>-9900</v>
       </c>
       <c r="F94" s="3">
-        <v>7600</v>
+        <v>-395500</v>
       </c>
       <c r="G94" s="3">
-        <v>-115000</v>
+        <v>7800</v>
       </c>
       <c r="H94" s="3">
-        <v>-84700</v>
+        <v>-117800</v>
       </c>
       <c r="I94" s="3">
+        <v>-86700</v>
+      </c>
+      <c r="J94" s="3">
         <v>-3600</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,8 +3446,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3245,8 +3479,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3514,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3549,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,31 +3584,34 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>519700</v>
+        <v>-99600</v>
       </c>
       <c r="E100" s="3">
+        <v>532000</v>
+      </c>
+      <c r="F100" s="3">
         <v>2100</v>
       </c>
-      <c r="F100" s="3">
-        <v>377500</v>
-      </c>
       <c r="G100" s="3">
+        <v>386400</v>
+      </c>
+      <c r="H100" s="3">
         <v>400</v>
       </c>
-      <c r="H100" s="3">
-        <v>129100</v>
-      </c>
       <c r="I100" s="3">
-        <v>13800</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>8</v>
+        <v>132200</v>
+      </c>
+      <c r="J100" s="3">
+        <v>14200</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3373,31 +3619,34 @@
       <c r="L100" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-6900</v>
+        <v>8100</v>
       </c>
       <c r="E101" s="3">
-        <v>-8000</v>
+        <v>-7000</v>
       </c>
       <c r="F101" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="G101" s="3">
         <v>1800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>400</v>
       </c>
-      <c r="H101" s="3">
-        <v>500</v>
-      </c>
       <c r="I101" s="3">
-        <v>700</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>8</v>
+        <v>600</v>
+      </c>
+      <c r="J101" s="3">
+        <v>800</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -3405,36 +3654,42 @@
       <c r="L101" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>586000</v>
+        <v>-17700</v>
       </c>
       <c r="E102" s="3">
-        <v>-312100</v>
+        <v>599800</v>
       </c>
       <c r="F102" s="3">
-        <v>496000</v>
+        <v>-319500</v>
       </c>
       <c r="G102" s="3">
-        <v>-46200</v>
+        <v>507700</v>
       </c>
       <c r="H102" s="3">
-        <v>103600</v>
+        <v>-47300</v>
       </c>
       <c r="I102" s="3">
-        <v>30800</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>8</v>
+        <v>106000</v>
+      </c>
+      <c r="J102" s="3">
+        <v>31600</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NVEI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NVEI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
   <si>
     <t>NVEI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,168 +665,181 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>279800</v>
+        <v>273100</v>
       </c>
       <c r="E8" s="3">
-        <v>276400</v>
+        <v>277200</v>
       </c>
       <c r="F8" s="3">
-        <v>239900</v>
+        <v>273900</v>
       </c>
       <c r="G8" s="3">
-        <v>232400</v>
+        <v>237700</v>
       </c>
       <c r="H8" s="3">
-        <v>196300</v>
+        <v>230300</v>
       </c>
       <c r="I8" s="3">
-        <v>151200</v>
+        <v>194500</v>
       </c>
       <c r="J8" s="3">
+        <v>149800</v>
+      </c>
+      <c r="K8" s="3">
         <v>122400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>106100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>106000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>313100</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>61200</v>
+        <v>46500</v>
       </c>
       <c r="E9" s="3">
-        <v>64100</v>
+        <v>60600</v>
       </c>
       <c r="F9" s="3">
-        <v>50000</v>
+        <v>63500</v>
       </c>
       <c r="G9" s="3">
-        <v>43200</v>
+        <v>49500</v>
       </c>
       <c r="H9" s="3">
-        <v>35500</v>
+        <v>42800</v>
       </c>
       <c r="I9" s="3">
-        <v>30700</v>
+        <v>35100</v>
       </c>
       <c r="J9" s="3">
+        <v>30400</v>
+      </c>
+      <c r="K9" s="3">
         <v>22200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>17300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>19300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>51900</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>218600</v>
+        <v>226600</v>
       </c>
       <c r="E10" s="3">
-        <v>212300</v>
+        <v>216600</v>
       </c>
       <c r="F10" s="3">
-        <v>189900</v>
+        <v>210400</v>
       </c>
       <c r="G10" s="3">
-        <v>189200</v>
+        <v>188100</v>
       </c>
       <c r="H10" s="3">
-        <v>160900</v>
+        <v>187500</v>
       </c>
       <c r="I10" s="3">
-        <v>120500</v>
+        <v>159400</v>
       </c>
       <c r="J10" s="3">
+        <v>119400</v>
+      </c>
+      <c r="K10" s="3">
         <v>100200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>88900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>86700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>261200</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -840,8 +853,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -875,8 +889,11 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,78 +927,87 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E14" s="3">
         <v>-1800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>600</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>2400</v>
       </c>
-      <c r="I14" s="3">
-        <v>35400</v>
-      </c>
       <c r="J14" s="3">
+        <v>35000</v>
+      </c>
+      <c r="K14" s="3">
         <v>800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>34500</v>
+        <v>35000</v>
       </c>
       <c r="E15" s="3">
-        <v>33800</v>
+        <v>34200</v>
       </c>
       <c r="F15" s="3">
-        <v>30200</v>
+        <v>33500</v>
       </c>
       <c r="G15" s="3">
+        <v>29900</v>
+      </c>
+      <c r="H15" s="3">
+        <v>26800</v>
+      </c>
+      <c r="I15" s="3">
         <v>27100</v>
       </c>
-      <c r="H15" s="3">
-        <v>27400</v>
-      </c>
-      <c r="I15" s="3">
-        <v>24000</v>
-      </c>
       <c r="J15" s="3">
+        <v>23800</v>
+      </c>
+      <c r="K15" s="3">
         <v>22100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>21700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>22100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>65100</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,78 +1018,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>252700</v>
+        <v>235800</v>
       </c>
       <c r="E17" s="3">
-        <v>247900</v>
+        <v>250400</v>
       </c>
       <c r="F17" s="3">
-        <v>188400</v>
+        <v>245600</v>
       </c>
       <c r="G17" s="3">
-        <v>168300</v>
+        <v>186600</v>
       </c>
       <c r="H17" s="3">
-        <v>150800</v>
+        <v>166700</v>
       </c>
       <c r="I17" s="3">
-        <v>151900</v>
+        <v>149400</v>
       </c>
       <c r="J17" s="3">
+        <v>150500</v>
+      </c>
+      <c r="K17" s="3">
         <v>101500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>82100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>89200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>304900</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>27100</v>
+        <v>37200</v>
       </c>
       <c r="E18" s="3">
-        <v>28500</v>
+        <v>26800</v>
       </c>
       <c r="F18" s="3">
-        <v>51500</v>
+        <v>28300</v>
       </c>
       <c r="G18" s="3">
-        <v>64200</v>
+        <v>51000</v>
       </c>
       <c r="H18" s="3">
-        <v>45500</v>
+        <v>63600</v>
       </c>
       <c r="I18" s="3">
+        <v>45100</v>
+      </c>
+      <c r="J18" s="3">
         <v>-700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>20900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>24000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>16800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,183 +1110,199 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-3500</v>
+        <v>22600</v>
       </c>
       <c r="E20" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="F20" s="3">
         <v>3900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1600</v>
       </c>
-      <c r="I20" s="3">
-        <v>29200</v>
-      </c>
       <c r="J20" s="3">
+        <v>28900</v>
+      </c>
+      <c r="K20" s="3">
         <v>-62700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>17700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-71300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-27600</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>58100</v>
+        <v>94800</v>
       </c>
       <c r="E21" s="3">
-        <v>66300</v>
+        <v>57600</v>
       </c>
       <c r="F21" s="3">
-        <v>81500</v>
+        <v>65700</v>
       </c>
       <c r="G21" s="3">
-        <v>90200</v>
+        <v>80700</v>
       </c>
       <c r="H21" s="3">
-        <v>74500</v>
+        <v>89400</v>
       </c>
       <c r="I21" s="3">
-        <v>52500</v>
+        <v>73800</v>
       </c>
       <c r="J21" s="3">
+        <v>52000</v>
+      </c>
+      <c r="K21" s="3">
         <v>-19700</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="E22" s="3">
         <v>6500</v>
       </c>
       <c r="F22" s="3">
-        <v>6700</v>
+        <v>6500</v>
       </c>
       <c r="G22" s="3">
+        <v>6600</v>
+      </c>
+      <c r="H22" s="3">
         <v>4400</v>
       </c>
-      <c r="H22" s="3">
-        <v>4300</v>
-      </c>
       <c r="I22" s="3">
+        <v>4200</v>
+      </c>
+      <c r="J22" s="3">
         <v>200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>55200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>23200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>25000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>75000</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>17100</v>
+        <v>52900</v>
       </c>
       <c r="E23" s="3">
-        <v>25900</v>
+        <v>17000</v>
       </c>
       <c r="F23" s="3">
-        <v>44600</v>
+        <v>25700</v>
       </c>
       <c r="G23" s="3">
-        <v>58700</v>
+        <v>44200</v>
       </c>
       <c r="H23" s="3">
-        <v>42800</v>
+        <v>58200</v>
       </c>
       <c r="I23" s="3">
-        <v>28300</v>
+        <v>42500</v>
       </c>
       <c r="J23" s="3">
+        <v>28000</v>
+      </c>
+      <c r="K23" s="3">
         <v>-97000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>18500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-79500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-94500</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>11200</v>
+        <v>7500</v>
       </c>
       <c r="E24" s="3">
-        <v>9800</v>
+        <v>11100</v>
       </c>
       <c r="F24" s="3">
-        <v>8100</v>
+        <v>9700</v>
       </c>
       <c r="G24" s="3">
         <v>8000</v>
       </c>
       <c r="H24" s="3">
-        <v>6600</v>
+        <v>7900</v>
       </c>
       <c r="I24" s="3">
+        <v>6500</v>
+      </c>
+      <c r="J24" s="3">
         <v>-1200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>4600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-6000</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,78 +1336,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>5900</v>
+        <v>45300</v>
       </c>
       <c r="E26" s="3">
-        <v>16100</v>
+        <v>5800</v>
       </c>
       <c r="F26" s="3">
-        <v>36500</v>
+        <v>15900</v>
       </c>
       <c r="G26" s="3">
-        <v>50800</v>
+        <v>36200</v>
       </c>
       <c r="H26" s="3">
-        <v>36200</v>
+        <v>50300</v>
       </c>
       <c r="I26" s="3">
-        <v>29400</v>
+        <v>35900</v>
       </c>
       <c r="J26" s="3">
+        <v>29200</v>
+      </c>
+      <c r="K26" s="3">
         <v>-101600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>17800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-79400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-88500</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>43900</v>
+      </c>
+      <c r="E27" s="3">
         <v>3900</v>
       </c>
-      <c r="E27" s="3">
-        <v>14100</v>
-      </c>
       <c r="F27" s="3">
-        <v>35000</v>
+        <v>14000</v>
       </c>
       <c r="G27" s="3">
-        <v>49300</v>
+        <v>34700</v>
       </c>
       <c r="H27" s="3">
-        <v>35000</v>
+        <v>48900</v>
       </c>
       <c r="I27" s="3">
-        <v>28300</v>
+        <v>34700</v>
       </c>
       <c r="J27" s="3">
+        <v>28100</v>
+      </c>
+      <c r="K27" s="3">
         <v>-102500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>16800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-79700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-89800</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1450,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1427,8 +1488,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1526,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,78 +1564,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>3500</v>
+        <v>-22600</v>
       </c>
       <c r="E32" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F32" s="3">
         <v>-3900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1600</v>
       </c>
-      <c r="I32" s="3">
-        <v>-29200</v>
-      </c>
       <c r="J32" s="3">
+        <v>-28900</v>
+      </c>
+      <c r="K32" s="3">
         <v>62700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-17700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>71300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>27600</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>43900</v>
+      </c>
+      <c r="E33" s="3">
         <v>3900</v>
       </c>
-      <c r="E33" s="3">
-        <v>14100</v>
-      </c>
       <c r="F33" s="3">
-        <v>35000</v>
+        <v>14000</v>
       </c>
       <c r="G33" s="3">
-        <v>49300</v>
+        <v>34700</v>
       </c>
       <c r="H33" s="3">
-        <v>35000</v>
+        <v>48900</v>
       </c>
       <c r="I33" s="3">
-        <v>28300</v>
+        <v>34700</v>
       </c>
       <c r="J33" s="3">
+        <v>28100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-102500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>16800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-79700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-89800</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,83 +1678,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>43900</v>
+      </c>
+      <c r="E35" s="3">
         <v>3900</v>
       </c>
-      <c r="E35" s="3">
-        <v>14100</v>
-      </c>
       <c r="F35" s="3">
-        <v>35000</v>
+        <v>14000</v>
       </c>
       <c r="G35" s="3">
-        <v>49300</v>
+        <v>34700</v>
       </c>
       <c r="H35" s="3">
-        <v>35000</v>
+        <v>48900</v>
       </c>
       <c r="I35" s="3">
-        <v>28300</v>
+        <v>34700</v>
       </c>
       <c r="J35" s="3">
+        <v>28100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-102500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>16800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-79700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-89800</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1777,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,43 +1793,47 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>958800</v>
+        <v>932600</v>
       </c>
       <c r="E41" s="3">
-        <v>976400</v>
+        <v>950000</v>
       </c>
       <c r="F41" s="3">
-        <v>376600</v>
+        <v>967500</v>
       </c>
       <c r="G41" s="3">
-        <v>696100</v>
+        <v>373200</v>
       </c>
       <c r="H41" s="3">
-        <v>188400</v>
+        <v>689700</v>
       </c>
       <c r="I41" s="3">
-        <v>235700</v>
+        <v>186700</v>
       </c>
       <c r="J41" s="3">
+        <v>233600</v>
+      </c>
+      <c r="K41" s="3">
         <v>129700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>95900</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1777,253 +1867,277 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>63500</v>
+        <v>74000</v>
       </c>
       <c r="E43" s="3">
-        <v>61900</v>
+        <v>62900</v>
       </c>
       <c r="F43" s="3">
-        <v>69900</v>
+        <v>61300</v>
       </c>
       <c r="G43" s="3">
-        <v>75600</v>
+        <v>69300</v>
       </c>
       <c r="H43" s="3">
-        <v>77100</v>
+        <v>74900</v>
       </c>
       <c r="I43" s="3">
-        <v>63700</v>
+        <v>76400</v>
       </c>
       <c r="J43" s="3">
+        <v>63100</v>
+      </c>
+      <c r="K43" s="3">
         <v>54200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>51900</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E44" s="3">
         <v>1800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>400</v>
-      </c>
-      <c r="H44" s="3">
-        <v>100</v>
       </c>
       <c r="I44" s="3">
         <v>100</v>
       </c>
       <c r="J44" s="3">
-        <v>700</v>
+        <v>100</v>
       </c>
       <c r="K44" s="3">
         <v>700</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>8</v>
+      <c r="L44" s="3">
+        <v>700</v>
       </c>
       <c r="M44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1004500</v>
+        <v>918400</v>
       </c>
       <c r="E45" s="3">
-        <v>951400</v>
+        <v>995300</v>
       </c>
       <c r="F45" s="3">
-        <v>781700</v>
+        <v>942600</v>
       </c>
       <c r="G45" s="3">
-        <v>802900</v>
+        <v>774500</v>
       </c>
       <c r="H45" s="3">
-        <v>711200</v>
+        <v>795500</v>
       </c>
       <c r="I45" s="3">
-        <v>584500</v>
+        <v>704700</v>
       </c>
       <c r="J45" s="3">
+        <v>579200</v>
+      </c>
+      <c r="K45" s="3">
         <v>395200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>304300</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2028600</v>
+        <v>1926600</v>
       </c>
       <c r="E46" s="3">
-        <v>1991300</v>
+        <v>2009900</v>
       </c>
       <c r="F46" s="3">
-        <v>1228800</v>
+        <v>1973000</v>
       </c>
       <c r="G46" s="3">
-        <v>1575100</v>
+        <v>1217500</v>
       </c>
       <c r="H46" s="3">
-        <v>976900</v>
+        <v>1560600</v>
       </c>
       <c r="I46" s="3">
-        <v>884100</v>
+        <v>967900</v>
       </c>
       <c r="J46" s="3">
+        <v>876000</v>
+      </c>
+      <c r="K46" s="3">
         <v>579800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>452700</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>9900</v>
+        <v>7600</v>
       </c>
       <c r="E47" s="3">
-        <v>19300</v>
+        <v>9800</v>
       </c>
       <c r="F47" s="3">
-        <v>28800</v>
+        <v>19100</v>
       </c>
       <c r="G47" s="3">
-        <v>38000</v>
+        <v>28600</v>
       </c>
       <c r="H47" s="3">
-        <v>49100</v>
+        <v>37600</v>
       </c>
       <c r="I47" s="3">
-        <v>51900</v>
+        <v>48600</v>
       </c>
       <c r="J47" s="3">
+        <v>51400</v>
+      </c>
+      <c r="K47" s="3">
         <v>55700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>56400</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>31300</v>
+        <v>33700</v>
       </c>
       <c r="E48" s="3">
-        <v>24600</v>
+        <v>31000</v>
       </c>
       <c r="F48" s="3">
-        <v>21800</v>
+        <v>24400</v>
       </c>
       <c r="G48" s="3">
-        <v>21300</v>
+        <v>21600</v>
       </c>
       <c r="H48" s="3">
-        <v>20500</v>
+        <v>21100</v>
       </c>
       <c r="I48" s="3">
-        <v>21600</v>
+        <v>20300</v>
       </c>
       <c r="J48" s="3">
+        <v>21400</v>
+      </c>
+      <c r="K48" s="3">
         <v>19900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>17200</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2424400</v>
+        <v>2357100</v>
       </c>
       <c r="E49" s="3">
-        <v>2444900</v>
+        <v>2402100</v>
       </c>
       <c r="F49" s="3">
-        <v>2465900</v>
+        <v>2422400</v>
       </c>
       <c r="G49" s="3">
-        <v>2024200</v>
+        <v>2443200</v>
       </c>
       <c r="H49" s="3">
-        <v>2031000</v>
+        <v>2005500</v>
       </c>
       <c r="I49" s="3">
-        <v>1948800</v>
+        <v>2012300</v>
       </c>
       <c r="J49" s="3">
+        <v>1930900</v>
+      </c>
+      <c r="K49" s="3">
         <v>1464900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1445700</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2171,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,43 +2209,49 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>28400</v>
+        <v>25900</v>
       </c>
       <c r="E52" s="3">
-        <v>27200</v>
+        <v>28100</v>
       </c>
       <c r="F52" s="3">
-        <v>28800</v>
+        <v>26900</v>
       </c>
       <c r="G52" s="3">
-        <v>22100</v>
+        <v>28500</v>
       </c>
       <c r="H52" s="3">
-        <v>28900</v>
+        <v>21900</v>
       </c>
       <c r="I52" s="3">
-        <v>25600</v>
+        <v>28600</v>
       </c>
       <c r="J52" s="3">
+        <v>25400</v>
+      </c>
+      <c r="K52" s="3">
         <v>19800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>17500</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,43 +2285,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4522500</v>
+        <v>4351000</v>
       </c>
       <c r="E54" s="3">
-        <v>4507300</v>
+        <v>4480900</v>
       </c>
       <c r="F54" s="3">
-        <v>3774200</v>
+        <v>4465800</v>
       </c>
       <c r="G54" s="3">
-        <v>3680700</v>
+        <v>3739400</v>
       </c>
       <c r="H54" s="3">
-        <v>3106400</v>
+        <v>3646800</v>
       </c>
       <c r="I54" s="3">
-        <v>2932000</v>
+        <v>3077800</v>
       </c>
       <c r="J54" s="3">
+        <v>2905000</v>
+      </c>
+      <c r="K54" s="3">
         <v>2140100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1989600</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2341,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,218 +2357,237 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>40500</v>
+        <v>38200</v>
       </c>
       <c r="E57" s="3">
-        <v>38800</v>
+        <v>40100</v>
       </c>
       <c r="F57" s="3">
-        <v>33400</v>
+        <v>38400</v>
       </c>
       <c r="G57" s="3">
-        <v>31600</v>
+        <v>33100</v>
       </c>
       <c r="H57" s="3">
-        <v>32700</v>
+        <v>31300</v>
       </c>
       <c r="I57" s="3">
-        <v>26500</v>
+        <v>32400</v>
       </c>
       <c r="J57" s="3">
+        <v>26200</v>
+      </c>
+      <c r="K57" s="3">
         <v>23500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>20200</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>10600</v>
+        <v>10900</v>
       </c>
       <c r="E58" s="3">
-        <v>9600</v>
+        <v>10500</v>
       </c>
       <c r="F58" s="3">
-        <v>11100</v>
+        <v>9500</v>
       </c>
       <c r="G58" s="3">
-        <v>9400</v>
+        <v>11000</v>
       </c>
       <c r="H58" s="3">
+        <v>9300</v>
+      </c>
+      <c r="I58" s="3">
+        <v>2900</v>
+      </c>
+      <c r="J58" s="3">
+        <v>6500</v>
+      </c>
+      <c r="K58" s="3">
         <v>3000</v>
       </c>
-      <c r="I58" s="3">
-        <v>6600</v>
-      </c>
-      <c r="J58" s="3">
-        <v>3000</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3600</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1239400</v>
+        <v>1052700</v>
       </c>
       <c r="E59" s="3">
-        <v>1069200</v>
+        <v>1228000</v>
       </c>
       <c r="F59" s="3">
-        <v>910100</v>
+        <v>1059400</v>
       </c>
       <c r="G59" s="3">
-        <v>917300</v>
+        <v>901700</v>
       </c>
       <c r="H59" s="3">
-        <v>791200</v>
+        <v>908900</v>
       </c>
       <c r="I59" s="3">
-        <v>655500</v>
+        <v>784000</v>
       </c>
       <c r="J59" s="3">
+        <v>649500</v>
+      </c>
+      <c r="K59" s="3">
         <v>450200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>508100</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1290500</v>
+        <v>1101800</v>
       </c>
       <c r="E60" s="3">
-        <v>1117600</v>
+        <v>1278600</v>
       </c>
       <c r="F60" s="3">
-        <v>954600</v>
+        <v>1107300</v>
       </c>
       <c r="G60" s="3">
-        <v>958300</v>
+        <v>945800</v>
       </c>
       <c r="H60" s="3">
-        <v>826900</v>
+        <v>949500</v>
       </c>
       <c r="I60" s="3">
-        <v>685300</v>
+        <v>819300</v>
       </c>
       <c r="J60" s="3">
+        <v>679000</v>
+      </c>
+      <c r="K60" s="3">
         <v>476800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>531900</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>658500</v>
+        <v>651800</v>
       </c>
       <c r="E61" s="3">
-        <v>653800</v>
+        <v>652400</v>
       </c>
       <c r="F61" s="3">
-        <v>654000</v>
+        <v>647800</v>
       </c>
       <c r="G61" s="3">
-        <v>654800</v>
+        <v>648000</v>
       </c>
       <c r="H61" s="3">
-        <v>277300</v>
+        <v>648800</v>
       </c>
       <c r="I61" s="3">
-        <v>277500</v>
+        <v>274800</v>
       </c>
       <c r="J61" s="3">
+        <v>274900</v>
+      </c>
+      <c r="K61" s="3">
         <v>138300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1037800</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>90000</v>
+        <v>84100</v>
       </c>
       <c r="E62" s="3">
-        <v>98600</v>
+        <v>89200</v>
       </c>
       <c r="F62" s="3">
-        <v>108400</v>
+        <v>97700</v>
       </c>
       <c r="G62" s="3">
-        <v>69900</v>
+        <v>107400</v>
       </c>
       <c r="H62" s="3">
-        <v>77000</v>
+        <v>69200</v>
       </c>
       <c r="I62" s="3">
-        <v>67500</v>
+        <v>76300</v>
       </c>
       <c r="J62" s="3">
-        <v>12800</v>
+        <v>66900</v>
       </c>
       <c r="K62" s="3">
         <v>12800</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>8</v>
+      <c r="L62" s="3">
+        <v>12800</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2621,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2659,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,43 +2697,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2048100</v>
+        <v>1848200</v>
       </c>
       <c r="E66" s="3">
-        <v>1885800</v>
+        <v>2029300</v>
       </c>
       <c r="F66" s="3">
-        <v>1731300</v>
+        <v>1868500</v>
       </c>
       <c r="G66" s="3">
-        <v>1696200</v>
+        <v>1715400</v>
       </c>
       <c r="H66" s="3">
-        <v>1193600</v>
+        <v>1680600</v>
       </c>
       <c r="I66" s="3">
-        <v>1041700</v>
+        <v>1182600</v>
       </c>
       <c r="J66" s="3">
+        <v>1032100</v>
+      </c>
+      <c r="K66" s="3">
         <v>638600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1592400</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2753,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2789,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2827,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2697,8 +2865,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,43 +2903,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-275500</v>
+        <v>-227900</v>
       </c>
       <c r="E72" s="3">
-        <v>-141900</v>
+        <v>-273000</v>
       </c>
       <c r="F72" s="3">
-        <v>-156000</v>
+        <v>-140500</v>
       </c>
       <c r="G72" s="3">
-        <v>-191000</v>
+        <v>-154500</v>
       </c>
       <c r="H72" s="3">
-        <v>-240300</v>
+        <v>-189200</v>
       </c>
       <c r="I72" s="3">
-        <v>-275300</v>
+        <v>-238100</v>
       </c>
       <c r="J72" s="3">
+        <v>-272800</v>
+      </c>
+      <c r="K72" s="3">
         <v>-303600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-196500</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +2979,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3017,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,43 +3055,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2474400</v>
+        <v>2502800</v>
       </c>
       <c r="E76" s="3">
-        <v>2621500</v>
+        <v>2451600</v>
       </c>
       <c r="F76" s="3">
-        <v>2042800</v>
+        <v>2597400</v>
       </c>
       <c r="G76" s="3">
-        <v>1984500</v>
+        <v>2024000</v>
       </c>
       <c r="H76" s="3">
-        <v>1912800</v>
+        <v>1966200</v>
       </c>
       <c r="I76" s="3">
-        <v>1890300</v>
+        <v>1895200</v>
       </c>
       <c r="J76" s="3">
+        <v>1872900</v>
+      </c>
+      <c r="K76" s="3">
         <v>1501500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>397300</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,83 +3131,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>43900</v>
+      </c>
+      <c r="E81" s="3">
         <v>3900</v>
       </c>
-      <c r="E81" s="3">
-        <v>14100</v>
-      </c>
       <c r="F81" s="3">
-        <v>35000</v>
+        <v>14000</v>
       </c>
       <c r="G81" s="3">
-        <v>49300</v>
+        <v>34700</v>
       </c>
       <c r="H81" s="3">
-        <v>35000</v>
+        <v>48900</v>
       </c>
       <c r="I81" s="3">
-        <v>28300</v>
+        <v>34700</v>
       </c>
       <c r="J81" s="3">
+        <v>28100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-102500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>16800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-79700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-89800</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,43 +3230,47 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>34500</v>
+        <v>35000</v>
       </c>
       <c r="E83" s="3">
-        <v>33800</v>
+        <v>34200</v>
       </c>
       <c r="F83" s="3">
-        <v>30200</v>
+        <v>33500</v>
       </c>
       <c r="G83" s="3">
+        <v>29900</v>
+      </c>
+      <c r="H83" s="3">
+        <v>26800</v>
+      </c>
+      <c r="I83" s="3">
         <v>27100</v>
       </c>
-      <c r="H83" s="3">
-        <v>27400</v>
-      </c>
-      <c r="I83" s="3">
-        <v>24000</v>
-      </c>
       <c r="J83" s="3">
+        <v>23800</v>
+      </c>
+      <c r="K83" s="3">
         <v>22100</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3304,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3342,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3380,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3418,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,43 +3456,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>85700</v>
+        <v>118200</v>
       </c>
       <c r="E89" s="3">
-        <v>84700</v>
+        <v>85000</v>
       </c>
       <c r="F89" s="3">
-        <v>82000</v>
+        <v>84000</v>
       </c>
       <c r="G89" s="3">
-        <v>111600</v>
+        <v>81300</v>
       </c>
       <c r="H89" s="3">
-        <v>69700</v>
+        <v>110600</v>
       </c>
       <c r="I89" s="3">
-        <v>60000</v>
+        <v>69000</v>
       </c>
       <c r="J89" s="3">
+        <v>59400</v>
+      </c>
+      <c r="K89" s="3">
         <v>20300</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M89" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,43 +3512,47 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-500</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3586,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,43 +3624,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-11900</v>
+        <v>-14700</v>
       </c>
       <c r="E94" s="3">
-        <v>-9900</v>
+        <v>-11800</v>
       </c>
       <c r="F94" s="3">
-        <v>-395500</v>
+        <v>-9800</v>
       </c>
       <c r="G94" s="3">
-        <v>7800</v>
+        <v>-391900</v>
       </c>
       <c r="H94" s="3">
-        <v>-117800</v>
+        <v>7700</v>
       </c>
       <c r="I94" s="3">
-        <v>-86700</v>
+        <v>-116700</v>
       </c>
       <c r="J94" s="3">
+        <v>-85900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-3600</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3680,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3716,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3754,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +3792,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,109 +3830,121 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-99600</v>
+        <v>-99000</v>
       </c>
       <c r="E100" s="3">
-        <v>532000</v>
+        <v>-98700</v>
       </c>
       <c r="F100" s="3">
+        <v>527100</v>
+      </c>
+      <c r="G100" s="3">
         <v>2100</v>
       </c>
-      <c r="G100" s="3">
-        <v>386400</v>
-      </c>
       <c r="H100" s="3">
+        <v>382900</v>
+      </c>
+      <c r="I100" s="3">
         <v>400</v>
       </c>
-      <c r="I100" s="3">
-        <v>132200</v>
-      </c>
       <c r="J100" s="3">
+        <v>130900</v>
+      </c>
+      <c r="K100" s="3">
         <v>14200</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>8100</v>
+        <v>-22000</v>
       </c>
       <c r="E101" s="3">
+        <v>8000</v>
+      </c>
+      <c r="F101" s="3">
         <v>-7000</v>
       </c>
-      <c r="F101" s="3">
-        <v>-8200</v>
-      </c>
       <c r="G101" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="H101" s="3">
         <v>1800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>800</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L101" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M101" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-17700</v>
+        <v>-17300</v>
       </c>
       <c r="E102" s="3">
-        <v>599800</v>
+        <v>-17500</v>
       </c>
       <c r="F102" s="3">
-        <v>-319500</v>
+        <v>594300</v>
       </c>
       <c r="G102" s="3">
-        <v>507700</v>
+        <v>-316600</v>
       </c>
       <c r="H102" s="3">
-        <v>-47300</v>
+        <v>503000</v>
       </c>
       <c r="I102" s="3">
-        <v>106000</v>
+        <v>-46900</v>
       </c>
       <c r="J102" s="3">
+        <v>105100</v>
+      </c>
+      <c r="K102" s="3">
         <v>31600</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NVEI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NVEI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
   <si>
     <t>NVEI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,181 +665,194 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>273100</v>
+        <v>262500</v>
       </c>
       <c r="E8" s="3">
-        <v>277200</v>
+        <v>281400</v>
       </c>
       <c r="F8" s="3">
-        <v>273900</v>
+        <v>285700</v>
       </c>
       <c r="G8" s="3">
-        <v>237700</v>
+        <v>282200</v>
       </c>
       <c r="H8" s="3">
-        <v>230300</v>
+        <v>244900</v>
       </c>
       <c r="I8" s="3">
-        <v>194500</v>
+        <v>237300</v>
       </c>
       <c r="J8" s="3">
+        <v>200400</v>
+      </c>
+      <c r="K8" s="3">
         <v>149800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>122400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>106100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>106000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>313100</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>46500</v>
+        <v>51100</v>
       </c>
       <c r="E9" s="3">
-        <v>60600</v>
+        <v>47900</v>
       </c>
       <c r="F9" s="3">
-        <v>63500</v>
+        <v>62500</v>
       </c>
       <c r="G9" s="3">
-        <v>49500</v>
+        <v>65400</v>
       </c>
       <c r="H9" s="3">
-        <v>42800</v>
+        <v>51100</v>
       </c>
       <c r="I9" s="3">
-        <v>35100</v>
+        <v>44100</v>
       </c>
       <c r="J9" s="3">
+        <v>36200</v>
+      </c>
+      <c r="K9" s="3">
         <v>30400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>22200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>17300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>19300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>51900</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>226600</v>
+        <v>211400</v>
       </c>
       <c r="E10" s="3">
-        <v>216600</v>
+        <v>233500</v>
       </c>
       <c r="F10" s="3">
-        <v>210400</v>
+        <v>223200</v>
       </c>
       <c r="G10" s="3">
-        <v>188100</v>
+        <v>216800</v>
       </c>
       <c r="H10" s="3">
-        <v>187500</v>
+        <v>193900</v>
       </c>
       <c r="I10" s="3">
-        <v>159400</v>
+        <v>193200</v>
       </c>
       <c r="J10" s="3">
+        <v>164200</v>
+      </c>
+      <c r="K10" s="3">
         <v>119400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>100200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>88900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>86700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>261200</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -854,8 +867,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -892,8 +906,11 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,46 +947,52 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>700</v>
+      </c>
+      <c r="E14" s="3">
         <v>-500</v>
       </c>
-      <c r="E14" s="3">
-        <v>-1800</v>
-      </c>
       <c r="F14" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="G14" s="3">
         <v>1400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-900</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>2400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>35000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -977,37 +1000,40 @@
         <v>35000</v>
       </c>
       <c r="E15" s="3">
-        <v>34200</v>
+        <v>36000</v>
       </c>
       <c r="F15" s="3">
-        <v>33500</v>
+        <v>35200</v>
       </c>
       <c r="G15" s="3">
-        <v>29900</v>
+        <v>34500</v>
       </c>
       <c r="H15" s="3">
-        <v>26800</v>
+        <v>30800</v>
       </c>
       <c r="I15" s="3">
-        <v>27100</v>
+        <v>27600</v>
       </c>
       <c r="J15" s="3">
+        <v>28000</v>
+      </c>
+      <c r="K15" s="3">
         <v>23800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>22100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>21700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>22100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>65100</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,84 +1045,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>235800</v>
+        <v>249800</v>
       </c>
       <c r="E17" s="3">
-        <v>250400</v>
+        <v>243000</v>
       </c>
       <c r="F17" s="3">
-        <v>245600</v>
+        <v>258000</v>
       </c>
       <c r="G17" s="3">
-        <v>186600</v>
+        <v>253100</v>
       </c>
       <c r="H17" s="3">
-        <v>166700</v>
+        <v>192300</v>
       </c>
       <c r="I17" s="3">
-        <v>149400</v>
+        <v>171800</v>
       </c>
       <c r="J17" s="3">
+        <v>154000</v>
+      </c>
+      <c r="K17" s="3">
         <v>150500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>101500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>82100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>89200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>304900</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>37200</v>
+        <v>12700</v>
       </c>
       <c r="E18" s="3">
-        <v>26800</v>
+        <v>38400</v>
       </c>
       <c r="F18" s="3">
-        <v>28300</v>
+        <v>27700</v>
       </c>
       <c r="G18" s="3">
-        <v>51000</v>
+        <v>29100</v>
       </c>
       <c r="H18" s="3">
-        <v>63600</v>
+        <v>52600</v>
       </c>
       <c r="I18" s="3">
-        <v>45100</v>
+        <v>65500</v>
       </c>
       <c r="J18" s="3">
+        <v>46500</v>
+      </c>
+      <c r="K18" s="3">
         <v>-700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>20900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>24000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>16800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,198 +1144,214 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>22600</v>
+        <v>21500</v>
       </c>
       <c r="E20" s="3">
-        <v>-3400</v>
+        <v>23300</v>
       </c>
       <c r="F20" s="3">
-        <v>3900</v>
+        <v>-3500</v>
       </c>
       <c r="G20" s="3">
+        <v>4000</v>
+      </c>
+      <c r="H20" s="3">
         <v>-200</v>
       </c>
-      <c r="H20" s="3">
-        <v>-1000</v>
-      </c>
       <c r="I20" s="3">
-        <v>1600</v>
+        <v>-1100</v>
       </c>
       <c r="J20" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K20" s="3">
         <v>28900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-62700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>17700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-71300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-27600</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>94800</v>
+        <v>69200</v>
       </c>
       <c r="E21" s="3">
-        <v>57600</v>
+        <v>97700</v>
       </c>
       <c r="F21" s="3">
-        <v>65700</v>
+        <v>59400</v>
       </c>
       <c r="G21" s="3">
-        <v>80700</v>
+        <v>67700</v>
       </c>
       <c r="H21" s="3">
-        <v>89400</v>
+        <v>83200</v>
       </c>
       <c r="I21" s="3">
-        <v>73800</v>
+        <v>92100</v>
       </c>
       <c r="J21" s="3">
+        <v>76100</v>
+      </c>
+      <c r="K21" s="3">
         <v>52000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-19700</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>7000</v>
+        <v>9800</v>
       </c>
       <c r="E22" s="3">
-        <v>6500</v>
+        <v>7200</v>
       </c>
       <c r="F22" s="3">
-        <v>6500</v>
+        <v>6700</v>
       </c>
       <c r="G22" s="3">
-        <v>6600</v>
+        <v>6700</v>
       </c>
       <c r="H22" s="3">
+        <v>6800</v>
+      </c>
+      <c r="I22" s="3">
+        <v>4500</v>
+      </c>
+      <c r="J22" s="3">
         <v>4400</v>
       </c>
-      <c r="I22" s="3">
-        <v>4200</v>
-      </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>55200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>23200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>25000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>75000</v>
       </c>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>52900</v>
+        <v>24500</v>
       </c>
       <c r="E23" s="3">
-        <v>17000</v>
+        <v>54500</v>
       </c>
       <c r="F23" s="3">
-        <v>25700</v>
+        <v>17500</v>
       </c>
       <c r="G23" s="3">
-        <v>44200</v>
+        <v>26500</v>
       </c>
       <c r="H23" s="3">
-        <v>58200</v>
+        <v>45600</v>
       </c>
       <c r="I23" s="3">
-        <v>42500</v>
+        <v>60000</v>
       </c>
       <c r="J23" s="3">
+        <v>43700</v>
+      </c>
+      <c r="K23" s="3">
         <v>28000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-97000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>18500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-79500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-94500</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>7500</v>
+        <v>7200</v>
       </c>
       <c r="E24" s="3">
-        <v>11100</v>
+        <v>7800</v>
       </c>
       <c r="F24" s="3">
-        <v>9700</v>
+        <v>11500</v>
       </c>
       <c r="G24" s="3">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="H24" s="3">
-        <v>7900</v>
+        <v>8300</v>
       </c>
       <c r="I24" s="3">
-        <v>6500</v>
+        <v>8200</v>
       </c>
       <c r="J24" s="3">
+        <v>6700</v>
+      </c>
+      <c r="K24" s="3">
         <v>-1200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>4600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-6000</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,84 +1388,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>45300</v>
+        <v>17300</v>
       </c>
       <c r="E26" s="3">
-        <v>5800</v>
+        <v>46700</v>
       </c>
       <c r="F26" s="3">
-        <v>15900</v>
+        <v>6000</v>
       </c>
       <c r="G26" s="3">
-        <v>36200</v>
+        <v>16400</v>
       </c>
       <c r="H26" s="3">
-        <v>50300</v>
+        <v>37300</v>
       </c>
       <c r="I26" s="3">
-        <v>35900</v>
+        <v>51800</v>
       </c>
       <c r="J26" s="3">
+        <v>37000</v>
+      </c>
+      <c r="K26" s="3">
         <v>29200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-101600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>17800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-79400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-88500</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>43900</v>
+        <v>15600</v>
       </c>
       <c r="E27" s="3">
-        <v>3900</v>
+        <v>45300</v>
       </c>
       <c r="F27" s="3">
-        <v>14000</v>
+        <v>4000</v>
       </c>
       <c r="G27" s="3">
-        <v>34700</v>
+        <v>14400</v>
       </c>
       <c r="H27" s="3">
-        <v>48900</v>
+        <v>35700</v>
       </c>
       <c r="I27" s="3">
-        <v>34700</v>
+        <v>50400</v>
       </c>
       <c r="J27" s="3">
+        <v>35700</v>
+      </c>
+      <c r="K27" s="3">
         <v>28100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-102500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>16800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-79700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-89800</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1511,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1491,8 +1552,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1593,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,84 +1634,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-22600</v>
+        <v>-21500</v>
       </c>
       <c r="E32" s="3">
-        <v>3400</v>
+        <v>-23300</v>
       </c>
       <c r="F32" s="3">
-        <v>-3900</v>
+        <v>3500</v>
       </c>
       <c r="G32" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="H32" s="3">
         <v>200</v>
       </c>
-      <c r="H32" s="3">
-        <v>1000</v>
-      </c>
       <c r="I32" s="3">
-        <v>-1600</v>
+        <v>1100</v>
       </c>
       <c r="J32" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="K32" s="3">
         <v>-28900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>62700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-17700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>71300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>27600</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>43900</v>
+        <v>15600</v>
       </c>
       <c r="E33" s="3">
-        <v>3900</v>
+        <v>45300</v>
       </c>
       <c r="F33" s="3">
-        <v>14000</v>
+        <v>4000</v>
       </c>
       <c r="G33" s="3">
-        <v>34700</v>
+        <v>14400</v>
       </c>
       <c r="H33" s="3">
-        <v>48900</v>
+        <v>35700</v>
       </c>
       <c r="I33" s="3">
-        <v>34700</v>
+        <v>50400</v>
       </c>
       <c r="J33" s="3">
+        <v>35700</v>
+      </c>
+      <c r="K33" s="3">
         <v>28100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-102500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>16800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-79700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-89800</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,89 +1757,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>43900</v>
+        <v>15600</v>
       </c>
       <c r="E35" s="3">
-        <v>3900</v>
+        <v>45300</v>
       </c>
       <c r="F35" s="3">
-        <v>14000</v>
+        <v>4000</v>
       </c>
       <c r="G35" s="3">
-        <v>34700</v>
+        <v>14400</v>
       </c>
       <c r="H35" s="3">
-        <v>48900</v>
+        <v>35700</v>
       </c>
       <c r="I35" s="3">
-        <v>34700</v>
+        <v>50400</v>
       </c>
       <c r="J35" s="3">
+        <v>35700</v>
+      </c>
+      <c r="K35" s="3">
         <v>28100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-102500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>16800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-79700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-89800</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1863,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,46 +1880,50 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>932600</v>
+        <v>1003700</v>
       </c>
       <c r="E41" s="3">
-        <v>950000</v>
+        <v>961100</v>
       </c>
       <c r="F41" s="3">
-        <v>967500</v>
+        <v>978900</v>
       </c>
       <c r="G41" s="3">
-        <v>373200</v>
+        <v>997000</v>
       </c>
       <c r="H41" s="3">
-        <v>689700</v>
+        <v>384500</v>
       </c>
       <c r="I41" s="3">
-        <v>186700</v>
+        <v>710800</v>
       </c>
       <c r="J41" s="3">
+        <v>192400</v>
+      </c>
+      <c r="K41" s="3">
         <v>233600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>129700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>95900</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1870,274 +1960,298 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>74000</v>
+        <v>78000</v>
       </c>
       <c r="E43" s="3">
-        <v>62900</v>
+        <v>76300</v>
       </c>
       <c r="F43" s="3">
-        <v>61300</v>
+        <v>64800</v>
       </c>
       <c r="G43" s="3">
-        <v>69300</v>
+        <v>63200</v>
       </c>
       <c r="H43" s="3">
-        <v>74900</v>
+        <v>71400</v>
       </c>
       <c r="I43" s="3">
-        <v>76400</v>
+        <v>77200</v>
       </c>
       <c r="J43" s="3">
+        <v>78700</v>
+      </c>
+      <c r="K43" s="3">
         <v>63100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>54200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>51900</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="E44" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="F44" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G44" s="3">
         <v>1700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
+        <v>600</v>
+      </c>
+      <c r="I44" s="3">
         <v>500</v>
-      </c>
-      <c r="H44" s="3">
-        <v>400</v>
-      </c>
-      <c r="I44" s="3">
-        <v>100</v>
       </c>
       <c r="J44" s="3">
         <v>100</v>
       </c>
       <c r="K44" s="3">
-        <v>700</v>
+        <v>100</v>
       </c>
       <c r="L44" s="3">
         <v>700</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>8</v>
+      <c r="M44" s="3">
+        <v>700</v>
       </c>
       <c r="N44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>918400</v>
+        <v>848500</v>
       </c>
       <c r="E45" s="3">
-        <v>995300</v>
+        <v>946400</v>
       </c>
       <c r="F45" s="3">
-        <v>942600</v>
+        <v>1025600</v>
       </c>
       <c r="G45" s="3">
-        <v>774500</v>
+        <v>971400</v>
       </c>
       <c r="H45" s="3">
-        <v>795500</v>
+        <v>798200</v>
       </c>
       <c r="I45" s="3">
-        <v>704700</v>
+        <v>819800</v>
       </c>
       <c r="J45" s="3">
+        <v>726100</v>
+      </c>
+      <c r="K45" s="3">
         <v>579200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>395200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>304300</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1926600</v>
+        <v>1931900</v>
       </c>
       <c r="E46" s="3">
-        <v>2009900</v>
+        <v>1985400</v>
       </c>
       <c r="F46" s="3">
-        <v>1973000</v>
+        <v>2071200</v>
       </c>
       <c r="G46" s="3">
-        <v>1217500</v>
+        <v>2033200</v>
       </c>
       <c r="H46" s="3">
-        <v>1560600</v>
+        <v>1254600</v>
       </c>
       <c r="I46" s="3">
-        <v>967900</v>
+        <v>1608200</v>
       </c>
       <c r="J46" s="3">
+        <v>997400</v>
+      </c>
+      <c r="K46" s="3">
         <v>876000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>579800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>452700</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>7600</v>
+        <v>5700</v>
       </c>
       <c r="E47" s="3">
-        <v>9800</v>
+        <v>7900</v>
       </c>
       <c r="F47" s="3">
-        <v>19100</v>
+        <v>10100</v>
       </c>
       <c r="G47" s="3">
-        <v>28600</v>
+        <v>19700</v>
       </c>
       <c r="H47" s="3">
-        <v>37600</v>
+        <v>29400</v>
       </c>
       <c r="I47" s="3">
-        <v>48600</v>
+        <v>38800</v>
       </c>
       <c r="J47" s="3">
+        <v>50100</v>
+      </c>
+      <c r="K47" s="3">
         <v>51400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>55700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>56400</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>33700</v>
+        <v>37400</v>
       </c>
       <c r="E48" s="3">
-        <v>31000</v>
+        <v>34700</v>
       </c>
       <c r="F48" s="3">
-        <v>24400</v>
+        <v>31900</v>
       </c>
       <c r="G48" s="3">
-        <v>21600</v>
+        <v>25100</v>
       </c>
       <c r="H48" s="3">
-        <v>21100</v>
+        <v>22300</v>
       </c>
       <c r="I48" s="3">
-        <v>20300</v>
+        <v>21700</v>
       </c>
       <c r="J48" s="3">
+        <v>20900</v>
+      </c>
+      <c r="K48" s="3">
         <v>21400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>19900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>17200</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2357100</v>
+        <v>2382800</v>
       </c>
       <c r="E49" s="3">
-        <v>2402100</v>
+        <v>2429000</v>
       </c>
       <c r="F49" s="3">
-        <v>2422400</v>
+        <v>2475400</v>
       </c>
       <c r="G49" s="3">
-        <v>2443200</v>
+        <v>2496300</v>
       </c>
       <c r="H49" s="3">
-        <v>2005500</v>
+        <v>2517700</v>
       </c>
       <c r="I49" s="3">
-        <v>2012300</v>
+        <v>2066700</v>
       </c>
       <c r="J49" s="3">
+        <v>2073700</v>
+      </c>
+      <c r="K49" s="3">
         <v>1930900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1464900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1445700</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2288,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,46 +2329,52 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>25900</v>
+        <v>27000</v>
       </c>
       <c r="E52" s="3">
-        <v>28100</v>
+        <v>26700</v>
       </c>
       <c r="F52" s="3">
-        <v>26900</v>
+        <v>29000</v>
       </c>
       <c r="G52" s="3">
-        <v>28500</v>
+        <v>27800</v>
       </c>
       <c r="H52" s="3">
-        <v>21900</v>
+        <v>29400</v>
       </c>
       <c r="I52" s="3">
-        <v>28600</v>
+        <v>22600</v>
       </c>
       <c r="J52" s="3">
+        <v>29500</v>
+      </c>
+      <c r="K52" s="3">
         <v>25400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>19800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>17500</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,46 +2411,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4351000</v>
+        <v>4384800</v>
       </c>
       <c r="E54" s="3">
-        <v>4480900</v>
+        <v>4483600</v>
       </c>
       <c r="F54" s="3">
-        <v>4465800</v>
+        <v>4617500</v>
       </c>
       <c r="G54" s="3">
-        <v>3739400</v>
+        <v>4602000</v>
       </c>
       <c r="H54" s="3">
-        <v>3646800</v>
+        <v>3853400</v>
       </c>
       <c r="I54" s="3">
-        <v>3077800</v>
+        <v>3758000</v>
       </c>
       <c r="J54" s="3">
+        <v>3171600</v>
+      </c>
+      <c r="K54" s="3">
         <v>2905000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2140100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1989600</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2471,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,236 +2488,255 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>38200</v>
+        <v>42500</v>
       </c>
       <c r="E57" s="3">
-        <v>40100</v>
+        <v>39400</v>
       </c>
       <c r="F57" s="3">
-        <v>38400</v>
+        <v>41300</v>
       </c>
       <c r="G57" s="3">
-        <v>33100</v>
+        <v>39600</v>
       </c>
       <c r="H57" s="3">
-        <v>31300</v>
+        <v>34100</v>
       </c>
       <c r="I57" s="3">
-        <v>32400</v>
+        <v>32200</v>
       </c>
       <c r="J57" s="3">
+        <v>33400</v>
+      </c>
+      <c r="K57" s="3">
         <v>26200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>23500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>20200</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E58" s="3">
+        <v>11200</v>
+      </c>
+      <c r="F58" s="3">
         <v>10900</v>
       </c>
-      <c r="E58" s="3">
-        <v>10500</v>
-      </c>
-      <c r="F58" s="3">
-        <v>9500</v>
-      </c>
       <c r="G58" s="3">
-        <v>11000</v>
+        <v>9800</v>
       </c>
       <c r="H58" s="3">
-        <v>9300</v>
+        <v>11300</v>
       </c>
       <c r="I58" s="3">
-        <v>2900</v>
+        <v>9600</v>
       </c>
       <c r="J58" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K58" s="3">
         <v>6500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3600</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1052700</v>
+        <v>971900</v>
       </c>
       <c r="E59" s="3">
-        <v>1228000</v>
+        <v>1084800</v>
       </c>
       <c r="F59" s="3">
-        <v>1059400</v>
+        <v>1265400</v>
       </c>
       <c r="G59" s="3">
-        <v>901700</v>
+        <v>1091700</v>
       </c>
       <c r="H59" s="3">
-        <v>908900</v>
+        <v>929200</v>
       </c>
       <c r="I59" s="3">
-        <v>784000</v>
+        <v>936600</v>
       </c>
       <c r="J59" s="3">
+        <v>807900</v>
+      </c>
+      <c r="K59" s="3">
         <v>649500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>450200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>508100</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1101800</v>
+        <v>1025800</v>
       </c>
       <c r="E60" s="3">
-        <v>1278600</v>
+        <v>1135400</v>
       </c>
       <c r="F60" s="3">
-        <v>1107300</v>
+        <v>1317600</v>
       </c>
       <c r="G60" s="3">
-        <v>945800</v>
+        <v>1141100</v>
       </c>
       <c r="H60" s="3">
-        <v>949500</v>
+        <v>974600</v>
       </c>
       <c r="I60" s="3">
-        <v>819300</v>
+        <v>978500</v>
       </c>
       <c r="J60" s="3">
+        <v>844300</v>
+      </c>
+      <c r="K60" s="3">
         <v>679000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>476800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>531900</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>651800</v>
+        <v>670500</v>
       </c>
       <c r="E61" s="3">
-        <v>652400</v>
+        <v>671700</v>
       </c>
       <c r="F61" s="3">
-        <v>647800</v>
+        <v>672300</v>
       </c>
       <c r="G61" s="3">
-        <v>648000</v>
+        <v>667600</v>
       </c>
       <c r="H61" s="3">
-        <v>648800</v>
+        <v>667700</v>
       </c>
       <c r="I61" s="3">
-        <v>274800</v>
+        <v>668600</v>
       </c>
       <c r="J61" s="3">
+        <v>283100</v>
+      </c>
+      <c r="K61" s="3">
         <v>274900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>138300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1037800</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>84100</v>
+        <v>81600</v>
       </c>
       <c r="E62" s="3">
-        <v>89200</v>
+        <v>86700</v>
       </c>
       <c r="F62" s="3">
-        <v>97700</v>
+        <v>91900</v>
       </c>
       <c r="G62" s="3">
-        <v>107400</v>
+        <v>100700</v>
       </c>
       <c r="H62" s="3">
-        <v>69200</v>
+        <v>110600</v>
       </c>
       <c r="I62" s="3">
-        <v>76300</v>
+        <v>71300</v>
       </c>
       <c r="J62" s="3">
+        <v>78600</v>
+      </c>
+      <c r="K62" s="3">
         <v>66900</v>
-      </c>
-      <c r="K62" s="3">
-        <v>12800</v>
       </c>
       <c r="L62" s="3">
         <v>12800</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>8</v>
+      <c r="M62" s="3">
+        <v>12800</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2773,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2814,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,46 +2855,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1848200</v>
+        <v>1790500</v>
       </c>
       <c r="E66" s="3">
-        <v>2029300</v>
+        <v>1904600</v>
       </c>
       <c r="F66" s="3">
-        <v>1868500</v>
+        <v>2091200</v>
       </c>
       <c r="G66" s="3">
-        <v>1715400</v>
+        <v>1925400</v>
       </c>
       <c r="H66" s="3">
-        <v>1680600</v>
+        <v>1767700</v>
       </c>
       <c r="I66" s="3">
-        <v>1182600</v>
+        <v>1731800</v>
       </c>
       <c r="J66" s="3">
+        <v>1218600</v>
+      </c>
+      <c r="K66" s="3">
         <v>1032100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>638600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1592400</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +2915,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +2954,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +2995,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2868,8 +3036,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,46 +3077,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-227900</v>
+        <v>-218800</v>
       </c>
       <c r="E72" s="3">
-        <v>-273000</v>
+        <v>-234800</v>
       </c>
       <c r="F72" s="3">
-        <v>-140500</v>
+        <v>-281300</v>
       </c>
       <c r="G72" s="3">
-        <v>-154500</v>
+        <v>-144800</v>
       </c>
       <c r="H72" s="3">
-        <v>-189200</v>
+        <v>-159200</v>
       </c>
       <c r="I72" s="3">
-        <v>-238100</v>
+        <v>-195000</v>
       </c>
       <c r="J72" s="3">
+        <v>-245400</v>
+      </c>
+      <c r="K72" s="3">
         <v>-272800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-303600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-196500</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3159,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3200,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,46 +3241,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2502800</v>
+        <v>2594300</v>
       </c>
       <c r="E76" s="3">
-        <v>2451600</v>
+        <v>2579100</v>
       </c>
       <c r="F76" s="3">
-        <v>2597400</v>
+        <v>2526300</v>
       </c>
       <c r="G76" s="3">
-        <v>2024000</v>
+        <v>2676600</v>
       </c>
       <c r="H76" s="3">
-        <v>1966200</v>
+        <v>2085700</v>
       </c>
       <c r="I76" s="3">
-        <v>1895200</v>
+        <v>2026200</v>
       </c>
       <c r="J76" s="3">
+        <v>1953000</v>
+      </c>
+      <c r="K76" s="3">
         <v>1872900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1501500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>397300</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,89 +3323,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>43900</v>
+        <v>15600</v>
       </c>
       <c r="E81" s="3">
-        <v>3900</v>
+        <v>45300</v>
       </c>
       <c r="F81" s="3">
-        <v>14000</v>
+        <v>4000</v>
       </c>
       <c r="G81" s="3">
-        <v>34700</v>
+        <v>14400</v>
       </c>
       <c r="H81" s="3">
-        <v>48900</v>
+        <v>35700</v>
       </c>
       <c r="I81" s="3">
-        <v>34700</v>
+        <v>50400</v>
       </c>
       <c r="J81" s="3">
+        <v>35700</v>
+      </c>
+      <c r="K81" s="3">
         <v>28100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-102500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>16800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-79700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-89800</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,8 +3429,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3240,37 +3439,40 @@
         <v>35000</v>
       </c>
       <c r="E83" s="3">
-        <v>34200</v>
+        <v>36000</v>
       </c>
       <c r="F83" s="3">
-        <v>33500</v>
+        <v>35200</v>
       </c>
       <c r="G83" s="3">
-        <v>29900</v>
+        <v>34500</v>
       </c>
       <c r="H83" s="3">
-        <v>26800</v>
+        <v>30800</v>
       </c>
       <c r="I83" s="3">
-        <v>27100</v>
+        <v>27600</v>
       </c>
       <c r="J83" s="3">
+        <v>28000</v>
+      </c>
+      <c r="K83" s="3">
         <v>23800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>22100</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3509,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3550,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3591,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3632,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,46 +3673,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>118200</v>
+        <v>47900</v>
       </c>
       <c r="E89" s="3">
-        <v>85000</v>
+        <v>121800</v>
       </c>
       <c r="F89" s="3">
-        <v>84000</v>
+        <v>87500</v>
       </c>
       <c r="G89" s="3">
-        <v>81300</v>
+        <v>86500</v>
       </c>
       <c r="H89" s="3">
-        <v>110600</v>
+        <v>83800</v>
       </c>
       <c r="I89" s="3">
-        <v>69000</v>
+        <v>114000</v>
       </c>
       <c r="J89" s="3">
+        <v>71100</v>
+      </c>
+      <c r="K89" s="3">
         <v>59400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>20300</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N89" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,46 +3733,50 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-4600</v>
+        <v>-5400</v>
       </c>
       <c r="E91" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="F91" s="3">
         <v>-1400</v>
       </c>
-      <c r="F91" s="3">
-        <v>-2800</v>
-      </c>
       <c r="G91" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="H91" s="3">
         <v>-1500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-500</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +3813,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,46 +3854,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-14700</v>
+        <v>-17000</v>
       </c>
       <c r="E94" s="3">
-        <v>-11800</v>
+        <v>-15100</v>
       </c>
       <c r="F94" s="3">
-        <v>-9800</v>
+        <v>-12200</v>
       </c>
       <c r="G94" s="3">
-        <v>-391900</v>
+        <v>-10100</v>
       </c>
       <c r="H94" s="3">
-        <v>7700</v>
+        <v>-403800</v>
       </c>
       <c r="I94" s="3">
-        <v>-116700</v>
+        <v>8000</v>
       </c>
       <c r="J94" s="3">
+        <v>-120200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-85900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3600</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +3914,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +3953,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +3994,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4035,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,118 +4076,130 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-99000</v>
+        <v>-2900</v>
       </c>
       <c r="E100" s="3">
-        <v>-98700</v>
+        <v>-102000</v>
       </c>
       <c r="F100" s="3">
-        <v>527100</v>
+        <v>-101700</v>
       </c>
       <c r="G100" s="3">
-        <v>2100</v>
+        <v>543200</v>
       </c>
       <c r="H100" s="3">
-        <v>382900</v>
+        <v>2200</v>
       </c>
       <c r="I100" s="3">
+        <v>394500</v>
+      </c>
+      <c r="J100" s="3">
         <v>400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>130900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>14200</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N100" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-22000</v>
+        <v>14700</v>
       </c>
       <c r="E101" s="3">
-        <v>8000</v>
+        <v>-22600</v>
       </c>
       <c r="F101" s="3">
-        <v>-7000</v>
+        <v>8300</v>
       </c>
       <c r="G101" s="3">
-        <v>-8100</v>
+        <v>-7200</v>
       </c>
       <c r="H101" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="I101" s="3">
         <v>1800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>800</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M101" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N101" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-17300</v>
+        <v>42600</v>
       </c>
       <c r="E102" s="3">
-        <v>-17500</v>
+        <v>-17900</v>
       </c>
       <c r="F102" s="3">
-        <v>594300</v>
+        <v>-18000</v>
       </c>
       <c r="G102" s="3">
-        <v>-316600</v>
+        <v>612400</v>
       </c>
       <c r="H102" s="3">
-        <v>503000</v>
+        <v>-326200</v>
       </c>
       <c r="I102" s="3">
-        <v>-46900</v>
+        <v>518400</v>
       </c>
       <c r="J102" s="3">
+        <v>-48300</v>
+      </c>
+      <c r="K102" s="3">
         <v>105100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>31600</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NVEI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NVEI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="92">
   <si>
     <t>NVEI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,194 +665,206 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>262500</v>
+        <v>304600</v>
       </c>
       <c r="E8" s="3">
-        <v>281400</v>
+        <v>272500</v>
       </c>
       <c r="F8" s="3">
-        <v>285700</v>
+        <v>292200</v>
       </c>
       <c r="G8" s="3">
-        <v>282200</v>
+        <v>296600</v>
       </c>
       <c r="H8" s="3">
-        <v>244900</v>
+        <v>293000</v>
       </c>
       <c r="I8" s="3">
-        <v>237300</v>
+        <v>254300</v>
       </c>
       <c r="J8" s="3">
+        <v>246400</v>
+      </c>
+      <c r="K8" s="3">
         <v>200400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>149800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>122400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>106100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>106000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>313100</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>51100</v>
+        <v>69400</v>
       </c>
       <c r="E9" s="3">
-        <v>47900</v>
+        <v>53000</v>
       </c>
       <c r="F9" s="3">
-        <v>62500</v>
+        <v>49700</v>
       </c>
       <c r="G9" s="3">
-        <v>65400</v>
+        <v>64900</v>
       </c>
       <c r="H9" s="3">
-        <v>51100</v>
+        <v>67900</v>
       </c>
       <c r="I9" s="3">
-        <v>44100</v>
+        <v>53000</v>
       </c>
       <c r="J9" s="3">
+        <v>45800</v>
+      </c>
+      <c r="K9" s="3">
         <v>36200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>30400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>22200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>17300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>19300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>51900</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>211400</v>
+        <v>235200</v>
       </c>
       <c r="E10" s="3">
-        <v>233500</v>
+        <v>219500</v>
       </c>
       <c r="F10" s="3">
-        <v>223200</v>
+        <v>242400</v>
       </c>
       <c r="G10" s="3">
-        <v>216800</v>
+        <v>231700</v>
       </c>
       <c r="H10" s="3">
-        <v>193900</v>
+        <v>225100</v>
       </c>
       <c r="I10" s="3">
-        <v>193200</v>
+        <v>201300</v>
       </c>
       <c r="J10" s="3">
+        <v>200600</v>
+      </c>
+      <c r="K10" s="3">
         <v>164200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>119400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>100200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>88900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>86700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>261200</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -868,8 +880,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,8 +922,11 @@
       <c r="O12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -950,90 +966,99 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>700</v>
+        <v>1500</v>
       </c>
       <c r="E14" s="3">
+        <v>800</v>
+      </c>
+      <c r="F14" s="3">
         <v>-500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-1900</v>
       </c>
-      <c r="G14" s="3">
-        <v>1400</v>
-      </c>
       <c r="H14" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I14" s="3">
         <v>600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>2400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>35000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>35000</v>
+        <v>30100</v>
       </c>
       <c r="E15" s="3">
-        <v>36000</v>
+        <v>36300</v>
       </c>
       <c r="F15" s="3">
-        <v>35200</v>
+        <v>37400</v>
       </c>
       <c r="G15" s="3">
-        <v>34500</v>
+        <v>36600</v>
       </c>
       <c r="H15" s="3">
-        <v>30800</v>
+        <v>35900</v>
       </c>
       <c r="I15" s="3">
-        <v>27600</v>
+        <v>32000</v>
       </c>
       <c r="J15" s="3">
+        <v>28700</v>
+      </c>
+      <c r="K15" s="3">
         <v>28000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>23800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>22100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>21700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>22100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>65100</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1046,90 +1071,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>249800</v>
+        <v>274600</v>
       </c>
       <c r="E17" s="3">
-        <v>243000</v>
+        <v>259300</v>
       </c>
       <c r="F17" s="3">
-        <v>258000</v>
+        <v>252300</v>
       </c>
       <c r="G17" s="3">
-        <v>253100</v>
+        <v>267900</v>
       </c>
       <c r="H17" s="3">
-        <v>192300</v>
+        <v>262800</v>
       </c>
       <c r="I17" s="3">
-        <v>171800</v>
+        <v>199700</v>
       </c>
       <c r="J17" s="3">
+        <v>178400</v>
+      </c>
+      <c r="K17" s="3">
         <v>154000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>150500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>101500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>82100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>89200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>304900</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>12700</v>
+        <v>30000</v>
       </c>
       <c r="E18" s="3">
-        <v>38400</v>
+        <v>13200</v>
       </c>
       <c r="F18" s="3">
-        <v>27700</v>
+        <v>39800</v>
       </c>
       <c r="G18" s="3">
-        <v>29100</v>
+        <v>28700</v>
       </c>
       <c r="H18" s="3">
-        <v>52600</v>
+        <v>30200</v>
       </c>
       <c r="I18" s="3">
-        <v>65500</v>
+        <v>54600</v>
       </c>
       <c r="J18" s="3">
+        <v>68000</v>
+      </c>
+      <c r="K18" s="3">
         <v>46500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>20900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>24000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>16800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1145,213 +1177,229 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>21500</v>
+        <v>3400</v>
       </c>
       <c r="E20" s="3">
-        <v>23300</v>
+        <v>22400</v>
       </c>
       <c r="F20" s="3">
-        <v>-3500</v>
+        <v>24200</v>
       </c>
       <c r="G20" s="3">
-        <v>4000</v>
+        <v>-3700</v>
       </c>
       <c r="H20" s="3">
-        <v>-200</v>
+        <v>4200</v>
       </c>
       <c r="I20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J20" s="3">
         <v>-1100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>28900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-62700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>17700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-71300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-27600</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>69200</v>
+        <v>63400</v>
       </c>
       <c r="E21" s="3">
-        <v>97700</v>
+        <v>71900</v>
       </c>
       <c r="F21" s="3">
-        <v>59400</v>
+        <v>101500</v>
       </c>
       <c r="G21" s="3">
-        <v>67700</v>
+        <v>61600</v>
       </c>
       <c r="H21" s="3">
-        <v>83200</v>
+        <v>70300</v>
       </c>
       <c r="I21" s="3">
-        <v>92100</v>
+        <v>86400</v>
       </c>
       <c r="J21" s="3">
+        <v>95600</v>
+      </c>
+      <c r="K21" s="3">
         <v>76100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>52000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-19700</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>9800</v>
+        <v>12500</v>
       </c>
       <c r="E22" s="3">
-        <v>7200</v>
+        <v>10100</v>
       </c>
       <c r="F22" s="3">
-        <v>6700</v>
+        <v>7500</v>
       </c>
       <c r="G22" s="3">
-        <v>6700</v>
+        <v>6900</v>
       </c>
       <c r="H22" s="3">
-        <v>6800</v>
+        <v>6900</v>
       </c>
       <c r="I22" s="3">
-        <v>4500</v>
+        <v>7100</v>
       </c>
       <c r="J22" s="3">
+        <v>4700</v>
+      </c>
+      <c r="K22" s="3">
         <v>4400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>55200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>23200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>25000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>75000</v>
       </c>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>24500</v>
+        <v>20900</v>
       </c>
       <c r="E23" s="3">
-        <v>54500</v>
+        <v>25400</v>
       </c>
       <c r="F23" s="3">
-        <v>17500</v>
+        <v>56600</v>
       </c>
       <c r="G23" s="3">
-        <v>26500</v>
+        <v>18100</v>
       </c>
       <c r="H23" s="3">
-        <v>45600</v>
+        <v>27500</v>
       </c>
       <c r="I23" s="3">
-        <v>60000</v>
+        <v>47300</v>
       </c>
       <c r="J23" s="3">
+        <v>62300</v>
+      </c>
+      <c r="K23" s="3">
         <v>43700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>28000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-97000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>18500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-79500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-94500</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>7200</v>
+        <v>7900</v>
       </c>
       <c r="E24" s="3">
-        <v>7800</v>
+        <v>7500</v>
       </c>
       <c r="F24" s="3">
-        <v>11500</v>
+        <v>8100</v>
       </c>
       <c r="G24" s="3">
-        <v>10000</v>
+        <v>11900</v>
       </c>
       <c r="H24" s="3">
-        <v>8300</v>
+        <v>10400</v>
       </c>
       <c r="I24" s="3">
-        <v>8200</v>
+        <v>8600</v>
       </c>
       <c r="J24" s="3">
+        <v>8500</v>
+      </c>
+      <c r="K24" s="3">
         <v>6700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-1200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>4600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-6000</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1391,90 +1439,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>17300</v>
+        <v>12900</v>
       </c>
       <c r="E26" s="3">
-        <v>46700</v>
+        <v>18000</v>
       </c>
       <c r="F26" s="3">
-        <v>6000</v>
+        <v>48500</v>
       </c>
       <c r="G26" s="3">
-        <v>16400</v>
+        <v>6200</v>
       </c>
       <c r="H26" s="3">
-        <v>37300</v>
+        <v>17100</v>
       </c>
       <c r="I26" s="3">
-        <v>51800</v>
+        <v>38700</v>
       </c>
       <c r="J26" s="3">
+        <v>53800</v>
+      </c>
+      <c r="K26" s="3">
         <v>37000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>29200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-101600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>17800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-79400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-88500</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>15600</v>
+        <v>11100</v>
       </c>
       <c r="E27" s="3">
-        <v>45300</v>
+        <v>16200</v>
       </c>
       <c r="F27" s="3">
-        <v>4000</v>
+        <v>47000</v>
       </c>
       <c r="G27" s="3">
-        <v>14400</v>
+        <v>4200</v>
       </c>
       <c r="H27" s="3">
+        <v>14900</v>
+      </c>
+      <c r="I27" s="3">
+        <v>37100</v>
+      </c>
+      <c r="J27" s="3">
+        <v>52300</v>
+      </c>
+      <c r="K27" s="3">
         <v>35700</v>
       </c>
-      <c r="I27" s="3">
-        <v>50400</v>
-      </c>
-      <c r="J27" s="3">
-        <v>35700</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>28100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-102500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>16800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-79700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-89800</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1514,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1555,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1596,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1637,90 +1703,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-21500</v>
+        <v>-3400</v>
       </c>
       <c r="E32" s="3">
-        <v>-23300</v>
+        <v>-22400</v>
       </c>
       <c r="F32" s="3">
-        <v>3500</v>
+        <v>-24200</v>
       </c>
       <c r="G32" s="3">
-        <v>-4000</v>
+        <v>3700</v>
       </c>
       <c r="H32" s="3">
-        <v>200</v>
+        <v>-4200</v>
       </c>
       <c r="I32" s="3">
+        <v>300</v>
+      </c>
+      <c r="J32" s="3">
         <v>1100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-28900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>62700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-17700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>71300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>27600</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>15600</v>
+        <v>11100</v>
       </c>
       <c r="E33" s="3">
-        <v>45300</v>
+        <v>16200</v>
       </c>
       <c r="F33" s="3">
-        <v>4000</v>
+        <v>47000</v>
       </c>
       <c r="G33" s="3">
-        <v>14400</v>
+        <v>4200</v>
       </c>
       <c r="H33" s="3">
+        <v>14900</v>
+      </c>
+      <c r="I33" s="3">
+        <v>37100</v>
+      </c>
+      <c r="J33" s="3">
+        <v>52300</v>
+      </c>
+      <c r="K33" s="3">
         <v>35700</v>
       </c>
-      <c r="I33" s="3">
-        <v>50400</v>
-      </c>
-      <c r="J33" s="3">
-        <v>35700</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>28100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-102500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>16800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-79700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-89800</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1760,95 +1835,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>15600</v>
+        <v>11100</v>
       </c>
       <c r="E35" s="3">
-        <v>45300</v>
+        <v>16200</v>
       </c>
       <c r="F35" s="3">
-        <v>4000</v>
+        <v>47000</v>
       </c>
       <c r="G35" s="3">
-        <v>14400</v>
+        <v>4200</v>
       </c>
       <c r="H35" s="3">
+        <v>14900</v>
+      </c>
+      <c r="I35" s="3">
+        <v>37100</v>
+      </c>
+      <c r="J35" s="3">
+        <v>52300</v>
+      </c>
+      <c r="K35" s="3">
         <v>35700</v>
       </c>
-      <c r="I35" s="3">
-        <v>50400</v>
-      </c>
-      <c r="J35" s="3">
-        <v>35700</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>28100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-102500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>16800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-79700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-89800</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1864,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1881,49 +1966,53 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1003700</v>
+        <v>1039400</v>
       </c>
       <c r="E41" s="3">
-        <v>961100</v>
+        <v>1042000</v>
       </c>
       <c r="F41" s="3">
-        <v>978900</v>
+        <v>997800</v>
       </c>
       <c r="G41" s="3">
-        <v>997000</v>
+        <v>1016300</v>
       </c>
       <c r="H41" s="3">
-        <v>384500</v>
+        <v>1035100</v>
       </c>
       <c r="I41" s="3">
-        <v>710800</v>
+        <v>399200</v>
       </c>
       <c r="J41" s="3">
+        <v>737900</v>
+      </c>
+      <c r="K41" s="3">
         <v>192400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>233600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>129700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>95900</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1963,295 +2052,319 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>78000</v>
+        <v>91500</v>
       </c>
       <c r="E43" s="3">
-        <v>76300</v>
+        <v>81000</v>
       </c>
       <c r="F43" s="3">
-        <v>64800</v>
+        <v>79200</v>
       </c>
       <c r="G43" s="3">
-        <v>63200</v>
+        <v>67300</v>
       </c>
       <c r="H43" s="3">
-        <v>71400</v>
+        <v>65600</v>
       </c>
       <c r="I43" s="3">
-        <v>77200</v>
+        <v>74100</v>
       </c>
       <c r="J43" s="3">
+        <v>80200</v>
+      </c>
+      <c r="K43" s="3">
         <v>78700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>63100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>54200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>51900</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1700</v>
+        <v>2900</v>
       </c>
       <c r="E44" s="3">
         <v>1700</v>
       </c>
       <c r="F44" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G44" s="3">
         <v>1900</v>
       </c>
-      <c r="G44" s="3">
-        <v>1700</v>
-      </c>
       <c r="H44" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I44" s="3">
         <v>600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>500</v>
-      </c>
-      <c r="J44" s="3">
-        <v>100</v>
       </c>
       <c r="K44" s="3">
         <v>100</v>
       </c>
       <c r="L44" s="3">
-        <v>700</v>
+        <v>100</v>
       </c>
       <c r="M44" s="3">
         <v>700</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>8</v>
+      <c r="N44" s="3">
+        <v>700</v>
       </c>
       <c r="O44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>848500</v>
+        <v>1155800</v>
       </c>
       <c r="E45" s="3">
-        <v>946400</v>
+        <v>880900</v>
       </c>
       <c r="F45" s="3">
-        <v>1025600</v>
+        <v>982600</v>
       </c>
       <c r="G45" s="3">
-        <v>971400</v>
+        <v>1064800</v>
       </c>
       <c r="H45" s="3">
-        <v>798200</v>
+        <v>1008500</v>
       </c>
       <c r="I45" s="3">
-        <v>819800</v>
+        <v>828700</v>
       </c>
       <c r="J45" s="3">
+        <v>851100</v>
+      </c>
+      <c r="K45" s="3">
         <v>726100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>579200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>395200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>304300</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1931900</v>
+        <v>2289600</v>
       </c>
       <c r="E46" s="3">
-        <v>1985400</v>
+        <v>2005700</v>
       </c>
       <c r="F46" s="3">
-        <v>2071200</v>
+        <v>2061300</v>
       </c>
       <c r="G46" s="3">
-        <v>2033200</v>
+        <v>2150300</v>
       </c>
       <c r="H46" s="3">
-        <v>1254600</v>
+        <v>2110900</v>
       </c>
       <c r="I46" s="3">
-        <v>1608200</v>
+        <v>1302600</v>
       </c>
       <c r="J46" s="3">
+        <v>1669700</v>
+      </c>
+      <c r="K46" s="3">
         <v>997400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>876000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>579800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>452700</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>5700</v>
+        <v>3800</v>
       </c>
       <c r="E47" s="3">
-        <v>7900</v>
+        <v>5900</v>
       </c>
       <c r="F47" s="3">
-        <v>10100</v>
+        <v>8200</v>
       </c>
       <c r="G47" s="3">
-        <v>19700</v>
+        <v>10500</v>
       </c>
       <c r="H47" s="3">
-        <v>29400</v>
+        <v>20400</v>
       </c>
       <c r="I47" s="3">
-        <v>38800</v>
+        <v>30600</v>
       </c>
       <c r="J47" s="3">
+        <v>40300</v>
+      </c>
+      <c r="K47" s="3">
         <v>50100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>51400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>55700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>56400</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>37400</v>
+        <v>44100</v>
       </c>
       <c r="E48" s="3">
-        <v>34700</v>
+        <v>38800</v>
       </c>
       <c r="F48" s="3">
-        <v>31900</v>
+        <v>36100</v>
       </c>
       <c r="G48" s="3">
-        <v>25100</v>
+        <v>33100</v>
       </c>
       <c r="H48" s="3">
-        <v>22300</v>
+        <v>26100</v>
       </c>
       <c r="I48" s="3">
-        <v>21700</v>
+        <v>23200</v>
       </c>
       <c r="J48" s="3">
+        <v>22600</v>
+      </c>
+      <c r="K48" s="3">
         <v>20900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>21400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>19900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>17200</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2382800</v>
+        <v>2502100</v>
       </c>
       <c r="E49" s="3">
-        <v>2429000</v>
+        <v>2473900</v>
       </c>
       <c r="F49" s="3">
-        <v>2475400</v>
+        <v>2521800</v>
       </c>
       <c r="G49" s="3">
-        <v>2496300</v>
+        <v>2570000</v>
       </c>
       <c r="H49" s="3">
-        <v>2517700</v>
+        <v>2591700</v>
       </c>
       <c r="I49" s="3">
-        <v>2066700</v>
+        <v>2613900</v>
       </c>
       <c r="J49" s="3">
+        <v>2145700</v>
+      </c>
+      <c r="K49" s="3">
         <v>2073700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1930900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1464900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1445700</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2291,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2332,49 +2448,55 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>27000</v>
+        <v>34000</v>
       </c>
       <c r="E52" s="3">
-        <v>26700</v>
+        <v>28100</v>
       </c>
       <c r="F52" s="3">
-        <v>29000</v>
+        <v>27700</v>
       </c>
       <c r="G52" s="3">
-        <v>27800</v>
+        <v>30100</v>
       </c>
       <c r="H52" s="3">
-        <v>29400</v>
+        <v>28800</v>
       </c>
       <c r="I52" s="3">
-        <v>22600</v>
+        <v>30500</v>
       </c>
       <c r="J52" s="3">
+        <v>23400</v>
+      </c>
+      <c r="K52" s="3">
         <v>29500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>25400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>19800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>17500</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2414,49 +2536,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4384800</v>
+        <v>4873600</v>
       </c>
       <c r="E54" s="3">
-        <v>4483600</v>
+        <v>4552400</v>
       </c>
       <c r="F54" s="3">
-        <v>4617500</v>
+        <v>4655000</v>
       </c>
       <c r="G54" s="3">
-        <v>4602000</v>
+        <v>4794000</v>
       </c>
       <c r="H54" s="3">
-        <v>3853400</v>
+        <v>4777900</v>
       </c>
       <c r="I54" s="3">
-        <v>3758000</v>
+        <v>4000700</v>
       </c>
       <c r="J54" s="3">
+        <v>3901600</v>
+      </c>
+      <c r="K54" s="3">
         <v>3171600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2905000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2140100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1989600</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2489,254 +2618,273 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>42500</v>
+        <v>60600</v>
       </c>
       <c r="E57" s="3">
-        <v>39400</v>
+        <v>44100</v>
       </c>
       <c r="F57" s="3">
-        <v>41300</v>
+        <v>40900</v>
       </c>
       <c r="G57" s="3">
-        <v>39600</v>
+        <v>42900</v>
       </c>
       <c r="H57" s="3">
-        <v>34100</v>
+        <v>41100</v>
       </c>
       <c r="I57" s="3">
-        <v>32200</v>
+        <v>35400</v>
       </c>
       <c r="J57" s="3">
+        <v>33500</v>
+      </c>
+      <c r="K57" s="3">
         <v>33400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>26200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>23500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>20200</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>11400</v>
+        <v>12000</v>
       </c>
       <c r="E58" s="3">
-        <v>11200</v>
+        <v>11800</v>
       </c>
       <c r="F58" s="3">
-        <v>10900</v>
+        <v>11600</v>
       </c>
       <c r="G58" s="3">
-        <v>9800</v>
+        <v>11300</v>
       </c>
       <c r="H58" s="3">
-        <v>11300</v>
+        <v>10200</v>
       </c>
       <c r="I58" s="3">
-        <v>9600</v>
+        <v>11700</v>
       </c>
       <c r="J58" s="3">
+        <v>10000</v>
+      </c>
+      <c r="K58" s="3">
         <v>3000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>6500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3600</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>971900</v>
+        <v>1281000</v>
       </c>
       <c r="E59" s="3">
-        <v>1084800</v>
+        <v>1009100</v>
       </c>
       <c r="F59" s="3">
-        <v>1265400</v>
+        <v>1126300</v>
       </c>
       <c r="G59" s="3">
-        <v>1091700</v>
+        <v>1313800</v>
       </c>
       <c r="H59" s="3">
-        <v>929200</v>
+        <v>1133400</v>
       </c>
       <c r="I59" s="3">
-        <v>936600</v>
+        <v>964700</v>
       </c>
       <c r="J59" s="3">
+        <v>972400</v>
+      </c>
+      <c r="K59" s="3">
         <v>807900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>649500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>450200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>508100</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1025800</v>
+        <v>1353600</v>
       </c>
       <c r="E60" s="3">
-        <v>1135400</v>
+        <v>1065000</v>
       </c>
       <c r="F60" s="3">
-        <v>1317600</v>
+        <v>1178700</v>
       </c>
       <c r="G60" s="3">
-        <v>1141100</v>
+        <v>1367900</v>
       </c>
       <c r="H60" s="3">
-        <v>974600</v>
+        <v>1184700</v>
       </c>
       <c r="I60" s="3">
-        <v>978500</v>
+        <v>1011900</v>
       </c>
       <c r="J60" s="3">
+        <v>1015900</v>
+      </c>
+      <c r="K60" s="3">
         <v>844300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>679000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>476800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>531900</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>670500</v>
+        <v>694300</v>
       </c>
       <c r="E61" s="3">
-        <v>671700</v>
+        <v>696100</v>
       </c>
       <c r="F61" s="3">
-        <v>672300</v>
+        <v>697400</v>
       </c>
       <c r="G61" s="3">
-        <v>667600</v>
+        <v>698000</v>
       </c>
       <c r="H61" s="3">
-        <v>667700</v>
+        <v>693100</v>
       </c>
       <c r="I61" s="3">
-        <v>668600</v>
+        <v>693300</v>
       </c>
       <c r="J61" s="3">
+        <v>694100</v>
+      </c>
+      <c r="K61" s="3">
         <v>283100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>274900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>138300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1037800</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>81600</v>
+        <v>88700</v>
       </c>
       <c r="E62" s="3">
-        <v>86700</v>
+        <v>84800</v>
       </c>
       <c r="F62" s="3">
-        <v>91900</v>
+        <v>90000</v>
       </c>
       <c r="G62" s="3">
-        <v>100700</v>
+        <v>95400</v>
       </c>
       <c r="H62" s="3">
-        <v>110600</v>
+        <v>104500</v>
       </c>
       <c r="I62" s="3">
-        <v>71300</v>
+        <v>114900</v>
       </c>
       <c r="J62" s="3">
+        <v>74100</v>
+      </c>
+      <c r="K62" s="3">
         <v>78600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>66900</v>
-      </c>
-      <c r="L62" s="3">
-        <v>12800</v>
       </c>
       <c r="M62" s="3">
         <v>12800</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>8</v>
+      <c r="N62" s="3">
+        <v>12800</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2817,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2858,49 +3012,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1790500</v>
+        <v>2151400</v>
       </c>
       <c r="E66" s="3">
-        <v>1904600</v>
+        <v>1858900</v>
       </c>
       <c r="F66" s="3">
-        <v>2091200</v>
+        <v>1977400</v>
       </c>
       <c r="G66" s="3">
-        <v>1925400</v>
+        <v>2171100</v>
       </c>
       <c r="H66" s="3">
-        <v>1767700</v>
+        <v>1999000</v>
       </c>
       <c r="I66" s="3">
-        <v>1731800</v>
+        <v>1835300</v>
       </c>
       <c r="J66" s="3">
+        <v>1798000</v>
+      </c>
+      <c r="K66" s="3">
         <v>1218600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1032100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>638600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1592400</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2957,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2998,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3039,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3080,49 +3250,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-218800</v>
+        <v>-230700</v>
       </c>
       <c r="E72" s="3">
-        <v>-234800</v>
+        <v>-227100</v>
       </c>
       <c r="F72" s="3">
-        <v>-281300</v>
+        <v>-243800</v>
       </c>
       <c r="G72" s="3">
-        <v>-144800</v>
+        <v>-292100</v>
       </c>
       <c r="H72" s="3">
-        <v>-159200</v>
+        <v>-150400</v>
       </c>
       <c r="I72" s="3">
-        <v>-195000</v>
+        <v>-165300</v>
       </c>
       <c r="J72" s="3">
+        <v>-202400</v>
+      </c>
+      <c r="K72" s="3">
         <v>-245400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-272800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-303600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-196500</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3203,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3244,49 +3426,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2594300</v>
+        <v>2722200</v>
       </c>
       <c r="E76" s="3">
-        <v>2579100</v>
+        <v>2693400</v>
       </c>
       <c r="F76" s="3">
-        <v>2526300</v>
+        <v>2677600</v>
       </c>
       <c r="G76" s="3">
-        <v>2676600</v>
+        <v>2622900</v>
       </c>
       <c r="H76" s="3">
-        <v>2085700</v>
+        <v>2778900</v>
       </c>
       <c r="I76" s="3">
-        <v>2026200</v>
+        <v>2165400</v>
       </c>
       <c r="J76" s="3">
+        <v>2103600</v>
+      </c>
+      <c r="K76" s="3">
         <v>1953000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1872900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1501500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>397300</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,95 +3514,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>15600</v>
+        <v>11100</v>
       </c>
       <c r="E81" s="3">
-        <v>45300</v>
+        <v>16200</v>
       </c>
       <c r="F81" s="3">
-        <v>4000</v>
+        <v>47000</v>
       </c>
       <c r="G81" s="3">
-        <v>14400</v>
+        <v>4200</v>
       </c>
       <c r="H81" s="3">
+        <v>14900</v>
+      </c>
+      <c r="I81" s="3">
+        <v>37100</v>
+      </c>
+      <c r="J81" s="3">
+        <v>52300</v>
+      </c>
+      <c r="K81" s="3">
         <v>35700</v>
       </c>
-      <c r="I81" s="3">
-        <v>50400</v>
-      </c>
-      <c r="J81" s="3">
-        <v>35700</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>28100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-102500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>16800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-79700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-89800</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,49 +3627,53 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>35000</v>
+        <v>30100</v>
       </c>
       <c r="E83" s="3">
-        <v>36000</v>
+        <v>36300</v>
       </c>
       <c r="F83" s="3">
-        <v>35200</v>
+        <v>37400</v>
       </c>
       <c r="G83" s="3">
-        <v>34500</v>
+        <v>36600</v>
       </c>
       <c r="H83" s="3">
-        <v>30800</v>
+        <v>35900</v>
       </c>
       <c r="I83" s="3">
-        <v>27600</v>
+        <v>32000</v>
       </c>
       <c r="J83" s="3">
+        <v>28700</v>
+      </c>
+      <c r="K83" s="3">
         <v>28000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>23800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>22100</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3512,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3553,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3594,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3676,49 +3889,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>47900</v>
+        <v>103000</v>
       </c>
       <c r="E89" s="3">
-        <v>121800</v>
+        <v>49700</v>
       </c>
       <c r="F89" s="3">
-        <v>87500</v>
+        <v>126500</v>
       </c>
       <c r="G89" s="3">
-        <v>86500</v>
+        <v>90900</v>
       </c>
       <c r="H89" s="3">
-        <v>83800</v>
+        <v>89800</v>
       </c>
       <c r="I89" s="3">
-        <v>114000</v>
+        <v>87000</v>
       </c>
       <c r="J89" s="3">
+        <v>118300</v>
+      </c>
+      <c r="K89" s="3">
         <v>71100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>59400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>20300</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O89" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,49 +3953,53 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-5400</v>
+        <v>-7000</v>
       </c>
       <c r="E91" s="3">
-        <v>-4800</v>
+        <v>-5600</v>
       </c>
       <c r="F91" s="3">
-        <v>-1400</v>
+        <v>-4900</v>
       </c>
       <c r="G91" s="3">
-        <v>-2900</v>
+        <v>-1500</v>
       </c>
       <c r="H91" s="3">
-        <v>-1500</v>
+        <v>-3000</v>
       </c>
       <c r="I91" s="3">
-        <v>-2400</v>
+        <v>-1600</v>
       </c>
       <c r="J91" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-500</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3857,49 +4083,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-17000</v>
+        <v>-23500</v>
       </c>
       <c r="E94" s="3">
-        <v>-15100</v>
+        <v>-17600</v>
       </c>
       <c r="F94" s="3">
-        <v>-12200</v>
+        <v>-15700</v>
       </c>
       <c r="G94" s="3">
-        <v>-10100</v>
+        <v>-12600</v>
       </c>
       <c r="H94" s="3">
-        <v>-403800</v>
+        <v>-10500</v>
       </c>
       <c r="I94" s="3">
-        <v>8000</v>
+        <v>-419300</v>
       </c>
       <c r="J94" s="3">
+        <v>8300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-120200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-85900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3600</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3915,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3956,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3997,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4079,127 +4321,139 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2900</v>
+        <v>-81800</v>
       </c>
       <c r="E100" s="3">
-        <v>-102000</v>
+        <v>-3000</v>
       </c>
       <c r="F100" s="3">
-        <v>-101700</v>
+        <v>-105900</v>
       </c>
       <c r="G100" s="3">
-        <v>543200</v>
+        <v>-105600</v>
       </c>
       <c r="H100" s="3">
+        <v>564000</v>
+      </c>
+      <c r="I100" s="3">
         <v>2200</v>
       </c>
-      <c r="I100" s="3">
-        <v>394500</v>
-      </c>
       <c r="J100" s="3">
+        <v>409600</v>
+      </c>
+      <c r="K100" s="3">
         <v>400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>130900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>14200</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>14700</v>
+        <v>-300</v>
       </c>
       <c r="E101" s="3">
-        <v>-22600</v>
+        <v>15200</v>
       </c>
       <c r="F101" s="3">
-        <v>8300</v>
+        <v>-23500</v>
       </c>
       <c r="G101" s="3">
-        <v>-7200</v>
+        <v>8600</v>
       </c>
       <c r="H101" s="3">
-        <v>-8300</v>
+        <v>-7400</v>
       </c>
       <c r="I101" s="3">
-        <v>1800</v>
+        <v>-8600</v>
       </c>
       <c r="J101" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K101" s="3">
         <v>400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>800</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N101" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O101" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>42600</v>
+        <v>-2700</v>
       </c>
       <c r="E102" s="3">
-        <v>-17900</v>
+        <v>44200</v>
       </c>
       <c r="F102" s="3">
-        <v>-18000</v>
+        <v>-18600</v>
       </c>
       <c r="G102" s="3">
-        <v>612400</v>
+        <v>-18700</v>
       </c>
       <c r="H102" s="3">
-        <v>-326200</v>
+        <v>635800</v>
       </c>
       <c r="I102" s="3">
-        <v>518400</v>
+        <v>-338700</v>
       </c>
       <c r="J102" s="3">
+        <v>538200</v>
+      </c>
+      <c r="K102" s="3">
         <v>-48300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>105100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>31600</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NVEI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NVEI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="92">
   <si>
     <t>NVEI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,219 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>304600</v>
+        <v>346300</v>
       </c>
       <c r="E8" s="3">
-        <v>272500</v>
+        <v>297400</v>
       </c>
       <c r="F8" s="3">
-        <v>292200</v>
+        <v>266100</v>
       </c>
       <c r="G8" s="3">
-        <v>296600</v>
+        <v>285300</v>
       </c>
       <c r="H8" s="3">
-        <v>293000</v>
+        <v>289600</v>
       </c>
       <c r="I8" s="3">
-        <v>254300</v>
+        <v>286100</v>
       </c>
       <c r="J8" s="3">
+        <v>248300</v>
+      </c>
+      <c r="K8" s="3">
         <v>246400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>200400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>149800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>122400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>106100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>106000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>313100</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>69400</v>
+        <v>73700</v>
       </c>
       <c r="E9" s="3">
-        <v>53000</v>
+        <v>67700</v>
       </c>
       <c r="F9" s="3">
-        <v>49700</v>
+        <v>51800</v>
       </c>
       <c r="G9" s="3">
-        <v>64900</v>
+        <v>48600</v>
       </c>
       <c r="H9" s="3">
-        <v>67900</v>
+        <v>63300</v>
       </c>
       <c r="I9" s="3">
-        <v>53000</v>
+        <v>66300</v>
       </c>
       <c r="J9" s="3">
+        <v>51700</v>
+      </c>
+      <c r="K9" s="3">
         <v>45800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>36200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>30400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>22200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>17300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>19300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>51900</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>235200</v>
+        <v>272600</v>
       </c>
       <c r="E10" s="3">
-        <v>219500</v>
+        <v>229700</v>
       </c>
       <c r="F10" s="3">
-        <v>242400</v>
+        <v>214300</v>
       </c>
       <c r="G10" s="3">
-        <v>231700</v>
+        <v>236700</v>
       </c>
       <c r="H10" s="3">
-        <v>225100</v>
+        <v>226200</v>
       </c>
       <c r="I10" s="3">
-        <v>201300</v>
+        <v>219800</v>
       </c>
       <c r="J10" s="3">
+        <v>196500</v>
+      </c>
+      <c r="K10" s="3">
         <v>200600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>164200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>119400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>100200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>88900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>86700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>261200</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +894,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +939,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,96 +986,105 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E14" s="3">
         <v>1500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
+        <v>700</v>
+      </c>
+      <c r="G14" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H14" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="I14" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J14" s="3">
+        <v>600</v>
+      </c>
+      <c r="K14" s="3">
+        <v>-900</v>
+      </c>
+      <c r="L14" s="3">
+        <v>2400</v>
+      </c>
+      <c r="M14" s="3">
+        <v>35000</v>
+      </c>
+      <c r="N14" s="3">
         <v>800</v>
       </c>
-      <c r="F14" s="3">
-        <v>-500</v>
-      </c>
-      <c r="G14" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="H14" s="3">
-        <v>1500</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="O14" s="3">
+        <v>1900</v>
+      </c>
+      <c r="P14" s="3">
         <v>600</v>
       </c>
-      <c r="J14" s="3">
-        <v>-900</v>
-      </c>
-      <c r="K14" s="3">
-        <v>2400</v>
-      </c>
-      <c r="L14" s="3">
-        <v>35000</v>
-      </c>
-      <c r="M14" s="3">
-        <v>800</v>
-      </c>
-      <c r="N14" s="3">
-        <v>1900</v>
-      </c>
-      <c r="O14" s="3">
-        <v>600</v>
-      </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>30100</v>
+        <v>37300</v>
       </c>
       <c r="E15" s="3">
-        <v>36300</v>
+        <v>29300</v>
       </c>
       <c r="F15" s="3">
-        <v>37400</v>
+        <v>35500</v>
       </c>
       <c r="G15" s="3">
-        <v>36600</v>
+        <v>36500</v>
       </c>
       <c r="H15" s="3">
-        <v>35900</v>
+        <v>35700</v>
       </c>
       <c r="I15" s="3">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="J15" s="3">
+        <v>31300</v>
+      </c>
+      <c r="K15" s="3">
         <v>28700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>28000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>23800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>22100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>21700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>22100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>65100</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1098,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>274600</v>
+        <v>336400</v>
       </c>
       <c r="E17" s="3">
-        <v>259300</v>
+        <v>268200</v>
       </c>
       <c r="F17" s="3">
-        <v>252300</v>
+        <v>253200</v>
       </c>
       <c r="G17" s="3">
-        <v>267900</v>
+        <v>246400</v>
       </c>
       <c r="H17" s="3">
-        <v>262800</v>
+        <v>261500</v>
       </c>
       <c r="I17" s="3">
-        <v>199700</v>
+        <v>256500</v>
       </c>
       <c r="J17" s="3">
+        <v>195000</v>
+      </c>
+      <c r="K17" s="3">
         <v>178400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>154000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>150500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>101500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>82100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>89200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>304900</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>30000</v>
+        <v>9800</v>
       </c>
       <c r="E18" s="3">
-        <v>13200</v>
+        <v>29300</v>
       </c>
       <c r="F18" s="3">
-        <v>39800</v>
+        <v>12900</v>
       </c>
       <c r="G18" s="3">
-        <v>28700</v>
+        <v>38900</v>
       </c>
       <c r="H18" s="3">
-        <v>30200</v>
+        <v>28000</v>
       </c>
       <c r="I18" s="3">
-        <v>54600</v>
+        <v>29500</v>
       </c>
       <c r="J18" s="3">
+        <v>53300</v>
+      </c>
+      <c r="K18" s="3">
         <v>68000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>46500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>20900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>24000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>16800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,228 +1211,244 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>3400</v>
+        <v>8200</v>
       </c>
       <c r="E20" s="3">
-        <v>22400</v>
+        <v>3300</v>
       </c>
       <c r="F20" s="3">
-        <v>24200</v>
+        <v>21800</v>
       </c>
       <c r="G20" s="3">
-        <v>-3700</v>
+        <v>23600</v>
       </c>
       <c r="H20" s="3">
-        <v>4200</v>
+        <v>-3600</v>
       </c>
       <c r="I20" s="3">
+        <v>4100</v>
+      </c>
+      <c r="J20" s="3">
         <v>-300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>28900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-62700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>17700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-71300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-27600</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>63400</v>
+        <v>55400</v>
       </c>
       <c r="E21" s="3">
-        <v>71900</v>
+        <v>61900</v>
       </c>
       <c r="F21" s="3">
-        <v>101500</v>
+        <v>70200</v>
       </c>
       <c r="G21" s="3">
-        <v>61600</v>
+        <v>99100</v>
       </c>
       <c r="H21" s="3">
-        <v>70300</v>
+        <v>60200</v>
       </c>
       <c r="I21" s="3">
-        <v>86400</v>
+        <v>68600</v>
       </c>
       <c r="J21" s="3">
+        <v>84300</v>
+      </c>
+      <c r="K21" s="3">
         <v>95600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>76100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>52000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-19700</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>12500</v>
+        <v>24000</v>
       </c>
       <c r="E22" s="3">
-        <v>10100</v>
+        <v>12200</v>
       </c>
       <c r="F22" s="3">
-        <v>7500</v>
+        <v>9900</v>
       </c>
       <c r="G22" s="3">
+        <v>7300</v>
+      </c>
+      <c r="H22" s="3">
+        <v>6700</v>
+      </c>
+      <c r="I22" s="3">
+        <v>6800</v>
+      </c>
+      <c r="J22" s="3">
         <v>6900</v>
       </c>
-      <c r="H22" s="3">
-        <v>6900</v>
-      </c>
-      <c r="I22" s="3">
-        <v>7100</v>
-      </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>4700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>4400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>55200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>23200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>25000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>75000</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>20900</v>
+        <v>-6000</v>
       </c>
       <c r="E23" s="3">
-        <v>25400</v>
+        <v>20400</v>
       </c>
       <c r="F23" s="3">
-        <v>56600</v>
+        <v>24800</v>
       </c>
       <c r="G23" s="3">
-        <v>18100</v>
+        <v>55200</v>
       </c>
       <c r="H23" s="3">
-        <v>27500</v>
+        <v>17700</v>
       </c>
       <c r="I23" s="3">
-        <v>47300</v>
+        <v>26800</v>
       </c>
       <c r="J23" s="3">
+        <v>46200</v>
+      </c>
+      <c r="K23" s="3">
         <v>62300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>43700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>28000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-97000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>18500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-79500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-94500</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E24" s="3">
+        <v>7800</v>
+      </c>
+      <c r="F24" s="3">
+        <v>7300</v>
+      </c>
+      <c r="G24" s="3">
         <v>7900</v>
       </c>
-      <c r="E24" s="3">
-        <v>7500</v>
-      </c>
-      <c r="F24" s="3">
-        <v>8100</v>
-      </c>
-      <c r="G24" s="3">
-        <v>11900</v>
-      </c>
       <c r="H24" s="3">
-        <v>10400</v>
+        <v>11600</v>
       </c>
       <c r="I24" s="3">
-        <v>8600</v>
+        <v>10200</v>
       </c>
       <c r="J24" s="3">
+        <v>8400</v>
+      </c>
+      <c r="K24" s="3">
         <v>8500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>6700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-1200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>4600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-6000</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>12900</v>
+        <v>-11200</v>
       </c>
       <c r="E26" s="3">
-        <v>18000</v>
+        <v>12600</v>
       </c>
       <c r="F26" s="3">
-        <v>48500</v>
+        <v>17600</v>
       </c>
       <c r="G26" s="3">
-        <v>6200</v>
+        <v>47400</v>
       </c>
       <c r="H26" s="3">
-        <v>17100</v>
+        <v>6100</v>
       </c>
       <c r="I26" s="3">
-        <v>38700</v>
+        <v>16700</v>
       </c>
       <c r="J26" s="3">
+        <v>37800</v>
+      </c>
+      <c r="K26" s="3">
         <v>53800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>37000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>29200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-101600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>17800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-79400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-88500</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>11100</v>
+        <v>-13200</v>
       </c>
       <c r="E27" s="3">
-        <v>16200</v>
+        <v>10900</v>
       </c>
       <c r="F27" s="3">
-        <v>47000</v>
+        <v>15800</v>
       </c>
       <c r="G27" s="3">
-        <v>4200</v>
+        <v>45900</v>
       </c>
       <c r="H27" s="3">
-        <v>14900</v>
+        <v>4100</v>
       </c>
       <c r="I27" s="3">
-        <v>37100</v>
+        <v>14600</v>
       </c>
       <c r="J27" s="3">
+        <v>36200</v>
+      </c>
+      <c r="K27" s="3">
         <v>52300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>35700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>28100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-102500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>16800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-79700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-89800</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1773,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-3400</v>
+        <v>-8200</v>
       </c>
       <c r="E32" s="3">
-        <v>-22400</v>
+        <v>-3300</v>
       </c>
       <c r="F32" s="3">
-        <v>-24200</v>
+        <v>-21800</v>
       </c>
       <c r="G32" s="3">
-        <v>3700</v>
+        <v>-23600</v>
       </c>
       <c r="H32" s="3">
-        <v>-4200</v>
+        <v>3600</v>
       </c>
       <c r="I32" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="J32" s="3">
         <v>300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-28900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>62700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-17700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>71300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>27600</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>11100</v>
+        <v>-13200</v>
       </c>
       <c r="E33" s="3">
-        <v>16200</v>
+        <v>10900</v>
       </c>
       <c r="F33" s="3">
-        <v>47000</v>
+        <v>15800</v>
       </c>
       <c r="G33" s="3">
-        <v>4200</v>
+        <v>45900</v>
       </c>
       <c r="H33" s="3">
-        <v>14900</v>
+        <v>4100</v>
       </c>
       <c r="I33" s="3">
-        <v>37100</v>
+        <v>14600</v>
       </c>
       <c r="J33" s="3">
+        <v>36200</v>
+      </c>
+      <c r="K33" s="3">
         <v>52300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>35700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>28100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-102500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>16800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-79700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-89800</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>11100</v>
+        <v>-13200</v>
       </c>
       <c r="E35" s="3">
-        <v>16200</v>
+        <v>10900</v>
       </c>
       <c r="F35" s="3">
-        <v>47000</v>
+        <v>15800</v>
       </c>
       <c r="G35" s="3">
-        <v>4200</v>
+        <v>45900</v>
       </c>
       <c r="H35" s="3">
-        <v>14900</v>
+        <v>4100</v>
       </c>
       <c r="I35" s="3">
-        <v>37100</v>
+        <v>14600</v>
       </c>
       <c r="J35" s="3">
+        <v>36200</v>
+      </c>
+      <c r="K35" s="3">
         <v>52300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>35700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>28100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-102500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>16800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-79700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-89800</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2053,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1039400</v>
+        <v>179300</v>
       </c>
       <c r="E41" s="3">
-        <v>1042000</v>
+        <v>1014800</v>
       </c>
       <c r="F41" s="3">
-        <v>997800</v>
+        <v>1017400</v>
       </c>
       <c r="G41" s="3">
-        <v>1016300</v>
+        <v>974200</v>
       </c>
       <c r="H41" s="3">
-        <v>1035100</v>
+        <v>992300</v>
       </c>
       <c r="I41" s="3">
-        <v>399200</v>
+        <v>1010600</v>
       </c>
       <c r="J41" s="3">
+        <v>389800</v>
+      </c>
+      <c r="K41" s="3">
         <v>737900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>192400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>233600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>129700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>95900</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,316 +2145,340 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>91500</v>
+        <v>124700</v>
       </c>
       <c r="E43" s="3">
-        <v>81000</v>
+        <v>89300</v>
       </c>
       <c r="F43" s="3">
-        <v>79200</v>
+        <v>79100</v>
       </c>
       <c r="G43" s="3">
-        <v>67300</v>
+        <v>77300</v>
       </c>
       <c r="H43" s="3">
-        <v>65600</v>
+        <v>65700</v>
       </c>
       <c r="I43" s="3">
-        <v>74100</v>
+        <v>64000</v>
       </c>
       <c r="J43" s="3">
+        <v>72300</v>
+      </c>
+      <c r="K43" s="3">
         <v>80200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>78700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>63100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>54200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>51900</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E44" s="3">
         <v>2900</v>
-      </c>
-      <c r="E44" s="3">
-        <v>1700</v>
       </c>
       <c r="F44" s="3">
         <v>1700</v>
       </c>
       <c r="G44" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H44" s="3">
         <v>1900</v>
       </c>
-      <c r="H44" s="3">
-        <v>1800</v>
-      </c>
       <c r="I44" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J44" s="3">
         <v>600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>500</v>
-      </c>
-      <c r="K44" s="3">
-        <v>100</v>
       </c>
       <c r="L44" s="3">
         <v>100</v>
       </c>
       <c r="M44" s="3">
-        <v>700</v>
+        <v>100</v>
       </c>
       <c r="N44" s="3">
         <v>700</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>8</v>
+      <c r="O44" s="3">
+        <v>700</v>
       </c>
       <c r="P44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1155800</v>
+        <v>1208200</v>
       </c>
       <c r="E45" s="3">
-        <v>880900</v>
+        <v>1128500</v>
       </c>
       <c r="F45" s="3">
-        <v>982600</v>
+        <v>860100</v>
       </c>
       <c r="G45" s="3">
-        <v>1064800</v>
+        <v>959300</v>
       </c>
       <c r="H45" s="3">
-        <v>1008500</v>
+        <v>1039600</v>
       </c>
       <c r="I45" s="3">
-        <v>828700</v>
+        <v>984600</v>
       </c>
       <c r="J45" s="3">
+        <v>809100</v>
+      </c>
+      <c r="K45" s="3">
         <v>851100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>726100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>579200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>395200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>304300</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2289600</v>
+        <v>1515600</v>
       </c>
       <c r="E46" s="3">
-        <v>2005700</v>
+        <v>2235400</v>
       </c>
       <c r="F46" s="3">
-        <v>2061300</v>
+        <v>1958300</v>
       </c>
       <c r="G46" s="3">
-        <v>2150300</v>
+        <v>2012500</v>
       </c>
       <c r="H46" s="3">
-        <v>2110900</v>
+        <v>2099500</v>
       </c>
       <c r="I46" s="3">
-        <v>1302600</v>
+        <v>2061000</v>
       </c>
       <c r="J46" s="3">
+        <v>1271800</v>
+      </c>
+      <c r="K46" s="3">
         <v>1669700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>997400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>876000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>579800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>452700</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3800</v>
+        <v>1000</v>
       </c>
       <c r="E47" s="3">
-        <v>5900</v>
+        <v>3700</v>
       </c>
       <c r="F47" s="3">
-        <v>8200</v>
+        <v>5800</v>
       </c>
       <c r="G47" s="3">
-        <v>10500</v>
+        <v>8000</v>
       </c>
       <c r="H47" s="3">
-        <v>20400</v>
+        <v>10200</v>
       </c>
       <c r="I47" s="3">
-        <v>30600</v>
+        <v>19900</v>
       </c>
       <c r="J47" s="3">
+        <v>29800</v>
+      </c>
+      <c r="K47" s="3">
         <v>40300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>50100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>51400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>55700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>56400</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>44100</v>
+        <v>50900</v>
       </c>
       <c r="E48" s="3">
-        <v>38800</v>
+        <v>43000</v>
       </c>
       <c r="F48" s="3">
-        <v>36100</v>
+        <v>37900</v>
       </c>
       <c r="G48" s="3">
-        <v>33100</v>
+        <v>35200</v>
       </c>
       <c r="H48" s="3">
-        <v>26100</v>
+        <v>32300</v>
       </c>
       <c r="I48" s="3">
-        <v>23200</v>
+        <v>25500</v>
       </c>
       <c r="J48" s="3">
         <v>22600</v>
       </c>
       <c r="K48" s="3">
+        <v>22600</v>
+      </c>
+      <c r="L48" s="3">
         <v>20900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>21400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>19900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>17200</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2502100</v>
+        <v>4514800</v>
       </c>
       <c r="E49" s="3">
-        <v>2473900</v>
+        <v>2442900</v>
       </c>
       <c r="F49" s="3">
-        <v>2521800</v>
+        <v>2415400</v>
       </c>
       <c r="G49" s="3">
-        <v>2570000</v>
+        <v>2462200</v>
       </c>
       <c r="H49" s="3">
-        <v>2591700</v>
+        <v>2509200</v>
       </c>
       <c r="I49" s="3">
-        <v>2613900</v>
+        <v>2530400</v>
       </c>
       <c r="J49" s="3">
+        <v>2552100</v>
+      </c>
+      <c r="K49" s="3">
         <v>2145700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2073700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1930900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1464900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1445700</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2568,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>34000</v>
+        <v>47200</v>
       </c>
       <c r="E52" s="3">
+        <v>33200</v>
+      </c>
+      <c r="F52" s="3">
+        <v>27400</v>
+      </c>
+      <c r="G52" s="3">
+        <v>27000</v>
+      </c>
+      <c r="H52" s="3">
+        <v>29400</v>
+      </c>
+      <c r="I52" s="3">
         <v>28100</v>
       </c>
-      <c r="F52" s="3">
-        <v>27700</v>
-      </c>
-      <c r="G52" s="3">
-        <v>30100</v>
-      </c>
-      <c r="H52" s="3">
-        <v>28800</v>
-      </c>
-      <c r="I52" s="3">
-        <v>30500</v>
-      </c>
       <c r="J52" s="3">
+        <v>29800</v>
+      </c>
+      <c r="K52" s="3">
         <v>23400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>29500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>25400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>19800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>17500</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2662,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4873600</v>
+        <v>6129600</v>
       </c>
       <c r="E54" s="3">
-        <v>4552400</v>
+        <v>4758300</v>
       </c>
       <c r="F54" s="3">
-        <v>4655000</v>
+        <v>4444700</v>
       </c>
       <c r="G54" s="3">
-        <v>4794000</v>
+        <v>4544900</v>
       </c>
       <c r="H54" s="3">
-        <v>4777900</v>
+        <v>4680600</v>
       </c>
       <c r="I54" s="3">
-        <v>4000700</v>
+        <v>4664900</v>
       </c>
       <c r="J54" s="3">
+        <v>3906100</v>
+      </c>
+      <c r="K54" s="3">
         <v>3901600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3171600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2905000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2140100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1989600</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,272 +2749,291 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>60600</v>
+        <v>105500</v>
       </c>
       <c r="E57" s="3">
-        <v>44100</v>
+        <v>59100</v>
       </c>
       <c r="F57" s="3">
-        <v>40900</v>
+        <v>43100</v>
       </c>
       <c r="G57" s="3">
-        <v>42900</v>
+        <v>39900</v>
       </c>
       <c r="H57" s="3">
-        <v>41100</v>
+        <v>41900</v>
       </c>
       <c r="I57" s="3">
-        <v>35400</v>
+        <v>40100</v>
       </c>
       <c r="J57" s="3">
+        <v>34500</v>
+      </c>
+      <c r="K57" s="3">
         <v>33500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>33400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>26200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>23500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>20200</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>12000</v>
+        <v>55000</v>
       </c>
       <c r="E58" s="3">
-        <v>11800</v>
+        <v>11700</v>
       </c>
       <c r="F58" s="3">
-        <v>11600</v>
+        <v>11500</v>
       </c>
       <c r="G58" s="3">
         <v>11300</v>
       </c>
       <c r="H58" s="3">
-        <v>10200</v>
+        <v>11000</v>
       </c>
       <c r="I58" s="3">
-        <v>11700</v>
+        <v>9900</v>
       </c>
       <c r="J58" s="3">
+        <v>11500</v>
+      </c>
+      <c r="K58" s="3">
         <v>10000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>6500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3600</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1281000</v>
+        <v>1342600</v>
       </c>
       <c r="E59" s="3">
-        <v>1009100</v>
+        <v>1250700</v>
       </c>
       <c r="F59" s="3">
-        <v>1126300</v>
+        <v>985200</v>
       </c>
       <c r="G59" s="3">
-        <v>1313800</v>
+        <v>1099600</v>
       </c>
       <c r="H59" s="3">
-        <v>1133400</v>
+        <v>1282700</v>
       </c>
       <c r="I59" s="3">
-        <v>964700</v>
+        <v>1106600</v>
       </c>
       <c r="J59" s="3">
+        <v>941900</v>
+      </c>
+      <c r="K59" s="3">
         <v>972400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>807900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>649500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>450200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>508100</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1353600</v>
+        <v>1503200</v>
       </c>
       <c r="E60" s="3">
-        <v>1065000</v>
+        <v>1321600</v>
       </c>
       <c r="F60" s="3">
-        <v>1178700</v>
+        <v>1039800</v>
       </c>
       <c r="G60" s="3">
-        <v>1367900</v>
+        <v>1150900</v>
       </c>
       <c r="H60" s="3">
-        <v>1184700</v>
+        <v>1335600</v>
       </c>
       <c r="I60" s="3">
-        <v>1011900</v>
+        <v>1156600</v>
       </c>
       <c r="J60" s="3">
+        <v>987900</v>
+      </c>
+      <c r="K60" s="3">
         <v>1015900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>844300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>679000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>476800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>531900</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>694300</v>
+        <v>1740400</v>
       </c>
       <c r="E61" s="3">
-        <v>696100</v>
+        <v>677800</v>
       </c>
       <c r="F61" s="3">
-        <v>697400</v>
+        <v>679700</v>
       </c>
       <c r="G61" s="3">
-        <v>698000</v>
+        <v>680900</v>
       </c>
       <c r="H61" s="3">
-        <v>693100</v>
+        <v>681500</v>
       </c>
       <c r="I61" s="3">
-        <v>693300</v>
+        <v>676700</v>
       </c>
       <c r="J61" s="3">
+        <v>676900</v>
+      </c>
+      <c r="K61" s="3">
         <v>694100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>283100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>274900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>138300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1037800</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>88700</v>
+        <v>228700</v>
       </c>
       <c r="E62" s="3">
-        <v>84800</v>
+        <v>86600</v>
       </c>
       <c r="F62" s="3">
-        <v>90000</v>
+        <v>82800</v>
       </c>
       <c r="G62" s="3">
-        <v>95400</v>
+        <v>87900</v>
       </c>
       <c r="H62" s="3">
-        <v>104500</v>
+        <v>93100</v>
       </c>
       <c r="I62" s="3">
-        <v>114900</v>
+        <v>102100</v>
       </c>
       <c r="J62" s="3">
+        <v>112200</v>
+      </c>
+      <c r="K62" s="3">
         <v>74100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>78600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>66900</v>
-      </c>
-      <c r="M62" s="3">
-        <v>12800</v>
       </c>
       <c r="N62" s="3">
         <v>12800</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>8</v>
+      <c r="O62" s="3">
+        <v>12800</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3170,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2151400</v>
+        <v>3488800</v>
       </c>
       <c r="E66" s="3">
-        <v>1858900</v>
+        <v>2100500</v>
       </c>
       <c r="F66" s="3">
-        <v>1977400</v>
+        <v>1815000</v>
       </c>
       <c r="G66" s="3">
-        <v>2171100</v>
+        <v>1930600</v>
       </c>
       <c r="H66" s="3">
-        <v>1999000</v>
+        <v>2119700</v>
       </c>
       <c r="I66" s="3">
-        <v>1835300</v>
+        <v>1951700</v>
       </c>
       <c r="J66" s="3">
+        <v>1791900</v>
+      </c>
+      <c r="K66" s="3">
         <v>1798000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1218600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1032100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>638600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1592400</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3424,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-230700</v>
+        <v>-268300</v>
       </c>
       <c r="E72" s="3">
-        <v>-227100</v>
+        <v>-225300</v>
       </c>
       <c r="F72" s="3">
-        <v>-243800</v>
+        <v>-221800</v>
       </c>
       <c r="G72" s="3">
-        <v>-292100</v>
+        <v>-238000</v>
       </c>
       <c r="H72" s="3">
-        <v>-150400</v>
+        <v>-285200</v>
       </c>
       <c r="I72" s="3">
-        <v>-165300</v>
+        <v>-146800</v>
       </c>
       <c r="J72" s="3">
+        <v>-161400</v>
+      </c>
+      <c r="K72" s="3">
         <v>-202400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-245400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-272800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-303600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-196500</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3612,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2722200</v>
+        <v>2640800</v>
       </c>
       <c r="E76" s="3">
-        <v>2693400</v>
+        <v>2657800</v>
       </c>
       <c r="F76" s="3">
-        <v>2677600</v>
+        <v>2629700</v>
       </c>
       <c r="G76" s="3">
-        <v>2622900</v>
+        <v>2614300</v>
       </c>
       <c r="H76" s="3">
-        <v>2778900</v>
+        <v>2560900</v>
       </c>
       <c r="I76" s="3">
-        <v>2165400</v>
+        <v>2713100</v>
       </c>
       <c r="J76" s="3">
+        <v>2114200</v>
+      </c>
+      <c r="K76" s="3">
         <v>2103600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1953000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1872900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1501500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>397300</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>11100</v>
+        <v>-13200</v>
       </c>
       <c r="E81" s="3">
-        <v>16200</v>
+        <v>10900</v>
       </c>
       <c r="F81" s="3">
-        <v>47000</v>
+        <v>15800</v>
       </c>
       <c r="G81" s="3">
-        <v>4200</v>
+        <v>45900</v>
       </c>
       <c r="H81" s="3">
-        <v>14900</v>
+        <v>4100</v>
       </c>
       <c r="I81" s="3">
-        <v>37100</v>
+        <v>14600</v>
       </c>
       <c r="J81" s="3">
+        <v>36200</v>
+      </c>
+      <c r="K81" s="3">
         <v>52300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>35700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>28100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-102500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>16800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-79700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-89800</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +3826,56 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>30100</v>
+        <v>37300</v>
       </c>
       <c r="E83" s="3">
-        <v>36300</v>
+        <v>29300</v>
       </c>
       <c r="F83" s="3">
-        <v>37400</v>
+        <v>35500</v>
       </c>
       <c r="G83" s="3">
-        <v>36600</v>
+        <v>36500</v>
       </c>
       <c r="H83" s="3">
-        <v>35900</v>
+        <v>35700</v>
       </c>
       <c r="I83" s="3">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="J83" s="3">
+        <v>31300</v>
+      </c>
+      <c r="K83" s="3">
         <v>28700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>28000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>23800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>22100</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O83" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4106,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>103000</v>
+        <v>76700</v>
       </c>
       <c r="E89" s="3">
-        <v>49700</v>
+        <v>100600</v>
       </c>
       <c r="F89" s="3">
-        <v>126500</v>
+        <v>48500</v>
       </c>
       <c r="G89" s="3">
-        <v>90900</v>
+        <v>123500</v>
       </c>
       <c r="H89" s="3">
-        <v>89800</v>
+        <v>88700</v>
       </c>
       <c r="I89" s="3">
-        <v>87000</v>
+        <v>87700</v>
       </c>
       <c r="J89" s="3">
+        <v>84900</v>
+      </c>
+      <c r="K89" s="3">
         <v>118300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>71100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>59400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>20300</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P89" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4174,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-7000</v>
+        <v>-32900</v>
       </c>
       <c r="E91" s="3">
-        <v>-5600</v>
+        <v>-16900</v>
       </c>
       <c r="F91" s="3">
-        <v>-4900</v>
+        <v>-12700</v>
       </c>
       <c r="G91" s="3">
-        <v>-1500</v>
+        <v>-12000</v>
       </c>
       <c r="H91" s="3">
-        <v>-3000</v>
+        <v>-9100</v>
       </c>
       <c r="I91" s="3">
-        <v>-1600</v>
+        <v>-9600</v>
       </c>
       <c r="J91" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-2500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-500</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4313,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-23500</v>
+        <v>-1940600</v>
       </c>
       <c r="E94" s="3">
-        <v>-17600</v>
+        <v>-23000</v>
       </c>
       <c r="F94" s="3">
-        <v>-15700</v>
+        <v>-17200</v>
       </c>
       <c r="G94" s="3">
-        <v>-12600</v>
+        <v>-15300</v>
       </c>
       <c r="H94" s="3">
-        <v>-10500</v>
+        <v>-12300</v>
       </c>
       <c r="I94" s="3">
-        <v>-419300</v>
+        <v>-10300</v>
       </c>
       <c r="J94" s="3">
+        <v>-409300</v>
+      </c>
+      <c r="K94" s="3">
         <v>8300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-120200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-85900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3600</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,136 +4567,148 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-81800</v>
+        <v>1028400</v>
       </c>
       <c r="E100" s="3">
+        <v>-79900</v>
+      </c>
+      <c r="F100" s="3">
         <v>-3000</v>
       </c>
-      <c r="F100" s="3">
-        <v>-105900</v>
-      </c>
       <c r="G100" s="3">
-        <v>-105600</v>
+        <v>-103400</v>
       </c>
       <c r="H100" s="3">
-        <v>564000</v>
+        <v>-103100</v>
       </c>
       <c r="I100" s="3">
+        <v>550600</v>
+      </c>
+      <c r="J100" s="3">
         <v>2200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>409600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>130900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>14200</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P100" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-300</v>
       </c>
-      <c r="E101" s="3">
-        <v>15200</v>
-      </c>
       <c r="F101" s="3">
-        <v>-23500</v>
+        <v>14900</v>
       </c>
       <c r="G101" s="3">
-        <v>8600</v>
+        <v>-22900</v>
       </c>
       <c r="H101" s="3">
-        <v>-7400</v>
+        <v>8400</v>
       </c>
       <c r="I101" s="3">
-        <v>-8600</v>
+        <v>-7300</v>
       </c>
       <c r="J101" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="K101" s="3">
         <v>1900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>800</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O101" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P101" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-2700</v>
+        <v>-835500</v>
       </c>
       <c r="E102" s="3">
-        <v>44200</v>
+        <v>-2600</v>
       </c>
       <c r="F102" s="3">
-        <v>-18600</v>
+        <v>43200</v>
       </c>
       <c r="G102" s="3">
-        <v>-18700</v>
+        <v>-18100</v>
       </c>
       <c r="H102" s="3">
-        <v>635800</v>
+        <v>-18300</v>
       </c>
       <c r="I102" s="3">
-        <v>-338700</v>
+        <v>620800</v>
       </c>
       <c r="J102" s="3">
+        <v>-330700</v>
+      </c>
+      <c r="K102" s="3">
         <v>538200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-48300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>105100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>31600</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O102" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NVEI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NVEI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
   <si>
     <t>NVEI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,232 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>346300</v>
+        <v>414700</v>
       </c>
       <c r="E8" s="3">
-        <v>297400</v>
+        <v>346500</v>
       </c>
       <c r="F8" s="3">
-        <v>266100</v>
+        <v>297600</v>
       </c>
       <c r="G8" s="3">
-        <v>285300</v>
+        <v>266200</v>
       </c>
       <c r="H8" s="3">
-        <v>289600</v>
+        <v>285400</v>
       </c>
       <c r="I8" s="3">
-        <v>286100</v>
+        <v>289700</v>
       </c>
       <c r="J8" s="3">
+        <v>286200</v>
+      </c>
+      <c r="K8" s="3">
         <v>248300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>246400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>200400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>149800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>122400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>106100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>106000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>313100</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>72800</v>
+      </c>
+      <c r="E9" s="3">
         <v>73700</v>
       </c>
-      <c r="E9" s="3">
-        <v>67700</v>
-      </c>
       <c r="F9" s="3">
+        <v>67800</v>
+      </c>
+      <c r="G9" s="3">
         <v>51800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>48600</v>
       </c>
-      <c r="H9" s="3">
-        <v>63300</v>
-      </c>
       <c r="I9" s="3">
+        <v>63400</v>
+      </c>
+      <c r="J9" s="3">
         <v>66300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>51700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>45800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>36200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>30400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>22200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>17300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>19300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>51900</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>272600</v>
+        <v>341800</v>
       </c>
       <c r="E10" s="3">
-        <v>229700</v>
+        <v>272700</v>
       </c>
       <c r="F10" s="3">
-        <v>214300</v>
+        <v>229800</v>
       </c>
       <c r="G10" s="3">
-        <v>236700</v>
+        <v>214400</v>
       </c>
       <c r="H10" s="3">
-        <v>226200</v>
+        <v>236800</v>
       </c>
       <c r="I10" s="3">
-        <v>219800</v>
+        <v>226400</v>
       </c>
       <c r="J10" s="3">
+        <v>219900</v>
+      </c>
+      <c r="K10" s="3">
         <v>196500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>200600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>164200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>119400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>100200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>88900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>86700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>261200</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,8 +908,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -942,8 +956,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,102 +1006,111 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E14" s="3">
         <v>2300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>700</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-500</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-1900</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>2400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>35000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1900</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>37300</v>
+        <v>48500</v>
       </c>
       <c r="E15" s="3">
-        <v>29300</v>
+        <v>37400</v>
       </c>
       <c r="F15" s="3">
+        <v>29400</v>
+      </c>
+      <c r="G15" s="3">
         <v>35500</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>36500</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>35700</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>35000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>31300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>28700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>28000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>23800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>22100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>21700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>22100</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>65100</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1125,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>336400</v>
+        <v>372400</v>
       </c>
       <c r="E17" s="3">
-        <v>268200</v>
+        <v>336600</v>
       </c>
       <c r="F17" s="3">
-        <v>253200</v>
+        <v>268300</v>
       </c>
       <c r="G17" s="3">
-        <v>246400</v>
+        <v>253300</v>
       </c>
       <c r="H17" s="3">
-        <v>261500</v>
+        <v>246500</v>
       </c>
       <c r="I17" s="3">
-        <v>256500</v>
+        <v>261700</v>
       </c>
       <c r="J17" s="3">
+        <v>256700</v>
+      </c>
+      <c r="K17" s="3">
         <v>195000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>178400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>154000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>150500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>101500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>82100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>89200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>304900</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>42300</v>
+      </c>
+      <c r="E18" s="3">
         <v>9800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>29300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>12900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>38900</v>
       </c>
-      <c r="H18" s="3">
-        <v>28000</v>
-      </c>
       <c r="I18" s="3">
+        <v>28100</v>
+      </c>
+      <c r="J18" s="3">
         <v>29500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>53300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>68000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>46500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>20900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>24000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>16800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,243 +1245,259 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E20" s="3">
         <v>8200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>3300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>21800</v>
       </c>
-      <c r="G20" s="3">
-        <v>23600</v>
-      </c>
       <c r="H20" s="3">
+        <v>23700</v>
+      </c>
+      <c r="I20" s="3">
         <v>-3600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>4100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>28900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-62700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>17700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-71300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-27600</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>106600</v>
+      </c>
+      <c r="E21" s="3">
         <v>55400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>61900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>70200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>99100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>60200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>68600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>84300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>95600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>76100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>52000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-19700</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>39100</v>
+      </c>
+      <c r="E22" s="3">
         <v>24000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>12200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>9900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>7300</v>
-      </c>
-      <c r="H22" s="3">
-        <v>6700</v>
       </c>
       <c r="I22" s="3">
         <v>6800</v>
       </c>
       <c r="J22" s="3">
+        <v>6800</v>
+      </c>
+      <c r="K22" s="3">
         <v>6900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>4700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>4400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>55200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>23200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>25000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>75000</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-6000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>20400</v>
       </c>
-      <c r="F23" s="3">
-        <v>24800</v>
-      </c>
       <c r="G23" s="3">
-        <v>55200</v>
+        <v>24900</v>
       </c>
       <c r="H23" s="3">
+        <v>55300</v>
+      </c>
+      <c r="I23" s="3">
         <v>17700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>26800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>46200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>62300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>43700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>28000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-97000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>18500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-79500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-94500</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E24" s="3">
         <v>5200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>7800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>7300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>7900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>11600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>10200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>8400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>8500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>6700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-1200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>4600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-6000</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1543,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>15700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-11200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>12600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>17600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>47400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>6100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>16700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>37800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>53800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>37000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>29200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-101600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>17800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-79400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-88500</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-13200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>10900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>15800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>45900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>4100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>14600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>36200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>52300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>35700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>28100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-102500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>16800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-79700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-89800</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,102 +1843,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-15800</v>
+      </c>
+      <c r="E32" s="3">
         <v>-8200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-3300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-21800</v>
       </c>
-      <c r="G32" s="3">
-        <v>-23600</v>
-      </c>
       <c r="H32" s="3">
+        <v>-23700</v>
+      </c>
+      <c r="I32" s="3">
         <v>3600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-4100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-28900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>62700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-17700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>71300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>27600</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-13200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>10900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>15800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>45900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>4100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>14600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>36200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>52300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>35700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>28100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-102500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>16800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-79700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-89800</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1993,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-13200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>10900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>15800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>45900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>4100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>14600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>36200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>52300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>35700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>28100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-102500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>16800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-79700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-89800</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,55 +2140,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>179300</v>
+        <v>159900</v>
       </c>
       <c r="E41" s="3">
-        <v>1014800</v>
+        <v>179400</v>
       </c>
       <c r="F41" s="3">
-        <v>1017400</v>
+        <v>1015300</v>
       </c>
       <c r="G41" s="3">
-        <v>974200</v>
+        <v>1017900</v>
       </c>
       <c r="H41" s="3">
-        <v>992300</v>
+        <v>974700</v>
       </c>
       <c r="I41" s="3">
-        <v>1010600</v>
+        <v>992800</v>
       </c>
       <c r="J41" s="3">
+        <v>1011100</v>
+      </c>
+      <c r="K41" s="3">
         <v>389800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>737900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>192400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>233600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>129700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>95900</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,337 +2238,361 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>141100</v>
+      </c>
+      <c r="E43" s="3">
         <v>124700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>89300</v>
       </c>
-      <c r="F43" s="3">
-        <v>79100</v>
-      </c>
       <c r="G43" s="3">
-        <v>77300</v>
+        <v>79200</v>
       </c>
       <c r="H43" s="3">
+        <v>77400</v>
+      </c>
+      <c r="I43" s="3">
         <v>65700</v>
       </c>
-      <c r="I43" s="3">
-        <v>64000</v>
-      </c>
       <c r="J43" s="3">
+        <v>64100</v>
+      </c>
+      <c r="K43" s="3">
         <v>72300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>80200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>78700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>63100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>54200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>51900</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E44" s="3">
         <v>3400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>2900</v>
-      </c>
-      <c r="F44" s="3">
-        <v>1700</v>
       </c>
       <c r="G44" s="3">
         <v>1700</v>
       </c>
       <c r="H44" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I44" s="3">
         <v>1900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>500</v>
-      </c>
-      <c r="L44" s="3">
-        <v>100</v>
       </c>
       <c r="M44" s="3">
         <v>100</v>
       </c>
       <c r="N44" s="3">
-        <v>700</v>
+        <v>100</v>
       </c>
       <c r="O44" s="3">
         <v>700</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>8</v>
+      <c r="P44" s="3">
+        <v>700</v>
       </c>
       <c r="Q44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1208200</v>
+        <v>1139700</v>
       </c>
       <c r="E45" s="3">
-        <v>1128500</v>
+        <v>1208800</v>
       </c>
       <c r="F45" s="3">
-        <v>860100</v>
+        <v>1129100</v>
       </c>
       <c r="G45" s="3">
-        <v>959300</v>
+        <v>860600</v>
       </c>
       <c r="H45" s="3">
-        <v>1039600</v>
+        <v>959800</v>
       </c>
       <c r="I45" s="3">
-        <v>984600</v>
+        <v>1040200</v>
       </c>
       <c r="J45" s="3">
+        <v>985100</v>
+      </c>
+      <c r="K45" s="3">
         <v>809100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>851100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>726100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>579200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>395200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>304300</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1515600</v>
+        <v>1443900</v>
       </c>
       <c r="E46" s="3">
-        <v>2235400</v>
+        <v>1516400</v>
       </c>
       <c r="F46" s="3">
-        <v>1958300</v>
+        <v>2236600</v>
       </c>
       <c r="G46" s="3">
-        <v>2012500</v>
+        <v>1959300</v>
       </c>
       <c r="H46" s="3">
-        <v>2099500</v>
+        <v>2013600</v>
       </c>
       <c r="I46" s="3">
-        <v>2061000</v>
+        <v>2100600</v>
       </c>
       <c r="J46" s="3">
+        <v>2062000</v>
+      </c>
+      <c r="K46" s="3">
         <v>1271800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1669700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>997400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>876000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>579800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>452700</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E47" s="3">
         <v>1000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>3700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>5800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>8000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>10200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>19900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>29800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>40300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>50100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>51400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>55700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>56400</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>50200</v>
+      </c>
+      <c r="E48" s="3">
         <v>50900</v>
       </c>
-      <c r="E48" s="3">
-        <v>43000</v>
-      </c>
       <c r="F48" s="3">
+        <v>43100</v>
+      </c>
+      <c r="G48" s="3">
         <v>37900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>35200</v>
       </c>
-      <c r="H48" s="3">
-        <v>32300</v>
-      </c>
       <c r="I48" s="3">
+        <v>32400</v>
+      </c>
+      <c r="J48" s="3">
         <v>25500</v>
-      </c>
-      <c r="J48" s="3">
-        <v>22600</v>
       </c>
       <c r="K48" s="3">
         <v>22600</v>
       </c>
       <c r="L48" s="3">
+        <v>22600</v>
+      </c>
+      <c r="M48" s="3">
         <v>20900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>21400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>19900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>17200</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4514800</v>
+        <v>4495500</v>
       </c>
       <c r="E49" s="3">
-        <v>2442900</v>
+        <v>4517100</v>
       </c>
       <c r="F49" s="3">
-        <v>2415400</v>
+        <v>2444200</v>
       </c>
       <c r="G49" s="3">
-        <v>2462200</v>
+        <v>2416600</v>
       </c>
       <c r="H49" s="3">
-        <v>2509200</v>
+        <v>2463400</v>
       </c>
       <c r="I49" s="3">
-        <v>2530400</v>
+        <v>2510500</v>
       </c>
       <c r="J49" s="3">
+        <v>2531700</v>
+      </c>
+      <c r="K49" s="3">
         <v>2552100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2145700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2073700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1930900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1464900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1445700</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,55 +2688,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>56700</v>
+      </c>
+      <c r="E52" s="3">
         <v>47200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>33200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>27400</v>
       </c>
-      <c r="G52" s="3">
-        <v>27000</v>
-      </c>
       <c r="H52" s="3">
+        <v>27100</v>
+      </c>
+      <c r="I52" s="3">
         <v>29400</v>
       </c>
-      <c r="I52" s="3">
-        <v>28100</v>
-      </c>
       <c r="J52" s="3">
+        <v>28200</v>
+      </c>
+      <c r="K52" s="3">
         <v>29800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>23400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>29500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>25400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>19800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>17500</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2788,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6129600</v>
+        <v>6047400</v>
       </c>
       <c r="E54" s="3">
-        <v>4758300</v>
+        <v>6132700</v>
       </c>
       <c r="F54" s="3">
-        <v>4444700</v>
+        <v>4760800</v>
       </c>
       <c r="G54" s="3">
-        <v>4544900</v>
+        <v>4447000</v>
       </c>
       <c r="H54" s="3">
-        <v>4680600</v>
+        <v>4547300</v>
       </c>
       <c r="I54" s="3">
-        <v>4664900</v>
+        <v>4683000</v>
       </c>
       <c r="J54" s="3">
+        <v>4667300</v>
+      </c>
+      <c r="K54" s="3">
         <v>3906100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3901600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3171600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2905000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2140100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1989600</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,290 +2880,309 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>105500</v>
+        <v>100100</v>
       </c>
       <c r="E57" s="3">
-        <v>59100</v>
+        <v>105600</v>
       </c>
       <c r="F57" s="3">
+        <v>59200</v>
+      </c>
+      <c r="G57" s="3">
         <v>43100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>39900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>41900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>40100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>34500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>33500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>33400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>26200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>23500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>20200</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>55900</v>
+      </c>
+      <c r="E58" s="3">
         <v>55000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>11700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>11500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>11300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>11000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>9900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>11500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>10000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>6500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3600</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1342600</v>
+        <v>1280500</v>
       </c>
       <c r="E59" s="3">
-        <v>1250700</v>
+        <v>1343300</v>
       </c>
       <c r="F59" s="3">
-        <v>985200</v>
+        <v>1251400</v>
       </c>
       <c r="G59" s="3">
-        <v>1099600</v>
+        <v>985700</v>
       </c>
       <c r="H59" s="3">
-        <v>1282700</v>
+        <v>1100200</v>
       </c>
       <c r="I59" s="3">
-        <v>1106600</v>
+        <v>1283300</v>
       </c>
       <c r="J59" s="3">
+        <v>1107200</v>
+      </c>
+      <c r="K59" s="3">
         <v>941900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>972400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>807900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>649500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>450200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>508100</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1503200</v>
+        <v>1436400</v>
       </c>
       <c r="E60" s="3">
-        <v>1321600</v>
+        <v>1503900</v>
       </c>
       <c r="F60" s="3">
-        <v>1039800</v>
+        <v>1322300</v>
       </c>
       <c r="G60" s="3">
-        <v>1150900</v>
+        <v>1040300</v>
       </c>
       <c r="H60" s="3">
-        <v>1335600</v>
+        <v>1151500</v>
       </c>
       <c r="I60" s="3">
-        <v>1156600</v>
+        <v>1336300</v>
       </c>
       <c r="J60" s="3">
+        <v>1157200</v>
+      </c>
+      <c r="K60" s="3">
         <v>987900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1015900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>844300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>679000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>476800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>531900</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1740400</v>
+        <v>1666900</v>
       </c>
       <c r="E61" s="3">
-        <v>677800</v>
+        <v>1741300</v>
       </c>
       <c r="F61" s="3">
-        <v>679700</v>
+        <v>678200</v>
       </c>
       <c r="G61" s="3">
-        <v>680900</v>
+        <v>680000</v>
       </c>
       <c r="H61" s="3">
-        <v>681500</v>
+        <v>681200</v>
       </c>
       <c r="I61" s="3">
-        <v>676700</v>
+        <v>681900</v>
       </c>
       <c r="J61" s="3">
+        <v>677000</v>
+      </c>
+      <c r="K61" s="3">
         <v>676900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>694100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>283100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>274900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>138300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1037800</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>228700</v>
+        <v>225700</v>
       </c>
       <c r="E62" s="3">
+        <v>228800</v>
+      </c>
+      <c r="F62" s="3">
         <v>86600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>82800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>87900</v>
       </c>
-      <c r="H62" s="3">
-        <v>93100</v>
-      </c>
       <c r="I62" s="3">
+        <v>93200</v>
+      </c>
+      <c r="J62" s="3">
         <v>102100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>112200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>74100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>78600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>66900</v>
-      </c>
-      <c r="N62" s="3">
-        <v>12800</v>
       </c>
       <c r="O62" s="3">
         <v>12800</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>8</v>
+      <c r="P62" s="3">
+        <v>12800</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3328,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3488800</v>
+        <v>3347800</v>
       </c>
       <c r="E66" s="3">
-        <v>2100500</v>
+        <v>3490600</v>
       </c>
       <c r="F66" s="3">
-        <v>1815000</v>
+        <v>2101600</v>
       </c>
       <c r="G66" s="3">
-        <v>1930600</v>
+        <v>1815900</v>
       </c>
       <c r="H66" s="3">
-        <v>2119700</v>
+        <v>1931600</v>
       </c>
       <c r="I66" s="3">
-        <v>1951700</v>
+        <v>2120800</v>
       </c>
       <c r="J66" s="3">
+        <v>1952800</v>
+      </c>
+      <c r="K66" s="3">
         <v>1791900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1798000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1218600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1032100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>638600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1592400</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3598,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-268300</v>
+        <v>-255000</v>
       </c>
       <c r="E72" s="3">
-        <v>-225300</v>
+        <v>-268400</v>
       </c>
       <c r="F72" s="3">
-        <v>-221800</v>
+        <v>-225400</v>
       </c>
       <c r="G72" s="3">
-        <v>-238000</v>
+        <v>-221900</v>
       </c>
       <c r="H72" s="3">
-        <v>-285200</v>
+        <v>-238100</v>
       </c>
       <c r="I72" s="3">
-        <v>-146800</v>
+        <v>-285300</v>
       </c>
       <c r="J72" s="3">
+        <v>-146900</v>
+      </c>
+      <c r="K72" s="3">
         <v>-161400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-202400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-245400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-272800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-303600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-196500</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3798,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2640800</v>
+        <v>2699500</v>
       </c>
       <c r="E76" s="3">
-        <v>2657800</v>
+        <v>2642200</v>
       </c>
       <c r="F76" s="3">
-        <v>2629700</v>
+        <v>2659200</v>
       </c>
       <c r="G76" s="3">
-        <v>2614300</v>
+        <v>2631100</v>
       </c>
       <c r="H76" s="3">
-        <v>2560900</v>
+        <v>2615700</v>
       </c>
       <c r="I76" s="3">
-        <v>2713100</v>
+        <v>2562200</v>
       </c>
       <c r="J76" s="3">
+        <v>2714600</v>
+      </c>
+      <c r="K76" s="3">
         <v>2114200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2103600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1953000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1872900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1501500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>397300</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3898,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-13200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>10900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>15800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>45900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>4100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>14600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>36200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>52300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>35700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>28100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-102500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>16800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-79700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-89800</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,55 +4025,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>37300</v>
+        <v>48500</v>
       </c>
       <c r="E83" s="3">
-        <v>29300</v>
+        <v>37400</v>
       </c>
       <c r="F83" s="3">
+        <v>29400</v>
+      </c>
+      <c r="G83" s="3">
         <v>35500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>36500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>35700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>35000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>31300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>28700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>28000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>23800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>22100</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P83" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4323,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>81100</v>
+      </c>
+      <c r="E89" s="3">
         <v>76700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>100600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>48500</v>
       </c>
-      <c r="G89" s="3">
-        <v>123500</v>
-      </c>
       <c r="H89" s="3">
-        <v>88700</v>
+        <v>123600</v>
       </c>
       <c r="I89" s="3">
-        <v>87700</v>
+        <v>88800</v>
       </c>
       <c r="J89" s="3">
+        <v>87800</v>
+      </c>
+      <c r="K89" s="3">
         <v>84900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>118300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>71100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>59400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>20300</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q89" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,55 +4395,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-32900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-16900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-12700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-12000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-9100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-9600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-6400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-500</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4543,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1940600</v>
+        <v>-28700</v>
       </c>
       <c r="E94" s="3">
+        <v>-1941600</v>
+      </c>
+      <c r="F94" s="3">
         <v>-23000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-17200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-15300</v>
       </c>
-      <c r="H94" s="3">
-        <v>-12300</v>
-      </c>
       <c r="I94" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="J94" s="3">
         <v>-10300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-409300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>8300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-120200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-85900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3600</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,145 +4813,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1028400</v>
+        <v>-71900</v>
       </c>
       <c r="E100" s="3">
+        <v>1028900</v>
+      </c>
+      <c r="F100" s="3">
         <v>-79900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-3000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-103400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-103100</v>
       </c>
-      <c r="I100" s="3">
-        <v>550600</v>
-      </c>
       <c r="J100" s="3">
+        <v>550900</v>
+      </c>
+      <c r="K100" s="3">
         <v>2200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>409600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>130900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>14200</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q100" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>14900</v>
       </c>
-      <c r="G101" s="3">
-        <v>-22900</v>
-      </c>
       <c r="H101" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="I101" s="3">
         <v>8400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-7300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-8400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>800</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P101" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q101" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-835500</v>
+        <v>-19500</v>
       </c>
       <c r="E102" s="3">
+        <v>-835900</v>
+      </c>
+      <c r="F102" s="3">
         <v>-2600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>43200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-18100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-18300</v>
       </c>
-      <c r="I102" s="3">
-        <v>620800</v>
-      </c>
       <c r="J102" s="3">
+        <v>621100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-330700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>538200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-48300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>105100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>31600</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P102" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NVEI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NVEI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="92">
   <si>
     <t>NVEI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,232 +665,245 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>414700</v>
+        <v>419400</v>
       </c>
       <c r="E8" s="3">
-        <v>346500</v>
+        <v>422300</v>
       </c>
       <c r="F8" s="3">
-        <v>297600</v>
+        <v>352800</v>
       </c>
       <c r="G8" s="3">
-        <v>266200</v>
+        <v>303000</v>
       </c>
       <c r="H8" s="3">
-        <v>285400</v>
+        <v>271100</v>
       </c>
       <c r="I8" s="3">
-        <v>289700</v>
+        <v>290600</v>
       </c>
       <c r="J8" s="3">
+        <v>295000</v>
+      </c>
+      <c r="K8" s="3">
         <v>286200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>248300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>246400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>200400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>149800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>122400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>106100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>106000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>313100</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>72800</v>
+        <v>76500</v>
       </c>
       <c r="E9" s="3">
-        <v>73700</v>
+        <v>74200</v>
       </c>
       <c r="F9" s="3">
-        <v>67800</v>
+        <v>75100</v>
       </c>
       <c r="G9" s="3">
-        <v>51800</v>
+        <v>69000</v>
       </c>
       <c r="H9" s="3">
-        <v>48600</v>
+        <v>52800</v>
       </c>
       <c r="I9" s="3">
-        <v>63400</v>
+        <v>49500</v>
       </c>
       <c r="J9" s="3">
+        <v>64500</v>
+      </c>
+      <c r="K9" s="3">
         <v>66300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>51700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>45800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>36200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>30400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>22200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>17300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>19300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>51900</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>341800</v>
+        <v>342800</v>
       </c>
       <c r="E10" s="3">
-        <v>272700</v>
+        <v>348100</v>
       </c>
       <c r="F10" s="3">
-        <v>229800</v>
+        <v>277700</v>
       </c>
       <c r="G10" s="3">
-        <v>214400</v>
+        <v>234000</v>
       </c>
       <c r="H10" s="3">
-        <v>236800</v>
+        <v>218300</v>
       </c>
       <c r="I10" s="3">
-        <v>226400</v>
+        <v>241200</v>
       </c>
       <c r="J10" s="3">
+        <v>230500</v>
+      </c>
+      <c r="K10" s="3">
         <v>219900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>196500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>200600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>164200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>119400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>100200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>88900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>86700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>261200</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -909,8 +922,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -959,8 +973,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,108 +1026,117 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E14" s="3">
         <v>2500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>2300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1500</v>
       </c>
-      <c r="G14" s="3">
-        <v>700</v>
-      </c>
       <c r="H14" s="3">
+        <v>800</v>
+      </c>
+      <c r="I14" s="3">
         <v>-500</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-1900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>35000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>1900</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>600</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>48500</v>
+        <v>50300</v>
       </c>
       <c r="E15" s="3">
-        <v>37400</v>
+        <v>49400</v>
       </c>
       <c r="F15" s="3">
-        <v>29400</v>
+        <v>38000</v>
       </c>
       <c r="G15" s="3">
-        <v>35500</v>
+        <v>29900</v>
       </c>
       <c r="H15" s="3">
-        <v>36500</v>
+        <v>36100</v>
       </c>
       <c r="I15" s="3">
-        <v>35700</v>
+        <v>37200</v>
       </c>
       <c r="J15" s="3">
+        <v>36400</v>
+      </c>
+      <c r="K15" s="3">
         <v>35000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>31300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>28700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>28000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>23800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>22100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>21700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>22100</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>65100</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1152,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>372400</v>
+        <v>375400</v>
       </c>
       <c r="E17" s="3">
-        <v>336600</v>
+        <v>379200</v>
       </c>
       <c r="F17" s="3">
-        <v>268300</v>
+        <v>342800</v>
       </c>
       <c r="G17" s="3">
-        <v>253300</v>
+        <v>273200</v>
       </c>
       <c r="H17" s="3">
-        <v>246500</v>
+        <v>258000</v>
       </c>
       <c r="I17" s="3">
-        <v>261700</v>
+        <v>251000</v>
       </c>
       <c r="J17" s="3">
+        <v>266500</v>
+      </c>
+      <c r="K17" s="3">
         <v>256700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>195000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>178400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>154000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>150500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>101500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>82100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>89200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>304900</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>42300</v>
+        <v>44000</v>
       </c>
       <c r="E18" s="3">
-        <v>9800</v>
+        <v>43100</v>
       </c>
       <c r="F18" s="3">
-        <v>29300</v>
+        <v>10000</v>
       </c>
       <c r="G18" s="3">
-        <v>12900</v>
+        <v>29800</v>
       </c>
       <c r="H18" s="3">
-        <v>38900</v>
+        <v>13100</v>
       </c>
       <c r="I18" s="3">
-        <v>28100</v>
+        <v>39600</v>
       </c>
       <c r="J18" s="3">
+        <v>28600</v>
+      </c>
+      <c r="K18" s="3">
         <v>29500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>53300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>68000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>46500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>20900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>24000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>16800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,258 +1279,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>15800</v>
+        <v>-15200</v>
       </c>
       <c r="E20" s="3">
-        <v>8200</v>
+        <v>16100</v>
       </c>
       <c r="F20" s="3">
-        <v>3300</v>
+        <v>8400</v>
       </c>
       <c r="G20" s="3">
-        <v>21800</v>
+        <v>3400</v>
       </c>
       <c r="H20" s="3">
-        <v>23700</v>
+        <v>22200</v>
       </c>
       <c r="I20" s="3">
+        <v>24100</v>
+      </c>
+      <c r="J20" s="3">
         <v>-3600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>4100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>28900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-62700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>17700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-71300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-27600</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>106600</v>
+        <v>79000</v>
       </c>
       <c r="E21" s="3">
-        <v>55400</v>
+        <v>108600</v>
       </c>
       <c r="F21" s="3">
-        <v>61900</v>
+        <v>56400</v>
       </c>
       <c r="G21" s="3">
-        <v>70200</v>
+        <v>63100</v>
       </c>
       <c r="H21" s="3">
-        <v>99100</v>
+        <v>71500</v>
       </c>
       <c r="I21" s="3">
-        <v>60200</v>
+        <v>100900</v>
       </c>
       <c r="J21" s="3">
+        <v>61300</v>
+      </c>
+      <c r="K21" s="3">
         <v>68600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>84300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>95600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>76100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>52000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-19700</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>39100</v>
+        <v>40400</v>
       </c>
       <c r="E22" s="3">
-        <v>24000</v>
+        <v>39800</v>
       </c>
       <c r="F22" s="3">
-        <v>12200</v>
+        <v>24500</v>
       </c>
       <c r="G22" s="3">
-        <v>9900</v>
+        <v>12400</v>
       </c>
       <c r="H22" s="3">
-        <v>7300</v>
+        <v>10100</v>
       </c>
       <c r="I22" s="3">
+        <v>7500</v>
+      </c>
+      <c r="J22" s="3">
+        <v>6900</v>
+      </c>
+      <c r="K22" s="3">
         <v>6800</v>
       </c>
-      <c r="J22" s="3">
-        <v>6800</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>6900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>4700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>4400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>55200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>23200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>25000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>75000</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>19000</v>
+        <v>-11600</v>
       </c>
       <c r="E23" s="3">
-        <v>-6000</v>
+        <v>19400</v>
       </c>
       <c r="F23" s="3">
-        <v>20400</v>
+        <v>-6100</v>
       </c>
       <c r="G23" s="3">
-        <v>24900</v>
+        <v>20800</v>
       </c>
       <c r="H23" s="3">
-        <v>55300</v>
+        <v>25300</v>
       </c>
       <c r="I23" s="3">
-        <v>17700</v>
+        <v>56300</v>
       </c>
       <c r="J23" s="3">
+        <v>18100</v>
+      </c>
+      <c r="K23" s="3">
         <v>26800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>46200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>62300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>43700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>28000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-97000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>18500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-79500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-94500</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>13300</v>
+      </c>
+      <c r="E24" s="3">
         <v>3400</v>
       </c>
-      <c r="E24" s="3">
-        <v>5200</v>
-      </c>
       <c r="F24" s="3">
-        <v>7800</v>
+        <v>5300</v>
       </c>
       <c r="G24" s="3">
-        <v>7300</v>
+        <v>7900</v>
       </c>
       <c r="H24" s="3">
-        <v>7900</v>
+        <v>7400</v>
       </c>
       <c r="I24" s="3">
-        <v>11600</v>
+        <v>8000</v>
       </c>
       <c r="J24" s="3">
+        <v>11800</v>
+      </c>
+      <c r="K24" s="3">
         <v>10200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>8400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>8500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>6700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-1200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>4600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-6000</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1595,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>15700</v>
+        <v>-24900</v>
       </c>
       <c r="E26" s="3">
-        <v>-11200</v>
+        <v>16000</v>
       </c>
       <c r="F26" s="3">
-        <v>12600</v>
+        <v>-11400</v>
       </c>
       <c r="G26" s="3">
-        <v>17600</v>
+        <v>12900</v>
       </c>
       <c r="H26" s="3">
-        <v>47400</v>
+        <v>17900</v>
       </c>
       <c r="I26" s="3">
-        <v>6100</v>
+        <v>48300</v>
       </c>
       <c r="J26" s="3">
+        <v>6200</v>
+      </c>
+      <c r="K26" s="3">
         <v>16700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>37800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>53800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>37000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>29200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-101600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>17800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-79400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-88500</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>13400</v>
+        <v>-27300</v>
       </c>
       <c r="E27" s="3">
-        <v>-13200</v>
+        <v>13600</v>
       </c>
       <c r="F27" s="3">
-        <v>10900</v>
+        <v>-13400</v>
       </c>
       <c r="G27" s="3">
-        <v>15800</v>
+        <v>11100</v>
       </c>
       <c r="H27" s="3">
-        <v>45900</v>
+        <v>16100</v>
       </c>
       <c r="I27" s="3">
+        <v>46700</v>
+      </c>
+      <c r="J27" s="3">
         <v>4100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>14600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>36200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>52300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>35700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>28100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-102500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>16800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-79700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-89800</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1754,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1807,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1860,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,108 +1913,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-15800</v>
+        <v>15200</v>
       </c>
       <c r="E32" s="3">
-        <v>-8200</v>
+        <v>-16100</v>
       </c>
       <c r="F32" s="3">
-        <v>-3300</v>
+        <v>-8400</v>
       </c>
       <c r="G32" s="3">
-        <v>-21800</v>
+        <v>-3400</v>
       </c>
       <c r="H32" s="3">
-        <v>-23700</v>
+        <v>-22200</v>
       </c>
       <c r="I32" s="3">
+        <v>-24100</v>
+      </c>
+      <c r="J32" s="3">
         <v>3600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-4100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-28900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>62700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-17700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>71300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>27600</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>13400</v>
+        <v>-27300</v>
       </c>
       <c r="E33" s="3">
-        <v>-13200</v>
+        <v>13600</v>
       </c>
       <c r="F33" s="3">
-        <v>10900</v>
+        <v>-13400</v>
       </c>
       <c r="G33" s="3">
-        <v>15800</v>
+        <v>11100</v>
       </c>
       <c r="H33" s="3">
-        <v>45900</v>
+        <v>16100</v>
       </c>
       <c r="I33" s="3">
+        <v>46700</v>
+      </c>
+      <c r="J33" s="3">
         <v>4100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>14600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>36200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>52300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>35700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>28100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-102500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>16800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-79700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-89800</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2072,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>13400</v>
+        <v>-27300</v>
       </c>
       <c r="E35" s="3">
-        <v>-13200</v>
+        <v>13600</v>
       </c>
       <c r="F35" s="3">
-        <v>10900</v>
+        <v>-13400</v>
       </c>
       <c r="G35" s="3">
-        <v>15800</v>
+        <v>11100</v>
       </c>
       <c r="H35" s="3">
-        <v>45900</v>
+        <v>16100</v>
       </c>
       <c r="I35" s="3">
+        <v>46700</v>
+      </c>
+      <c r="J35" s="3">
         <v>4100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>14600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>36200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>52300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>35700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>28100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-102500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>16800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-79700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-89800</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2206,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,58 +2227,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>159900</v>
+        <v>166400</v>
       </c>
       <c r="E41" s="3">
-        <v>179400</v>
+        <v>162800</v>
       </c>
       <c r="F41" s="3">
-        <v>1015300</v>
+        <v>182700</v>
       </c>
       <c r="G41" s="3">
-        <v>1017900</v>
+        <v>1033900</v>
       </c>
       <c r="H41" s="3">
-        <v>974700</v>
+        <v>1036600</v>
       </c>
       <c r="I41" s="3">
-        <v>992800</v>
+        <v>992600</v>
       </c>
       <c r="J41" s="3">
+        <v>1011000</v>
+      </c>
+      <c r="K41" s="3">
         <v>1011100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>389800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>737900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>192400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>233600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>129700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>95900</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,58 +2331,64 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>141100</v>
+        <v>148300</v>
       </c>
       <c r="E43" s="3">
-        <v>124700</v>
+        <v>143700</v>
       </c>
       <c r="F43" s="3">
-        <v>89300</v>
+        <v>127000</v>
       </c>
       <c r="G43" s="3">
-        <v>79200</v>
+        <v>91000</v>
       </c>
       <c r="H43" s="3">
-        <v>77400</v>
+        <v>80600</v>
       </c>
       <c r="I43" s="3">
-        <v>65700</v>
+        <v>78800</v>
       </c>
       <c r="J43" s="3">
+        <v>66900</v>
+      </c>
+      <c r="K43" s="3">
         <v>64100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>72300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>80200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>78700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>63100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>54200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>51900</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2300,149 +2396,158 @@
         <v>3200</v>
       </c>
       <c r="E44" s="3">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="F44" s="3">
+        <v>3500</v>
+      </c>
+      <c r="G44" s="3">
         <v>2900</v>
-      </c>
-      <c r="G44" s="3">
-        <v>1700</v>
       </c>
       <c r="H44" s="3">
         <v>1700</v>
       </c>
       <c r="I44" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J44" s="3">
         <v>1900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>500</v>
-      </c>
-      <c r="M44" s="3">
-        <v>100</v>
       </c>
       <c r="N44" s="3">
         <v>100</v>
       </c>
       <c r="O44" s="3">
-        <v>700</v>
+        <v>100</v>
       </c>
       <c r="P44" s="3">
         <v>700</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>8</v>
+      <c r="Q44" s="3">
+        <v>700</v>
       </c>
       <c r="R44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1139700</v>
+        <v>1426300</v>
       </c>
       <c r="E45" s="3">
-        <v>1208800</v>
+        <v>1160700</v>
       </c>
       <c r="F45" s="3">
-        <v>1129100</v>
+        <v>1231000</v>
       </c>
       <c r="G45" s="3">
-        <v>860600</v>
+        <v>1149800</v>
       </c>
       <c r="H45" s="3">
-        <v>959800</v>
+        <v>876400</v>
       </c>
       <c r="I45" s="3">
-        <v>1040200</v>
+        <v>977400</v>
       </c>
       <c r="J45" s="3">
+        <v>1059300</v>
+      </c>
+      <c r="K45" s="3">
         <v>985100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>809100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>851100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>726100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>579200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>395200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>304300</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1443900</v>
+        <v>1744200</v>
       </c>
       <c r="E46" s="3">
-        <v>1516400</v>
+        <v>1470400</v>
       </c>
       <c r="F46" s="3">
-        <v>2236600</v>
+        <v>1544300</v>
       </c>
       <c r="G46" s="3">
-        <v>1959300</v>
+        <v>2277700</v>
       </c>
       <c r="H46" s="3">
-        <v>2013600</v>
+        <v>1995300</v>
       </c>
       <c r="I46" s="3">
-        <v>2100600</v>
+        <v>2050500</v>
       </c>
       <c r="J46" s="3">
+        <v>2139200</v>
+      </c>
+      <c r="K46" s="3">
         <v>2062000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1271800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1669700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>997400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>876000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>579800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>452700</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2450,149 +2555,158 @@
         <v>1100</v>
       </c>
       <c r="E47" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F47" s="3">
         <v>1000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>3700</v>
       </c>
-      <c r="G47" s="3">
-        <v>5800</v>
-      </c>
       <c r="H47" s="3">
-        <v>8000</v>
+        <v>5900</v>
       </c>
       <c r="I47" s="3">
-        <v>10200</v>
+        <v>8100</v>
       </c>
       <c r="J47" s="3">
+        <v>10400</v>
+      </c>
+      <c r="K47" s="3">
         <v>19900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>29800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>40300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>50100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>51400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>55700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>56400</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>50200</v>
+        <v>48400</v>
       </c>
       <c r="E48" s="3">
-        <v>50900</v>
+        <v>51200</v>
       </c>
       <c r="F48" s="3">
-        <v>43100</v>
+        <v>51900</v>
       </c>
       <c r="G48" s="3">
-        <v>37900</v>
+        <v>43900</v>
       </c>
       <c r="H48" s="3">
-        <v>35200</v>
+        <v>38600</v>
       </c>
       <c r="I48" s="3">
-        <v>32400</v>
+        <v>35900</v>
       </c>
       <c r="J48" s="3">
+        <v>33000</v>
+      </c>
+      <c r="K48" s="3">
         <v>25500</v>
-      </c>
-      <c r="K48" s="3">
-        <v>22600</v>
       </c>
       <c r="L48" s="3">
         <v>22600</v>
       </c>
       <c r="M48" s="3">
+        <v>22600</v>
+      </c>
+      <c r="N48" s="3">
         <v>20900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>21400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>19900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>17200</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4495500</v>
+        <v>4536600</v>
       </c>
       <c r="E49" s="3">
-        <v>4517100</v>
+        <v>4578100</v>
       </c>
       <c r="F49" s="3">
-        <v>2444200</v>
+        <v>4600100</v>
       </c>
       <c r="G49" s="3">
-        <v>2416600</v>
+        <v>2489100</v>
       </c>
       <c r="H49" s="3">
-        <v>2463400</v>
+        <v>2461000</v>
       </c>
       <c r="I49" s="3">
-        <v>2510500</v>
+        <v>2508700</v>
       </c>
       <c r="J49" s="3">
+        <v>2556600</v>
+      </c>
+      <c r="K49" s="3">
         <v>2531700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2552100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2145700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2073700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1930900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1464900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1445700</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2755,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,58 +2808,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>56700</v>
+        <v>58300</v>
       </c>
       <c r="E52" s="3">
-        <v>47200</v>
+        <v>57700</v>
       </c>
       <c r="F52" s="3">
-        <v>33200</v>
+        <v>48100</v>
       </c>
       <c r="G52" s="3">
-        <v>27400</v>
+        <v>33900</v>
       </c>
       <c r="H52" s="3">
-        <v>27100</v>
+        <v>27900</v>
       </c>
       <c r="I52" s="3">
-        <v>29400</v>
+        <v>27600</v>
       </c>
       <c r="J52" s="3">
+        <v>29900</v>
+      </c>
+      <c r="K52" s="3">
         <v>28200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>29800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>23400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>29500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>25400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>19800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>17500</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,58 +2914,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6047400</v>
+        <v>6388600</v>
       </c>
       <c r="E54" s="3">
-        <v>6132700</v>
+        <v>6158400</v>
       </c>
       <c r="F54" s="3">
-        <v>4760800</v>
+        <v>6245300</v>
       </c>
       <c r="G54" s="3">
-        <v>4447000</v>
+        <v>4848200</v>
       </c>
       <c r="H54" s="3">
-        <v>4547300</v>
+        <v>4528700</v>
       </c>
       <c r="I54" s="3">
-        <v>4683000</v>
+        <v>4630800</v>
       </c>
       <c r="J54" s="3">
+        <v>4769000</v>
+      </c>
+      <c r="K54" s="3">
         <v>4667300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3906100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3901600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3171600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2905000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2140100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1989600</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2990,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,308 +3011,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100100</v>
+        <v>96000</v>
       </c>
       <c r="E57" s="3">
-        <v>105600</v>
+        <v>101900</v>
       </c>
       <c r="F57" s="3">
-        <v>59200</v>
+        <v>107500</v>
       </c>
       <c r="G57" s="3">
-        <v>43100</v>
+        <v>60300</v>
       </c>
       <c r="H57" s="3">
-        <v>39900</v>
+        <v>43900</v>
       </c>
       <c r="I57" s="3">
-        <v>41900</v>
+        <v>40700</v>
       </c>
       <c r="J57" s="3">
+        <v>42700</v>
+      </c>
+      <c r="K57" s="3">
         <v>40100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>34500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>33500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>33400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>26200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>23500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>20200</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>55900</v>
+        <v>14900</v>
       </c>
       <c r="E58" s="3">
-        <v>55000</v>
+        <v>56900</v>
       </c>
       <c r="F58" s="3">
+        <v>56100</v>
+      </c>
+      <c r="G58" s="3">
+        <v>11900</v>
+      </c>
+      <c r="H58" s="3">
         <v>11700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
+        <v>11600</v>
+      </c>
+      <c r="J58" s="3">
+        <v>11200</v>
+      </c>
+      <c r="K58" s="3">
+        <v>9900</v>
+      </c>
+      <c r="L58" s="3">
         <v>11500</v>
       </c>
-      <c r="H58" s="3">
-        <v>11300</v>
-      </c>
-      <c r="I58" s="3">
-        <v>11000</v>
-      </c>
-      <c r="J58" s="3">
-        <v>9900</v>
-      </c>
-      <c r="K58" s="3">
-        <v>11500</v>
-      </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>10000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>6500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3600</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1280500</v>
+        <v>1587800</v>
       </c>
       <c r="E59" s="3">
-        <v>1343300</v>
+        <v>1304000</v>
       </c>
       <c r="F59" s="3">
-        <v>1251400</v>
+        <v>1368000</v>
       </c>
       <c r="G59" s="3">
-        <v>985700</v>
+        <v>1274400</v>
       </c>
       <c r="H59" s="3">
-        <v>1100200</v>
+        <v>1003800</v>
       </c>
       <c r="I59" s="3">
-        <v>1283300</v>
+        <v>1120400</v>
       </c>
       <c r="J59" s="3">
+        <v>1306900</v>
+      </c>
+      <c r="K59" s="3">
         <v>1107200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>941900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>972400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>807900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>649500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>450200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>508100</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1436400</v>
+        <v>1698800</v>
       </c>
       <c r="E60" s="3">
-        <v>1503900</v>
+        <v>1462800</v>
       </c>
       <c r="F60" s="3">
-        <v>1322300</v>
+        <v>1531600</v>
       </c>
       <c r="G60" s="3">
-        <v>1040300</v>
+        <v>1346500</v>
       </c>
       <c r="H60" s="3">
-        <v>1151500</v>
+        <v>1059400</v>
       </c>
       <c r="I60" s="3">
-        <v>1336300</v>
+        <v>1172600</v>
       </c>
       <c r="J60" s="3">
+        <v>1360800</v>
+      </c>
+      <c r="K60" s="3">
         <v>1157200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>987900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1015900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>844300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>679000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>476800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>531900</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1666900</v>
+        <v>1690900</v>
       </c>
       <c r="E61" s="3">
-        <v>1741300</v>
+        <v>1697500</v>
       </c>
       <c r="F61" s="3">
-        <v>678200</v>
+        <v>1773200</v>
       </c>
       <c r="G61" s="3">
-        <v>680000</v>
+        <v>690600</v>
       </c>
       <c r="H61" s="3">
-        <v>681200</v>
+        <v>692500</v>
       </c>
       <c r="I61" s="3">
-        <v>681900</v>
+        <v>693700</v>
       </c>
       <c r="J61" s="3">
+        <v>694400</v>
+      </c>
+      <c r="K61" s="3">
         <v>677000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>676900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>694100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>283100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>274900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>138300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1037800</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>225700</v>
+        <v>226800</v>
       </c>
       <c r="E62" s="3">
-        <v>228800</v>
+        <v>229800</v>
       </c>
       <c r="F62" s="3">
-        <v>86600</v>
+        <v>233000</v>
       </c>
       <c r="G62" s="3">
-        <v>82800</v>
+        <v>88200</v>
       </c>
       <c r="H62" s="3">
-        <v>87900</v>
+        <v>84300</v>
       </c>
       <c r="I62" s="3">
-        <v>93200</v>
+        <v>89500</v>
       </c>
       <c r="J62" s="3">
+        <v>94900</v>
+      </c>
+      <c r="K62" s="3">
         <v>102100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>112200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>74100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>78600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>66900</v>
-      </c>
-      <c r="O62" s="3">
-        <v>12800</v>
       </c>
       <c r="P62" s="3">
         <v>12800</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>8</v>
+      <c r="Q62" s="3">
+        <v>12800</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3380,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3433,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,58 +3486,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3347800</v>
+        <v>3638100</v>
       </c>
       <c r="E66" s="3">
-        <v>3490600</v>
+        <v>3409300</v>
       </c>
       <c r="F66" s="3">
-        <v>2101600</v>
+        <v>3554700</v>
       </c>
       <c r="G66" s="3">
-        <v>1815900</v>
+        <v>2140200</v>
       </c>
       <c r="H66" s="3">
-        <v>1931600</v>
+        <v>1849300</v>
       </c>
       <c r="I66" s="3">
-        <v>2120800</v>
+        <v>1967100</v>
       </c>
       <c r="J66" s="3">
+        <v>2159800</v>
+      </c>
+      <c r="K66" s="3">
         <v>1952800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1791900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1798000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1218600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1032100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>638600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1592400</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3562,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3613,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3666,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3719,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,58 +3772,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-255000</v>
+        <v>-306200</v>
       </c>
       <c r="E72" s="3">
-        <v>-268400</v>
+        <v>-259700</v>
       </c>
       <c r="F72" s="3">
-        <v>-225400</v>
+        <v>-273400</v>
       </c>
       <c r="G72" s="3">
-        <v>-221900</v>
+        <v>-229500</v>
       </c>
       <c r="H72" s="3">
-        <v>-238100</v>
+        <v>-226000</v>
       </c>
       <c r="I72" s="3">
-        <v>-285300</v>
+        <v>-242500</v>
       </c>
       <c r="J72" s="3">
+        <v>-290600</v>
+      </c>
+      <c r="K72" s="3">
         <v>-146900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-161400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-202400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-245400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-272800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-303600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-196500</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3878,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3931,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,58 +3984,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2699500</v>
+        <v>2750500</v>
       </c>
       <c r="E76" s="3">
-        <v>2642200</v>
+        <v>2749100</v>
       </c>
       <c r="F76" s="3">
-        <v>2659200</v>
+        <v>2690700</v>
       </c>
       <c r="G76" s="3">
-        <v>2631100</v>
+        <v>2708000</v>
       </c>
       <c r="H76" s="3">
-        <v>2615700</v>
+        <v>2679400</v>
       </c>
       <c r="I76" s="3">
-        <v>2562200</v>
+        <v>2663700</v>
       </c>
       <c r="J76" s="3">
+        <v>2609200</v>
+      </c>
+      <c r="K76" s="3">
         <v>2714600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2114200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2103600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1953000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1872900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1501500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>397300</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4090,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>13400</v>
+        <v>-27300</v>
       </c>
       <c r="E81" s="3">
-        <v>-13200</v>
+        <v>13600</v>
       </c>
       <c r="F81" s="3">
-        <v>10900</v>
+        <v>-13400</v>
       </c>
       <c r="G81" s="3">
-        <v>15800</v>
+        <v>11100</v>
       </c>
       <c r="H81" s="3">
-        <v>45900</v>
+        <v>16100</v>
       </c>
       <c r="I81" s="3">
+        <v>46700</v>
+      </c>
+      <c r="J81" s="3">
         <v>4100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>14600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>36200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>52300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>35700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>28100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-102500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>16800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-79700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-89800</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,58 +4224,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>48500</v>
+        <v>50300</v>
       </c>
       <c r="E83" s="3">
-        <v>37400</v>
+        <v>49400</v>
       </c>
       <c r="F83" s="3">
-        <v>29400</v>
+        <v>38000</v>
       </c>
       <c r="G83" s="3">
-        <v>35500</v>
+        <v>29900</v>
       </c>
       <c r="H83" s="3">
-        <v>36500</v>
+        <v>36100</v>
       </c>
       <c r="I83" s="3">
-        <v>35700</v>
+        <v>37200</v>
       </c>
       <c r="J83" s="3">
+        <v>36400</v>
+      </c>
+      <c r="K83" s="3">
         <v>35000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>31300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>28700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>28000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>23800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>22100</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q83" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4328,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4381,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4434,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4487,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4540,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>81100</v>
+        <v>90000</v>
       </c>
       <c r="E89" s="3">
-        <v>76700</v>
+        <v>82600</v>
       </c>
       <c r="F89" s="3">
-        <v>100600</v>
+        <v>78100</v>
       </c>
       <c r="G89" s="3">
-        <v>48500</v>
+        <v>102500</v>
       </c>
       <c r="H89" s="3">
-        <v>123600</v>
+        <v>49400</v>
       </c>
       <c r="I89" s="3">
-        <v>88800</v>
+        <v>125800</v>
       </c>
       <c r="J89" s="3">
+        <v>90400</v>
+      </c>
+      <c r="K89" s="3">
         <v>87800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>84900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>118300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>71100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>59400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>20300</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q89" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R89" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,58 +4616,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-14500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-32900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-16900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-12700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-12000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-9100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-9600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-6400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-500</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q91" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4720,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,58 +4773,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-28700</v>
+        <v>-17300</v>
       </c>
       <c r="E94" s="3">
-        <v>-1941600</v>
+        <v>-29200</v>
       </c>
       <c r="F94" s="3">
-        <v>-23000</v>
+        <v>-1977200</v>
       </c>
       <c r="G94" s="3">
-        <v>-17200</v>
+        <v>-23400</v>
       </c>
       <c r="H94" s="3">
-        <v>-15300</v>
+        <v>-17500</v>
       </c>
       <c r="I94" s="3">
-        <v>-12400</v>
+        <v>-15600</v>
       </c>
       <c r="J94" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-10300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-409300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>8300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-120200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-85900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3600</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q94" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4849,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4900,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4953,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5006,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,58 +5059,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-71900</v>
+        <v>-69100</v>
       </c>
       <c r="E100" s="3">
-        <v>1028900</v>
+        <v>-73200</v>
       </c>
       <c r="F100" s="3">
-        <v>-79900</v>
+        <v>1047800</v>
       </c>
       <c r="G100" s="3">
+        <v>-81400</v>
+      </c>
+      <c r="H100" s="3">
         <v>-3000</v>
       </c>
-      <c r="H100" s="3">
-        <v>-103400</v>
-      </c>
       <c r="I100" s="3">
-        <v>-103100</v>
+        <v>-105300</v>
       </c>
       <c r="J100" s="3">
+        <v>-105000</v>
+      </c>
+      <c r="K100" s="3">
         <v>550900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>409600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>130900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>14200</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R100" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4875,95 +5124,101 @@
         <v>0</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-300</v>
       </c>
-      <c r="G101" s="3">
-        <v>14900</v>
-      </c>
       <c r="H101" s="3">
-        <v>-23000</v>
+        <v>15100</v>
       </c>
       <c r="I101" s="3">
-        <v>8400</v>
+        <v>-23400</v>
       </c>
       <c r="J101" s="3">
+        <v>8500</v>
+      </c>
+      <c r="K101" s="3">
         <v>-7300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-8400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>800</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q101" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R101" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-19500</v>
+        <v>3600</v>
       </c>
       <c r="E102" s="3">
-        <v>-835900</v>
+        <v>-19900</v>
       </c>
       <c r="F102" s="3">
+        <v>-851200</v>
+      </c>
+      <c r="G102" s="3">
         <v>-2600</v>
       </c>
-      <c r="G102" s="3">
-        <v>43200</v>
-      </c>
       <c r="H102" s="3">
-        <v>-18100</v>
+        <v>44000</v>
       </c>
       <c r="I102" s="3">
-        <v>-18300</v>
+        <v>-18500</v>
       </c>
       <c r="J102" s="3">
+        <v>-18600</v>
+      </c>
+      <c r="K102" s="3">
         <v>621100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-330700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>538200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-48300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>105100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>31600</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q102" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>8</v>
       </c>
     </row>
